--- a/REGULAR/MENDOZA, NORA A..xlsx
+++ b/REGULAR/MENDOZA, NORA A..xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\ACCOUNTING\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D29492-2780-4615-B955-E45C078E014A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455FBA83-10B2-406C-9304-1794F749F58B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="458">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1403,6 +1403,12 @@
   </si>
   <si>
     <t>12/27,28,29</t>
+  </si>
+  <si>
+    <t>ADMIN AIDE III</t>
+  </si>
+  <si>
+    <t>FL(5-0-0)</t>
   </si>
 </sst>
 </file>
@@ -1639,7 +1645,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1782,6 +1788,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3803,7 +3812,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K695" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K737" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K737" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
@@ -4181,12 +4191,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K695"/>
+  <dimension ref="A2:K737"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A676" activePane="bottomLeft"/>
-      <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="D685" sqref="D685"/>
+      <pane ySplit="3576" topLeftCell="A220" activePane="bottomLeft"/>
+      <selection activeCell="I9" sqref="I9:K9"/>
+      <selection pane="bottomLeft" activeCell="G228" sqref="G228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4208,62 +4218,64 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="51"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
+      <c r="B3" s="52" t="s">
+        <v>456</v>
+      </c>
+      <c r="C3" s="52"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="59"/>
-      <c r="G3" s="56"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="57"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="52" t="s">
         <v>452</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="57" t="s">
         <v>453</v>
       </c>
-      <c r="G4" s="56"/>
+      <c r="G4" s="57"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -4289,18 +4301,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50" t="s">
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -4347,7 +4359,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>-1.0419999999998311</v>
+        <v>-6.593999999999852</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4357,7 +4369,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>64.042000000000002</v>
+        <v>65.542000000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -11170,7 +11182,9 @@
         <v>235</v>
       </c>
       <c r="C306" s="13"/>
-      <c r="D306" s="39"/>
+      <c r="D306" s="39">
+        <v>1.8980000000000001</v>
+      </c>
       <c r="E306" s="9"/>
       <c r="F306" s="20"/>
       <c r="G306" s="13" t="str">
@@ -11194,7 +11208,9 @@
       <c r="C307" s="13">
         <v>1.25</v>
       </c>
-      <c r="D307" s="39"/>
+      <c r="D307" s="39">
+        <v>1.1539999999999999</v>
+      </c>
       <c r="E307" s="9"/>
       <c r="F307" s="20"/>
       <c r="G307" s="13">
@@ -20097,12 +20113,14 @@
       </c>
     </row>
     <row r="693" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A693" s="47" t="s">
-        <v>451</v>
-      </c>
-      <c r="B693" s="20"/>
+      <c r="A693" s="40"/>
+      <c r="B693" s="20" t="s">
+        <v>457</v>
+      </c>
       <c r="C693" s="13"/>
-      <c r="D693" s="39"/>
+      <c r="D693" s="39">
+        <v>5</v>
+      </c>
       <c r="E693" s="9"/>
       <c r="F693" s="20"/>
       <c r="G693" s="13" t="str">
@@ -20115,19 +20133,17 @@
       <c r="K693" s="20"/>
     </row>
     <row r="694" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A694" s="40">
-        <v>44927</v>
+      <c r="A694" s="47" t="s">
+        <v>451</v>
       </c>
       <c r="B694" s="20"/>
-      <c r="C694" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C694" s="13"/>
       <c r="D694" s="39"/>
       <c r="E694" s="9"/>
       <c r="F694" s="20"/>
-      <c r="G694" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G694" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H694" s="39"/>
       <c r="I694" s="9"/>
@@ -20135,20 +20151,751 @@
       <c r="K694" s="20"/>
     </row>
     <row r="695" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A695" s="40"/>
+      <c r="A695" s="40">
+        <v>44927</v>
+      </c>
       <c r="B695" s="20"/>
-      <c r="C695" s="13"/>
+      <c r="C695" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D695" s="39"/>
       <c r="E695" s="9"/>
       <c r="F695" s="20"/>
-      <c r="G695" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G695" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H695" s="39"/>
       <c r="I695" s="9"/>
       <c r="J695" s="11"/>
       <c r="K695" s="20"/>
+    </row>
+    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A696" s="40">
+        <f>EDATE(A695,1)</f>
+        <v>44958</v>
+      </c>
+      <c r="B696" s="20"/>
+      <c r="C696" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D696" s="39"/>
+      <c r="E696" s="9"/>
+      <c r="F696" s="20"/>
+      <c r="G696" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H696" s="39"/>
+      <c r="I696" s="9"/>
+      <c r="J696" s="11"/>
+      <c r="K696" s="20"/>
+    </row>
+    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A697" s="40">
+        <f t="shared" ref="A697:A710" si="0">EDATE(A696,1)</f>
+        <v>44986</v>
+      </c>
+      <c r="B697" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C697" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D697" s="39"/>
+      <c r="E697" s="9"/>
+      <c r="F697" s="20"/>
+      <c r="G697" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H697" s="39">
+        <v>1</v>
+      </c>
+      <c r="I697" s="9"/>
+      <c r="J697" s="11"/>
+      <c r="K697" s="49">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A698" s="40">
+        <f t="shared" si="0"/>
+        <v>45017</v>
+      </c>
+      <c r="B698" s="20"/>
+      <c r="C698" s="13"/>
+      <c r="D698" s="39"/>
+      <c r="E698" s="9"/>
+      <c r="F698" s="20"/>
+      <c r="G698" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H698" s="39"/>
+      <c r="I698" s="9"/>
+      <c r="J698" s="11"/>
+      <c r="K698" s="20"/>
+    </row>
+    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A699" s="40">
+        <f t="shared" si="0"/>
+        <v>45047</v>
+      </c>
+      <c r="B699" s="20"/>
+      <c r="C699" s="13"/>
+      <c r="D699" s="39"/>
+      <c r="E699" s="9"/>
+      <c r="F699" s="20"/>
+      <c r="G699" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H699" s="39"/>
+      <c r="I699" s="9"/>
+      <c r="J699" s="11"/>
+      <c r="K699" s="20"/>
+    </row>
+    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A700" s="40">
+        <f t="shared" si="0"/>
+        <v>45078</v>
+      </c>
+      <c r="B700" s="20"/>
+      <c r="C700" s="13"/>
+      <c r="D700" s="39"/>
+      <c r="E700" s="9"/>
+      <c r="F700" s="20"/>
+      <c r="G700" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H700" s="39"/>
+      <c r="I700" s="9"/>
+      <c r="J700" s="11"/>
+      <c r="K700" s="20"/>
+    </row>
+    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A701" s="40">
+        <f t="shared" si="0"/>
+        <v>45108</v>
+      </c>
+      <c r="B701" s="20"/>
+      <c r="C701" s="13"/>
+      <c r="D701" s="39"/>
+      <c r="E701" s="9"/>
+      <c r="F701" s="20"/>
+      <c r="G701" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H701" s="39"/>
+      <c r="I701" s="9"/>
+      <c r="J701" s="11"/>
+      <c r="K701" s="20"/>
+    </row>
+    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A702" s="40">
+        <f t="shared" si="0"/>
+        <v>45139</v>
+      </c>
+      <c r="B702" s="20"/>
+      <c r="C702" s="13"/>
+      <c r="D702" s="39"/>
+      <c r="E702" s="9"/>
+      <c r="F702" s="20"/>
+      <c r="G702" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H702" s="39"/>
+      <c r="I702" s="9"/>
+      <c r="J702" s="11"/>
+      <c r="K702" s="20"/>
+    </row>
+    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A703" s="40">
+        <f t="shared" si="0"/>
+        <v>45170</v>
+      </c>
+      <c r="B703" s="20"/>
+      <c r="C703" s="13"/>
+      <c r="D703" s="39"/>
+      <c r="E703" s="9"/>
+      <c r="F703" s="20"/>
+      <c r="G703" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H703" s="39"/>
+      <c r="I703" s="9"/>
+      <c r="J703" s="11"/>
+      <c r="K703" s="20"/>
+    </row>
+    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A704" s="40">
+        <f t="shared" si="0"/>
+        <v>45200</v>
+      </c>
+      <c r="B704" s="20"/>
+      <c r="C704" s="13"/>
+      <c r="D704" s="39"/>
+      <c r="E704" s="9"/>
+      <c r="F704" s="20"/>
+      <c r="G704" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H704" s="39"/>
+      <c r="I704" s="9"/>
+      <c r="J704" s="11"/>
+      <c r="K704" s="20"/>
+    </row>
+    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A705" s="40">
+        <f t="shared" si="0"/>
+        <v>45231</v>
+      </c>
+      <c r="B705" s="20"/>
+      <c r="C705" s="13"/>
+      <c r="D705" s="39"/>
+      <c r="E705" s="9"/>
+      <c r="F705" s="20"/>
+      <c r="G705" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H705" s="39"/>
+      <c r="I705" s="9"/>
+      <c r="J705" s="11"/>
+      <c r="K705" s="20"/>
+    </row>
+    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A706" s="40">
+        <f t="shared" si="0"/>
+        <v>45261</v>
+      </c>
+      <c r="B706" s="20"/>
+      <c r="C706" s="13"/>
+      <c r="D706" s="39"/>
+      <c r="E706" s="9"/>
+      <c r="F706" s="20"/>
+      <c r="G706" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H706" s="39"/>
+      <c r="I706" s="9"/>
+      <c r="J706" s="11"/>
+      <c r="K706" s="20"/>
+    </row>
+    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A707" s="40">
+        <f t="shared" si="0"/>
+        <v>45292</v>
+      </c>
+      <c r="B707" s="20"/>
+      <c r="C707" s="13"/>
+      <c r="D707" s="39"/>
+      <c r="E707" s="9"/>
+      <c r="F707" s="20"/>
+      <c r="G707" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H707" s="39"/>
+      <c r="I707" s="9"/>
+      <c r="J707" s="11"/>
+      <c r="K707" s="20"/>
+    </row>
+    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A708" s="40">
+        <f t="shared" si="0"/>
+        <v>45323</v>
+      </c>
+      <c r="B708" s="20"/>
+      <c r="C708" s="13"/>
+      <c r="D708" s="39"/>
+      <c r="E708" s="9"/>
+      <c r="F708" s="20"/>
+      <c r="G708" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H708" s="39"/>
+      <c r="I708" s="9"/>
+      <c r="J708" s="11"/>
+      <c r="K708" s="20"/>
+    </row>
+    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A709" s="40">
+        <f t="shared" si="0"/>
+        <v>45352</v>
+      </c>
+      <c r="B709" s="20"/>
+      <c r="C709" s="13"/>
+      <c r="D709" s="39"/>
+      <c r="E709" s="9"/>
+      <c r="F709" s="20"/>
+      <c r="G709" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H709" s="39"/>
+      <c r="I709" s="9"/>
+      <c r="J709" s="11"/>
+      <c r="K709" s="20"/>
+    </row>
+    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A710" s="40">
+        <f t="shared" si="0"/>
+        <v>45383</v>
+      </c>
+      <c r="B710" s="20"/>
+      <c r="C710" s="13"/>
+      <c r="D710" s="39"/>
+      <c r="E710" s="9"/>
+      <c r="F710" s="20"/>
+      <c r="G710" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H710" s="39"/>
+      <c r="I710" s="9"/>
+      <c r="J710" s="11"/>
+      <c r="K710" s="20"/>
+    </row>
+    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A711" s="40"/>
+      <c r="B711" s="20"/>
+      <c r="C711" s="13"/>
+      <c r="D711" s="39"/>
+      <c r="E711" s="9"/>
+      <c r="F711" s="20"/>
+      <c r="G711" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H711" s="39"/>
+      <c r="I711" s="9"/>
+      <c r="J711" s="11"/>
+      <c r="K711" s="20"/>
+    </row>
+    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A712" s="40"/>
+      <c r="B712" s="20"/>
+      <c r="C712" s="13"/>
+      <c r="D712" s="39"/>
+      <c r="E712" s="9"/>
+      <c r="F712" s="20"/>
+      <c r="G712" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H712" s="39"/>
+      <c r="I712" s="9"/>
+      <c r="J712" s="11"/>
+      <c r="K712" s="20"/>
+    </row>
+    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A713" s="40"/>
+      <c r="B713" s="20"/>
+      <c r="C713" s="13"/>
+      <c r="D713" s="39"/>
+      <c r="E713" s="9"/>
+      <c r="F713" s="20"/>
+      <c r="G713" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H713" s="39"/>
+      <c r="I713" s="9"/>
+      <c r="J713" s="11"/>
+      <c r="K713" s="20"/>
+    </row>
+    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A714" s="40"/>
+      <c r="B714" s="20"/>
+      <c r="C714" s="13"/>
+      <c r="D714" s="39"/>
+      <c r="E714" s="9"/>
+      <c r="F714" s="20"/>
+      <c r="G714" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H714" s="39"/>
+      <c r="I714" s="9"/>
+      <c r="J714" s="11"/>
+      <c r="K714" s="20"/>
+    </row>
+    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A715" s="40"/>
+      <c r="B715" s="20"/>
+      <c r="C715" s="13"/>
+      <c r="D715" s="39"/>
+      <c r="E715" s="9"/>
+      <c r="F715" s="20"/>
+      <c r="G715" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H715" s="39"/>
+      <c r="I715" s="9"/>
+      <c r="J715" s="11"/>
+      <c r="K715" s="20"/>
+    </row>
+    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A716" s="40"/>
+      <c r="B716" s="20"/>
+      <c r="C716" s="13"/>
+      <c r="D716" s="39"/>
+      <c r="E716" s="9"/>
+      <c r="F716" s="20"/>
+      <c r="G716" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H716" s="39"/>
+      <c r="I716" s="9"/>
+      <c r="J716" s="11"/>
+      <c r="K716" s="20"/>
+    </row>
+    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A717" s="40"/>
+      <c r="B717" s="20"/>
+      <c r="C717" s="13"/>
+      <c r="D717" s="39"/>
+      <c r="E717" s="9"/>
+      <c r="F717" s="20"/>
+      <c r="G717" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H717" s="39"/>
+      <c r="I717" s="9"/>
+      <c r="J717" s="11"/>
+      <c r="K717" s="20"/>
+    </row>
+    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A718" s="40"/>
+      <c r="B718" s="20"/>
+      <c r="C718" s="13"/>
+      <c r="D718" s="39"/>
+      <c r="E718" s="9"/>
+      <c r="F718" s="20"/>
+      <c r="G718" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H718" s="39"/>
+      <c r="I718" s="9"/>
+      <c r="J718" s="11"/>
+      <c r="K718" s="20"/>
+    </row>
+    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A719" s="40"/>
+      <c r="B719" s="20"/>
+      <c r="C719" s="13"/>
+      <c r="D719" s="39"/>
+      <c r="E719" s="9"/>
+      <c r="F719" s="20"/>
+      <c r="G719" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H719" s="39"/>
+      <c r="I719" s="9"/>
+      <c r="J719" s="11"/>
+      <c r="K719" s="20"/>
+    </row>
+    <row r="720" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A720" s="40"/>
+      <c r="B720" s="20"/>
+      <c r="C720" s="13"/>
+      <c r="D720" s="39"/>
+      <c r="E720" s="9"/>
+      <c r="F720" s="20"/>
+      <c r="G720" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H720" s="39"/>
+      <c r="I720" s="9"/>
+      <c r="J720" s="11"/>
+      <c r="K720" s="20"/>
+    </row>
+    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A721" s="40"/>
+      <c r="B721" s="20"/>
+      <c r="C721" s="13"/>
+      <c r="D721" s="39"/>
+      <c r="E721" s="9"/>
+      <c r="F721" s="20"/>
+      <c r="G721" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H721" s="39"/>
+      <c r="I721" s="9"/>
+      <c r="J721" s="11"/>
+      <c r="K721" s="20"/>
+    </row>
+    <row r="722" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A722" s="40"/>
+      <c r="B722" s="20"/>
+      <c r="C722" s="13"/>
+      <c r="D722" s="39"/>
+      <c r="E722" s="9"/>
+      <c r="F722" s="20"/>
+      <c r="G722" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H722" s="39"/>
+      <c r="I722" s="9"/>
+      <c r="J722" s="11"/>
+      <c r="K722" s="20"/>
+    </row>
+    <row r="723" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A723" s="40"/>
+      <c r="B723" s="20"/>
+      <c r="C723" s="13"/>
+      <c r="D723" s="39"/>
+      <c r="E723" s="9"/>
+      <c r="F723" s="20"/>
+      <c r="G723" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H723" s="39"/>
+      <c r="I723" s="9"/>
+      <c r="J723" s="11"/>
+      <c r="K723" s="20"/>
+    </row>
+    <row r="724" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A724" s="40"/>
+      <c r="B724" s="20"/>
+      <c r="C724" s="13"/>
+      <c r="D724" s="39"/>
+      <c r="E724" s="9"/>
+      <c r="F724" s="20"/>
+      <c r="G724" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H724" s="39"/>
+      <c r="I724" s="9"/>
+      <c r="J724" s="11"/>
+      <c r="K724" s="20"/>
+    </row>
+    <row r="725" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A725" s="40"/>
+      <c r="B725" s="20"/>
+      <c r="C725" s="13"/>
+      <c r="D725" s="39"/>
+      <c r="E725" s="9"/>
+      <c r="F725" s="20"/>
+      <c r="G725" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H725" s="39"/>
+      <c r="I725" s="9"/>
+      <c r="J725" s="11"/>
+      <c r="K725" s="20"/>
+    </row>
+    <row r="726" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A726" s="40"/>
+      <c r="B726" s="20"/>
+      <c r="C726" s="13"/>
+      <c r="D726" s="39"/>
+      <c r="E726" s="9"/>
+      <c r="F726" s="20"/>
+      <c r="G726" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H726" s="39"/>
+      <c r="I726" s="9"/>
+      <c r="J726" s="11"/>
+      <c r="K726" s="20"/>
+    </row>
+    <row r="727" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A727" s="40"/>
+      <c r="B727" s="20"/>
+      <c r="C727" s="13"/>
+      <c r="D727" s="39"/>
+      <c r="E727" s="9"/>
+      <c r="F727" s="20"/>
+      <c r="G727" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H727" s="39"/>
+      <c r="I727" s="9"/>
+      <c r="J727" s="11"/>
+      <c r="K727" s="20"/>
+    </row>
+    <row r="728" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A728" s="40"/>
+      <c r="B728" s="20"/>
+      <c r="C728" s="13"/>
+      <c r="D728" s="39"/>
+      <c r="E728" s="9"/>
+      <c r="F728" s="20"/>
+      <c r="G728" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H728" s="39"/>
+      <c r="I728" s="9"/>
+      <c r="J728" s="11"/>
+      <c r="K728" s="20"/>
+    </row>
+    <row r="729" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A729" s="40"/>
+      <c r="B729" s="20"/>
+      <c r="C729" s="13"/>
+      <c r="D729" s="39"/>
+      <c r="E729" s="9"/>
+      <c r="F729" s="20"/>
+      <c r="G729" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H729" s="39"/>
+      <c r="I729" s="9"/>
+      <c r="J729" s="11"/>
+      <c r="K729" s="20"/>
+    </row>
+    <row r="730" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A730" s="40"/>
+      <c r="B730" s="20"/>
+      <c r="C730" s="13"/>
+      <c r="D730" s="39"/>
+      <c r="E730" s="9"/>
+      <c r="F730" s="20"/>
+      <c r="G730" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H730" s="39"/>
+      <c r="I730" s="9"/>
+      <c r="J730" s="11"/>
+      <c r="K730" s="20"/>
+    </row>
+    <row r="731" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A731" s="40"/>
+      <c r="B731" s="20"/>
+      <c r="C731" s="13"/>
+      <c r="D731" s="39"/>
+      <c r="E731" s="9"/>
+      <c r="F731" s="20"/>
+      <c r="G731" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H731" s="39"/>
+      <c r="I731" s="9"/>
+      <c r="J731" s="11"/>
+      <c r="K731" s="20"/>
+    </row>
+    <row r="732" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A732" s="40"/>
+      <c r="B732" s="20"/>
+      <c r="C732" s="13"/>
+      <c r="D732" s="39"/>
+      <c r="E732" s="9"/>
+      <c r="F732" s="20"/>
+      <c r="G732" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H732" s="39"/>
+      <c r="I732" s="9"/>
+      <c r="J732" s="11"/>
+      <c r="K732" s="20"/>
+    </row>
+    <row r="733" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A733" s="40"/>
+      <c r="B733" s="20"/>
+      <c r="C733" s="13"/>
+      <c r="D733" s="39"/>
+      <c r="E733" s="9"/>
+      <c r="F733" s="20"/>
+      <c r="G733" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H733" s="39"/>
+      <c r="I733" s="9"/>
+      <c r="J733" s="11"/>
+      <c r="K733" s="20"/>
+    </row>
+    <row r="734" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A734" s="40"/>
+      <c r="B734" s="20"/>
+      <c r="C734" s="13"/>
+      <c r="D734" s="39"/>
+      <c r="E734" s="9"/>
+      <c r="F734" s="20"/>
+      <c r="G734" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H734" s="39"/>
+      <c r="I734" s="9"/>
+      <c r="J734" s="11"/>
+      <c r="K734" s="20"/>
+    </row>
+    <row r="735" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A735" s="40"/>
+      <c r="B735" s="20"/>
+      <c r="C735" s="13"/>
+      <c r="D735" s="39"/>
+      <c r="E735" s="9"/>
+      <c r="F735" s="20"/>
+      <c r="G735" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H735" s="39"/>
+      <c r="I735" s="9"/>
+      <c r="J735" s="11"/>
+      <c r="K735" s="20"/>
+    </row>
+    <row r="736" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A736" s="40"/>
+      <c r="B736" s="20"/>
+      <c r="C736" s="13"/>
+      <c r="D736" s="39"/>
+      <c r="E736" s="9"/>
+      <c r="F736" s="20"/>
+      <c r="G736" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H736" s="39"/>
+      <c r="I736" s="9"/>
+      <c r="J736" s="11"/>
+      <c r="K736" s="20"/>
+    </row>
+    <row r="737" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A737" s="50"/>
+      <c r="B737" s="15"/>
+      <c r="C737" s="41"/>
+      <c r="D737" s="42"/>
+      <c r="E737" s="9"/>
+      <c r="F737" s="15"/>
+      <c r="G737" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H737" s="42"/>
+      <c r="I737" s="9"/>
+      <c r="J737" s="12"/>
+      <c r="K737" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -20196,7 +20943,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20214,17 +20961,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="J1" s="61" t="s">
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="J1" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
@@ -20262,12 +21009,18 @@
       <c r="B3" s="11">
         <v>19.292000000000002</v>
       </c>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>11</v>
+      </c>
       <c r="G3" s="46">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0</v>
+        <v>1.8980000000000001</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">
@@ -20303,12 +21056,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="43"/>
-      <c r="I6" s="61" t="s">
+      <c r="I6" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">

--- a/REGULAR/MENDOZA, NORA A..xlsx
+++ b/REGULAR/MENDOZA, NORA A..xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455FBA83-10B2-406C-9304-1794F749F58B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8F9FAD-0EC7-48A1-A79B-8F42D0CAFB8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="458">
   <si>
     <t>PERIOD</t>
   </si>
@@ -3812,8 +3812,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K737" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K737" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K738" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K738" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
@@ -4191,12 +4191,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K737"/>
+  <dimension ref="A2:K738"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A220" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A694" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9:K9"/>
-      <selection pane="bottomLeft" activeCell="G228" sqref="G228"/>
+      <selection pane="bottomLeft" activeCell="H699" sqref="H699"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4369,7 +4369,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>65.542000000000002</v>
+        <v>64.542000000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -20193,7 +20193,7 @@
     </row>
     <row r="697" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A697" s="40">
-        <f t="shared" ref="A697:A710" si="0">EDATE(A696,1)</f>
+        <f t="shared" ref="A697:A711" si="0">EDATE(A696,1)</f>
         <v>44986</v>
       </c>
       <c r="B697" s="20" t="s">
@@ -20219,11 +20219,10 @@
       </c>
     </row>
     <row r="698" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A698" s="40">
-        <f t="shared" si="0"/>
-        <v>45017</v>
-      </c>
-      <c r="B698" s="20"/>
+      <c r="A698" s="40"/>
+      <c r="B698" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C698" s="13"/>
       <c r="D698" s="39"/>
       <c r="E698" s="9"/>
@@ -20232,15 +20231,19 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H698" s="39"/>
+      <c r="H698" s="39">
+        <v>1</v>
+      </c>
       <c r="I698" s="9"/>
       <c r="J698" s="11"/>
-      <c r="K698" s="20"/>
+      <c r="K698" s="49">
+        <v>44991</v>
+      </c>
     </row>
     <row r="699" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A699" s="40">
-        <f t="shared" si="0"/>
-        <v>45047</v>
+        <f>EDATE(A697,1)</f>
+        <v>45017</v>
       </c>
       <c r="B699" s="20"/>
       <c r="C699" s="13"/>
@@ -20259,7 +20262,7 @@
     <row r="700" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A700" s="40">
         <f t="shared" si="0"/>
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B700" s="20"/>
       <c r="C700" s="13"/>
@@ -20278,7 +20281,7 @@
     <row r="701" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A701" s="40">
         <f t="shared" si="0"/>
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B701" s="20"/>
       <c r="C701" s="13"/>
@@ -20297,7 +20300,7 @@
     <row r="702" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A702" s="40">
         <f t="shared" si="0"/>
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B702" s="20"/>
       <c r="C702" s="13"/>
@@ -20316,7 +20319,7 @@
     <row r="703" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A703" s="40">
         <f t="shared" si="0"/>
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B703" s="20"/>
       <c r="C703" s="13"/>
@@ -20335,7 +20338,7 @@
     <row r="704" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A704" s="40">
         <f t="shared" si="0"/>
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B704" s="20"/>
       <c r="C704" s="13"/>
@@ -20354,7 +20357,7 @@
     <row r="705" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A705" s="40">
         <f t="shared" si="0"/>
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B705" s="20"/>
       <c r="C705" s="13"/>
@@ -20373,7 +20376,7 @@
     <row r="706" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A706" s="40">
         <f t="shared" si="0"/>
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B706" s="20"/>
       <c r="C706" s="13"/>
@@ -20392,7 +20395,7 @@
     <row r="707" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A707" s="40">
         <f t="shared" si="0"/>
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B707" s="20"/>
       <c r="C707" s="13"/>
@@ -20411,7 +20414,7 @@
     <row r="708" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A708" s="40">
         <f t="shared" si="0"/>
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B708" s="20"/>
       <c r="C708" s="13"/>
@@ -20430,7 +20433,7 @@
     <row r="709" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A709" s="40">
         <f t="shared" si="0"/>
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B709" s="20"/>
       <c r="C709" s="13"/>
@@ -20449,7 +20452,7 @@
     <row r="710" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A710" s="40">
         <f t="shared" si="0"/>
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B710" s="20"/>
       <c r="C710" s="13"/>
@@ -20466,7 +20469,10 @@
       <c r="K710" s="20"/>
     </row>
     <row r="711" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A711" s="40"/>
+      <c r="A711" s="40">
+        <f t="shared" si="0"/>
+        <v>45383</v>
+      </c>
       <c r="B711" s="20"/>
       <c r="C711" s="13"/>
       <c r="D711" s="39"/>
@@ -20882,20 +20888,36 @@
       <c r="K736" s="20"/>
     </row>
     <row r="737" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A737" s="50"/>
-      <c r="B737" s="15"/>
-      <c r="C737" s="41"/>
-      <c r="D737" s="42"/>
+      <c r="A737" s="40"/>
+      <c r="B737" s="20"/>
+      <c r="C737" s="13"/>
+      <c r="D737" s="39"/>
       <c r="E737" s="9"/>
-      <c r="F737" s="15"/>
-      <c r="G737" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H737" s="42"/>
+      <c r="F737" s="20"/>
+      <c r="G737" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H737" s="39"/>
       <c r="I737" s="9"/>
-      <c r="J737" s="12"/>
-      <c r="K737" s="15"/>
+      <c r="J737" s="11"/>
+      <c r="K737" s="20"/>
+    </row>
+    <row r="738" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A738" s="50"/>
+      <c r="B738" s="15"/>
+      <c r="C738" s="41"/>
+      <c r="D738" s="42"/>
+      <c r="E738" s="9"/>
+      <c r="F738" s="15"/>
+      <c r="G738" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H738" s="42"/>
+      <c r="I738" s="9"/>
+      <c r="J738" s="12"/>
+      <c r="K738" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/MENDOZA, NORA A..xlsx
+++ b/REGULAR/MENDOZA, NORA A..xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8F9FAD-0EC7-48A1-A79B-8F42D0CAFB8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="458">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1414,7 +1413,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2277,7 +2276,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2320,7 +2319,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2384,7 +2383,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2444,7 +2443,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2510,7 +2509,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2573,7 +2572,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2671,7 +2670,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2730,7 +2729,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2795,7 +2794,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2838,7 +2837,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2913,7 +2912,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3099,7 +3098,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3165,7 +3164,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3223,7 +3222,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3289,7 +3288,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3345,7 +3344,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3420,7 +3419,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3463,7 +3462,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3529,7 +3528,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3585,7 +3584,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3683,7 +3682,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3746,7 +3745,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3812,26 +3811,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K738" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K738" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K738" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K738"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3843,13 +3842,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3858,14 +3857,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4169,7 +4168,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -4179,7 +4178,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4187,34 +4186,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K738"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A694" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A694" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9:K9"/>
-      <selection pane="bottomLeft" activeCell="H699" sqref="H699"/>
+      <selection pane="bottomLeft" activeCell="B701" sqref="B701"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="31" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -4235,7 +4234,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -4255,7 +4254,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4277,7 +4276,7 @@
       <c r="J4" s="57"/>
       <c r="K4" s="58"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4285,7 +4284,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4298,7 +4297,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -4315,7 +4314,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4350,7 +4349,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4359,7 +4358,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>-6.593999999999852</v>
+        <v>-5.343999999999852</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4369,12 +4368,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>64.542000000000002</v>
+        <v>64.792000000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
@@ -4396,7 +4395,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>35065</v>
       </c>
@@ -4416,7 +4415,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>35096</v>
       </c>
@@ -4436,7 +4435,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>35125</v>
       </c>
@@ -4456,7 +4455,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>35156</v>
       </c>
@@ -4476,7 +4475,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>35186</v>
       </c>
@@ -4500,7 +4499,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>35217</v>
       </c>
@@ -4524,7 +4523,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>35247</v>
       </c>
@@ -4548,7 +4547,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>35278</v>
       </c>
@@ -4572,7 +4571,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>35309</v>
       </c>
@@ -4592,7 +4591,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>35339</v>
       </c>
@@ -4612,7 +4611,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>35370</v>
       </c>
@@ -4632,7 +4631,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>35400</v>
       </c>
@@ -4652,7 +4651,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="47" t="s">
         <v>44</v>
       </c>
@@ -4674,7 +4673,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>35431</v>
       </c>
@@ -4694,7 +4693,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>35462</v>
       </c>
@@ -4714,7 +4713,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>35490</v>
       </c>
@@ -4734,7 +4733,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>35521</v>
       </c>
@@ -4754,7 +4753,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>35551</v>
       </c>
@@ -4774,7 +4773,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>35582</v>
       </c>
@@ -4800,7 +4799,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>35612</v>
       </c>
@@ -4824,7 +4823,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>35643</v>
       </c>
@@ -4848,7 +4847,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>35674</v>
       </c>
@@ -4868,7 +4867,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>35704</v>
       </c>
@@ -4890,7 +4889,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>35735</v>
       </c>
@@ -4914,7 +4913,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>35765</v>
       </c>
@@ -4940,7 +4939,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="47" t="s">
         <v>45</v>
       </c>
@@ -4962,7 +4961,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>35796</v>
       </c>
@@ -4988,7 +4987,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>35827</v>
       </c>
@@ -5014,7 +5013,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>35855</v>
       </c>
@@ -5038,7 +5037,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>35886</v>
       </c>
@@ -5060,7 +5059,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>35916</v>
       </c>
@@ -5084,7 +5083,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>35947</v>
       </c>
@@ -5108,7 +5107,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>35977</v>
       </c>
@@ -5134,7 +5133,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>59</v>
@@ -5156,7 +5155,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>36008</v>
       </c>
@@ -5180,7 +5179,7 @@
         <v>45152</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>53</v>
@@ -5202,7 +5201,7 @@
         <v>45157</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>61</v>
@@ -5222,7 +5221,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>36039</v>
       </c>
@@ -5246,7 +5245,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>36069</v>
       </c>
@@ -5272,7 +5271,7 @@
         <v>45208</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>52</v>
@@ -5294,7 +5293,7 @@
         <v>45218</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>63</v>
@@ -5314,7 +5313,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>36100</v>
       </c>
@@ -5340,7 +5339,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>65</v>
@@ -5362,7 +5361,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>66</v>
@@ -5384,7 +5383,7 @@
         <v>45261</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>36130</v>
       </c>
@@ -5410,7 +5409,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
         <v>67</v>
@@ -5432,7 +5431,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="47" t="s">
         <v>46</v>
       </c>
@@ -5454,7 +5453,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>36161</v>
       </c>
@@ -5478,7 +5477,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>36192</v>
       </c>
@@ -5504,7 +5503,7 @@
         <v>44960</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>73</v>
@@ -5524,7 +5523,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>36220</v>
       </c>
@@ -5546,7 +5545,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>36251</v>
       </c>
@@ -5572,7 +5571,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>53</v>
@@ -5594,7 +5593,7 @@
         <v>45039</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20" t="s">
         <v>74</v>
@@ -5616,7 +5615,7 @@
         <v>45042</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>36281</v>
       </c>
@@ -5642,7 +5641,7 @@
         <v>45052</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>53</v>
@@ -5664,7 +5663,7 @@
         <v>45060</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>75</v>
@@ -5684,7 +5683,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>36312</v>
       </c>
@@ -5710,7 +5709,7 @@
         <v>45081</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>76</v>
@@ -5732,7 +5731,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>36342</v>
       </c>
@@ -5758,7 +5757,7 @@
         <v>45115</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>80</v>
@@ -5780,7 +5779,7 @@
         <v>45121</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>36373</v>
       </c>
@@ -5806,7 +5805,7 @@
         <v>45141</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>53</v>
@@ -5828,7 +5827,7 @@
         <v>45147</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>53</v>
@@ -5850,7 +5849,7 @@
         <v>45163</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>81</v>
@@ -5870,7 +5869,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>36404</v>
       </c>
@@ -5896,7 +5895,7 @@
         <v>45171</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>53</v>
@@ -5918,7 +5917,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>82</v>
@@ -5938,7 +5937,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>36434</v>
       </c>
@@ -5964,7 +5963,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>86</v>
@@ -5986,7 +5985,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>53</v>
@@ -6008,7 +6007,7 @@
         <v>45220</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>36465</v>
       </c>
@@ -6034,7 +6033,7 @@
         <v>45232</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>87</v>
@@ -6054,7 +6053,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>36495</v>
       </c>
@@ -6080,7 +6079,7 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>86</v>
@@ -6102,7 +6101,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>53</v>
@@ -6124,7 +6123,7 @@
         <v>45283</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>85</v>
@@ -6146,7 +6145,7 @@
         <v>45287</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>53</v>
@@ -6168,7 +6167,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>93</v>
@@ -6190,7 +6189,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="47" t="s">
         <v>49</v>
       </c>
@@ -6212,7 +6211,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>36526</v>
       </c>
@@ -6238,7 +6237,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
         <v>52</v>
@@ -6260,7 +6259,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>95</v>
@@ -6282,7 +6281,7 @@
         <v>44954</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>36557</v>
       </c>
@@ -6308,7 +6307,7 @@
         <v>44968</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>96</v>
@@ -6330,7 +6329,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20" t="s">
         <v>97</v>
@@ -6350,7 +6349,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>36586</v>
       </c>
@@ -6376,7 +6375,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>52</v>
@@ -6398,7 +6397,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>98</v>
@@ -6418,7 +6417,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>36617</v>
       </c>
@@ -6444,7 +6443,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>36647</v>
       </c>
@@ -6470,7 +6469,7 @@
         <v>45055</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
         <v>53</v>
@@ -6492,7 +6491,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>106</v>
@@ -6512,7 +6511,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="48"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>36678</v>
       </c>
@@ -6536,7 +6535,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>36708</v>
       </c>
@@ -6560,7 +6559,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>36739</v>
       </c>
@@ -6584,7 +6583,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>36770</v>
       </c>
@@ -6610,7 +6609,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20" t="s">
         <v>85</v>
@@ -6632,7 +6631,7 @@
         <v>45189</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>95</v>
@@ -6652,7 +6651,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>36800</v>
       </c>
@@ -6678,7 +6677,7 @@
         <v>45203</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
         <v>110</v>
@@ -6698,7 +6697,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>36831</v>
       </c>
@@ -6724,7 +6723,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>53</v>
@@ -6744,7 +6743,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20" t="s">
         <v>111</v>
@@ -6764,7 +6763,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>36861</v>
       </c>
@@ -6790,7 +6789,7 @@
         <v>45279</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20" t="s">
         <v>86</v>
@@ -6812,7 +6811,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20" t="s">
         <v>57</v>
@@ -6834,7 +6833,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
         <v>112</v>
@@ -6856,7 +6855,7 @@
         <v>45274</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="47" t="s">
         <v>48</v>
       </c>
@@ -6878,7 +6877,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>36892</v>
       </c>
@@ -6904,7 +6903,7 @@
         <v>44935</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
         <v>117</v>
@@ -6924,7 +6923,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>36923</v>
       </c>
@@ -6950,7 +6949,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
         <v>118</v>
@@ -6970,7 +6969,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>36951</v>
       </c>
@@ -6996,7 +6995,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20" t="s">
         <v>57</v>
@@ -7018,7 +7017,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20" t="s">
         <v>126</v>
@@ -7040,7 +7039,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>36982</v>
       </c>
@@ -7068,7 +7067,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>120</v>
@@ -7090,7 +7089,7 @@
         <v>45032</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20" t="s">
         <v>53</v>
@@ -7112,7 +7111,7 @@
         <v>45046</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20" t="s">
         <v>121</v>
@@ -7132,7 +7131,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>37012</v>
       </c>
@@ -7160,7 +7159,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20" t="s">
         <v>120</v>
@@ -7182,7 +7181,7 @@
         <v>45070</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
         <v>123</v>
@@ -7202,7 +7201,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>37043</v>
       </c>
@@ -7228,7 +7227,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20" t="s">
         <v>119</v>
@@ -7252,7 +7251,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20" t="s">
         <v>124</v>
@@ -7274,7 +7273,7 @@
         <v>45111</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <v>37073</v>
       </c>
@@ -7300,7 +7299,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
         <v>125</v>
@@ -7322,7 +7321,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40"/>
       <c r="B139" s="20" t="s">
         <v>122</v>
@@ -7342,7 +7341,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40"/>
       <c r="B140" s="20" t="s">
         <v>127</v>
@@ -7362,7 +7361,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <v>37104</v>
       </c>
@@ -7388,7 +7387,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40"/>
       <c r="B142" s="20" t="s">
         <v>53</v>
@@ -7408,7 +7407,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
         <v>128</v>
@@ -7430,7 +7429,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40"/>
       <c r="B144" s="20" t="s">
         <v>129</v>
@@ -7450,7 +7449,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <v>37135</v>
       </c>
@@ -7476,7 +7475,7 @@
         <v>45173</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>120</v>
@@ -7500,7 +7499,7 @@
         <v>45189</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40"/>
       <c r="B147" s="20" t="s">
         <v>87</v>
@@ -7520,7 +7519,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <v>37165</v>
       </c>
@@ -7548,7 +7547,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>86</v>
@@ -7570,7 +7569,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40"/>
       <c r="B150" s="20" t="s">
         <v>130</v>
@@ -7590,7 +7589,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <v>37196</v>
       </c>
@@ -7616,7 +7615,7 @@
         <v>45236</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>120</v>
@@ -7640,7 +7639,7 @@
         <v>45244</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>52</v>
@@ -7662,7 +7661,7 @@
         <v>45257</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40"/>
       <c r="B154" s="20" t="s">
         <v>131</v>
@@ -7682,7 +7681,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <v>37226</v>
       </c>
@@ -7708,7 +7707,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
         <v>132</v>
@@ -7732,7 +7731,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40"/>
       <c r="B157" s="20" t="s">
         <v>119</v>
@@ -7754,7 +7753,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40"/>
       <c r="B158" s="20" t="s">
         <v>148</v>
@@ -7774,7 +7773,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="47" t="s">
         <v>47</v>
       </c>
@@ -7796,7 +7795,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <v>37257</v>
       </c>
@@ -7822,7 +7821,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40"/>
       <c r="B161" s="20" t="s">
         <v>120</v>
@@ -7846,7 +7845,7 @@
         <v>44950</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>149</v>
@@ -7868,7 +7867,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <v>37288</v>
       </c>
@@ -7894,7 +7893,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>119</v>
@@ -7916,7 +7915,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40"/>
       <c r="B165" s="20" t="s">
         <v>130</v>
@@ -7936,7 +7935,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <v>37316</v>
       </c>
@@ -7960,7 +7959,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <v>37347</v>
       </c>
@@ -7986,7 +7985,7 @@
         <v>45030</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>151</v>
@@ -8006,7 +8005,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <v>37377</v>
       </c>
@@ -8032,7 +8031,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40"/>
       <c r="B170" s="20" t="s">
         <v>120</v>
@@ -8056,7 +8055,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40"/>
       <c r="B171" s="20" t="s">
         <v>119</v>
@@ -8078,7 +8077,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>152</v>
@@ -8098,7 +8097,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <v>37408</v>
       </c>
@@ -8124,7 +8123,7 @@
         <v>45095</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>153</v>
@@ -8144,7 +8143,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <v>37438</v>
       </c>
@@ -8170,7 +8169,7 @@
         <v>45119</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40"/>
       <c r="B176" s="20" t="s">
         <v>53</v>
@@ -8192,7 +8191,7 @@
         <v>45138</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>159</v>
@@ -8212,7 +8211,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="48"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <v>37469</v>
       </c>
@@ -8238,7 +8237,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40"/>
       <c r="B179" s="20" t="s">
         <v>107</v>
@@ -8258,7 +8257,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <v>37500</v>
       </c>
@@ -8284,7 +8283,7 @@
         <v>45179</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
         <v>53</v>
@@ -8306,7 +8305,7 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>120</v>
@@ -8324,7 +8323,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40"/>
       <c r="B183" s="20" t="s">
         <v>165</v>
@@ -8344,7 +8343,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <v>37530</v>
       </c>
@@ -8372,7 +8371,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>165</v>
@@ -8394,7 +8393,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <v>37561</v>
       </c>
@@ -8414,7 +8413,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <v>37591</v>
       </c>
@@ -8440,7 +8439,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>166</v>
@@ -8462,7 +8461,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="47" t="s">
         <v>164</v>
       </c>
@@ -8484,7 +8483,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <v>37622</v>
       </c>
@@ -8510,7 +8509,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <v>37653</v>
       </c>
@@ -8536,7 +8535,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>52</v>
@@ -8558,7 +8557,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40"/>
       <c r="B193" s="20" t="s">
         <v>53</v>
@@ -8580,7 +8579,7 @@
         <v>44975</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40"/>
       <c r="B194" s="20" t="s">
         <v>153</v>
@@ -8602,7 +8601,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <v>37681</v>
       </c>
@@ -8626,7 +8625,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <v>37712</v>
       </c>
@@ -8646,7 +8645,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <v>37742</v>
       </c>
@@ -8672,7 +8671,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>53</v>
@@ -8694,7 +8693,7 @@
         <v>45073</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>173</v>
@@ -8714,7 +8713,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <v>37773</v>
       </c>
@@ -8740,7 +8739,7 @@
         <v>45093</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <v>37803</v>
       </c>
@@ -8764,7 +8763,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>174</v>
@@ -8786,7 +8785,7 @@
         <v>45129</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <v>37834</v>
       </c>
@@ -8810,7 +8809,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>53</v>
@@ -8832,7 +8831,7 @@
         <v>45144</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
         <v>175</v>
@@ -8854,7 +8853,7 @@
         <v>45154</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <v>37865</v>
       </c>
@@ -8878,7 +8877,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40"/>
       <c r="B207" s="20" t="s">
         <v>86</v>
@@ -8900,7 +8899,7 @@
         <v>45181</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>119</v>
@@ -8924,7 +8923,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
         <v>176</v>
@@ -8946,7 +8945,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <v>37895</v>
       </c>
@@ -8970,7 +8969,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <v>37926</v>
       </c>
@@ -8998,7 +8997,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>178</v>
@@ -9018,7 +9017,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <v>37956</v>
       </c>
@@ -9044,7 +9043,7 @@
         <v>45264</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40"/>
       <c r="B214" s="20" t="s">
         <v>119</v>
@@ -9068,7 +9067,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40"/>
       <c r="B215" s="20" t="s">
         <v>120</v>
@@ -9090,7 +9089,7 @@
         <v>45276</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>120</v>
@@ -9112,7 +9111,7 @@
         <v>45283</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>120</v>
@@ -9134,7 +9133,7 @@
         <v>44934</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
         <v>184</v>
@@ -9154,7 +9153,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="47" t="s">
         <v>163</v>
       </c>
@@ -9176,7 +9175,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <v>37987</v>
       </c>
@@ -9202,7 +9201,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <v>38018</v>
       </c>
@@ -9228,7 +9227,7 @@
         <v>44940</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>120</v>
@@ -9252,7 +9251,7 @@
         <v>44961</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>120</v>
@@ -9276,7 +9275,7 @@
         <v>44968</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
         <v>119</v>
@@ -9298,7 +9297,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>186</v>
@@ -9318,7 +9317,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <v>38047</v>
       </c>
@@ -9342,7 +9341,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
         <v>38078</v>
       </c>
@@ -9368,7 +9367,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40"/>
       <c r="B228" s="20" t="s">
         <v>188</v>
@@ -9388,7 +9387,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <v>38108</v>
       </c>
@@ -9416,7 +9415,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <v>38139</v>
       </c>
@@ -9440,7 +9439,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <v>38169</v>
       </c>
@@ -9466,7 +9465,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>192</v>
@@ -9488,7 +9487,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <v>38200</v>
       </c>
@@ -9514,7 +9513,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>199</v>
@@ -9534,7 +9533,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <v>38231</v>
       </c>
@@ -9560,7 +9559,7 @@
         <v>45164</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40"/>
       <c r="B236" s="20" t="s">
         <v>53</v>
@@ -9582,7 +9581,7 @@
         <v>45177</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>200</v>
@@ -9604,7 +9603,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <v>38261</v>
       </c>
@@ -9630,7 +9629,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>53</v>
@@ -9650,7 +9649,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40"/>
       <c r="B240" s="20" t="s">
         <v>122</v>
@@ -9672,7 +9671,7 @@
         <v>45210</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>120</v>
@@ -9692,7 +9691,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>120</v>
@@ -9714,7 +9713,7 @@
         <v>45218</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40"/>
       <c r="B243" s="20" t="s">
         <v>201</v>
@@ -9736,7 +9735,7 @@
         <v>45226</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <v>38292</v>
       </c>
@@ -9764,7 +9763,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40"/>
       <c r="B245" s="20" t="s">
         <v>119</v>
@@ -9786,7 +9785,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>53</v>
@@ -9808,7 +9807,7 @@
         <v>45241</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>53</v>
@@ -9830,7 +9829,7 @@
         <v>45248</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>202</v>
@@ -9850,7 +9849,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <v>38322</v>
       </c>
@@ -9876,7 +9875,7 @@
         <v>45261</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
         <v>53</v>
@@ -9898,7 +9897,7 @@
         <v>45278</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>206</v>
@@ -9918,7 +9917,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="48"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="47" t="s">
         <v>162</v>
       </c>
@@ -9940,7 +9939,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <v>38353</v>
       </c>
@@ -9964,7 +9963,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40"/>
       <c r="B254" s="20" t="s">
         <v>208</v>
@@ -9986,7 +9985,7 @@
         <v>44980</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <v>38384</v>
       </c>
@@ -10010,7 +10009,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40"/>
       <c r="B256" s="20" t="s">
         <v>209</v>
@@ -10032,7 +10031,7 @@
         <v>44987</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <v>38412</v>
       </c>
@@ -10058,7 +10057,7 @@
         <v>45007</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>120</v>
@@ -10082,7 +10081,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>120</v>
@@ -10102,7 +10101,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40"/>
       <c r="B260" s="20" t="s">
         <v>210</v>
@@ -10122,7 +10121,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <v>38443</v>
       </c>
@@ -10148,7 +10147,7 @@
         <v>45029</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>53</v>
@@ -10170,7 +10169,7 @@
         <v>45036</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>211</v>
@@ -10192,7 +10191,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <v>38473</v>
       </c>
@@ -10218,7 +10217,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
         <v>212</v>
@@ -10238,7 +10237,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <v>38504</v>
       </c>
@@ -10264,7 +10263,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>213</v>
@@ -10284,7 +10283,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <v>38534</v>
       </c>
@@ -10310,7 +10309,7 @@
         <v>45121</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>120</v>
@@ -10334,7 +10333,7 @@
         <v>45127</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>188</v>
@@ -10356,7 +10355,7 @@
         <v>45129</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <v>38565</v>
       </c>
@@ -10384,7 +10383,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40"/>
       <c r="B272" s="20" t="s">
         <v>53</v>
@@ -10406,7 +10405,7 @@
         <v>45148</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>216</v>
@@ -10426,7 +10425,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <v>38596</v>
       </c>
@@ -10450,7 +10449,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
         <v>38626</v>
       </c>
@@ -10478,7 +10477,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>120</v>
@@ -10500,7 +10499,7 @@
         <v>45213</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
         <v>120</v>
@@ -10522,7 +10521,7 @@
         <v>45217</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40"/>
       <c r="B278" s="20" t="s">
         <v>218</v>
@@ -10544,7 +10543,7 @@
         <v>45219</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <v>38657</v>
       </c>
@@ -10570,7 +10569,7 @@
         <v>45245</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>219</v>
@@ -10592,7 +10591,7 @@
         <v>45254</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <v>38687</v>
       </c>
@@ -10618,7 +10617,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40"/>
       <c r="B282" s="20" t="s">
         <v>220</v>
@@ -10638,7 +10637,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="47" t="s">
         <v>161</v>
       </c>
@@ -10660,7 +10659,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <v>38718</v>
       </c>
@@ -10692,7 +10691,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>223</v>
@@ -10712,7 +10711,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <v>38749</v>
       </c>
@@ -10736,7 +10735,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>227</v>
@@ -10756,7 +10755,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <v>38777</v>
       </c>
@@ -10782,7 +10781,7 @@
         <v>45001</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>120</v>
@@ -10806,7 +10805,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>228</v>
@@ -10826,7 +10825,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <v>38808</v>
       </c>
@@ -10852,7 +10851,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40"/>
       <c r="B292" s="20" t="s">
         <v>53</v>
@@ -10874,7 +10873,7 @@
         <v>45083</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>229</v>
@@ -10894,7 +10893,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <v>38838</v>
       </c>
@@ -10918,7 +10917,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <v>38869</v>
       </c>
@@ -10944,7 +10943,7 @@
         <v>45086</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40"/>
       <c r="B296" s="20" t="s">
         <v>120</v>
@@ -10968,7 +10967,7 @@
         <v>45100</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>200</v>
@@ -10988,7 +10987,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <v>38899</v>
       </c>
@@ -11014,7 +11013,7 @@
         <v>45127</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40"/>
       <c r="B299" s="20" t="s">
         <v>231</v>
@@ -11034,7 +11033,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <v>38930</v>
       </c>
@@ -11060,7 +11059,7 @@
         <v>45153</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>120</v>
@@ -11084,7 +11083,7 @@
         <v>45169</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40"/>
       <c r="B302" s="20" t="s">
         <v>232</v>
@@ -11104,7 +11103,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <v>38961</v>
       </c>
@@ -11130,7 +11129,7 @@
         <v>45198</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>233</v>
@@ -11150,7 +11149,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <v>38991</v>
       </c>
@@ -11176,7 +11175,7 @@
         <v>45208</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>235</v>
@@ -11198,7 +11197,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <v>39022</v>
       </c>
@@ -11222,7 +11221,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
         <v>39052</v>
       </c>
@@ -11246,7 +11245,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="47" t="s">
         <v>160</v>
       </c>
@@ -11268,7 +11267,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <v>39083</v>
       </c>
@@ -11294,7 +11293,7 @@
         <v>44948</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <v>39114</v>
       </c>
@@ -11318,7 +11317,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <v>39142</v>
       </c>
@@ -11344,7 +11343,7 @@
         <v>44991</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>224</v>
@@ -11364,7 +11363,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>240</v>
@@ -11384,7 +11383,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <v>39173</v>
       </c>
@@ -11408,7 +11407,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <v>39203</v>
       </c>
@@ -11434,7 +11433,7 @@
         <v>45064</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
         <v>207</v>
@@ -11454,7 +11453,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40"/>
       <c r="B318" s="20" t="s">
         <v>53</v>
@@ -11476,7 +11475,7 @@
         <v>45071</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>242</v>
@@ -11496,7 +11495,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
         <v>39234</v>
       </c>
@@ -11520,7 +11519,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <v>39264</v>
       </c>
@@ -11544,7 +11543,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <v>39295</v>
       </c>
@@ -11570,7 +11569,7 @@
         <v>45146</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
         <v>245</v>
@@ -11590,7 +11589,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
         <v>39326</v>
       </c>
@@ -11616,7 +11615,7 @@
         <v>45179</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40"/>
       <c r="B325" s="20" t="s">
         <v>252</v>
@@ -11636,7 +11635,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="48"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <v>39356</v>
       </c>
@@ -11662,7 +11661,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>57</v>
@@ -11684,7 +11683,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>253</v>
@@ -11704,7 +11703,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <v>39387</v>
       </c>
@@ -11728,7 +11727,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <v>39417</v>
       </c>
@@ -11752,7 +11751,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="47" t="s">
         <v>248</v>
       </c>
@@ -11774,7 +11773,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <v>39448</v>
       </c>
@@ -11798,7 +11797,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <v>39479</v>
       </c>
@@ -11820,7 +11819,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40"/>
       <c r="B334" s="20" t="s">
         <v>257</v>
@@ -11840,7 +11839,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <v>39508</v>
       </c>
@@ -11868,7 +11867,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>53</v>
@@ -11888,7 +11887,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40"/>
       <c r="B337" s="20" t="s">
         <v>259</v>
@@ -11908,7 +11907,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <v>39539</v>
       </c>
@@ -11932,7 +11931,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
         <v>39569</v>
       </c>
@@ -11956,7 +11955,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40"/>
       <c r="B340" s="20" t="s">
         <v>261</v>
@@ -11976,7 +11975,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <v>39600</v>
       </c>
@@ -12000,7 +11999,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <v>39630</v>
       </c>
@@ -12024,7 +12023,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
         <v>263</v>
@@ -12044,7 +12043,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <v>39661</v>
       </c>
@@ -12068,7 +12067,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <v>39692</v>
       </c>
@@ -12094,7 +12093,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <v>39722</v>
       </c>
@@ -12120,7 +12119,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <v>39753</v>
       </c>
@@ -12146,7 +12145,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
         <v>39783</v>
       </c>
@@ -12172,7 +12171,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="47" t="s">
         <v>249</v>
       </c>
@@ -12194,7 +12193,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40">
         <v>39814</v>
       </c>
@@ -12218,7 +12217,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <v>39845</v>
       </c>
@@ -12242,7 +12241,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <v>39873</v>
       </c>
@@ -12266,7 +12265,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <v>39904</v>
       </c>
@@ -12290,7 +12289,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <v>39934</v>
       </c>
@@ -12316,7 +12315,7 @@
         <v>45052</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40"/>
       <c r="B355" s="20" t="s">
         <v>273</v>
@@ -12336,7 +12335,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <v>39965</v>
       </c>
@@ -12362,7 +12361,7 @@
         <v>45095</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40"/>
       <c r="B357" s="20" t="s">
         <v>274</v>
@@ -12382,7 +12381,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <v>39995</v>
       </c>
@@ -12406,7 +12405,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
         <v>40026</v>
       </c>
@@ -12430,7 +12429,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <v>40057</v>
       </c>
@@ -12456,7 +12455,7 @@
         <v>45198</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>131</v>
@@ -12478,7 +12477,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40">
         <v>40087</v>
       </c>
@@ -12504,7 +12503,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <v>40118</v>
       </c>
@@ -12528,7 +12527,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
         <v>40148</v>
       </c>
@@ -12552,7 +12551,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="47" t="s">
         <v>250</v>
       </c>
@@ -12574,7 +12573,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <v>40179</v>
       </c>
@@ -12598,7 +12597,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40">
         <v>40210</v>
       </c>
@@ -12622,7 +12621,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <v>40238</v>
       </c>
@@ -12646,7 +12645,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>53</v>
@@ -12668,7 +12667,7 @@
         <v>45004</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40"/>
       <c r="B370" s="20" t="s">
         <v>283</v>
@@ -12688,7 +12687,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <v>40269</v>
       </c>
@@ -12714,7 +12713,7 @@
         <v>45030</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40"/>
       <c r="B372" s="20" t="s">
         <v>284</v>
@@ -12734,7 +12733,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
         <v>40299</v>
       </c>
@@ -12758,7 +12757,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40"/>
       <c r="B374" s="20" t="s">
         <v>285</v>
@@ -12778,7 +12777,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <v>40330</v>
       </c>
@@ -12802,7 +12801,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
         <v>40360</v>
       </c>
@@ -12828,7 +12827,7 @@
         <v>45116</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40"/>
       <c r="B377" s="20" t="s">
         <v>53</v>
@@ -12850,7 +12849,7 @@
         <v>45121</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
         <v>53</v>
@@ -12870,7 +12869,7 @@
         <v>45129</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40"/>
       <c r="B379" s="20" t="s">
         <v>287</v>
@@ -12890,7 +12889,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <v>40391</v>
       </c>
@@ -12916,7 +12915,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40"/>
       <c r="B381" s="20" t="s">
         <v>57</v>
@@ -12938,7 +12937,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40"/>
       <c r="B382" s="20" t="s">
         <v>288</v>
@@ -12958,7 +12957,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <v>40422</v>
       </c>
@@ -12984,7 +12983,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40"/>
       <c r="B384" s="20" t="s">
         <v>57</v>
@@ -13006,7 +13005,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40"/>
       <c r="B385" s="20" t="s">
         <v>294</v>
@@ -13026,7 +13025,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
         <v>40452</v>
       </c>
@@ -13052,7 +13051,7 @@
         <v>45206</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
         <v>295</v>
@@ -13072,7 +13071,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
         <v>40483</v>
       </c>
@@ -13098,7 +13097,7 @@
         <v>45232</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40"/>
       <c r="B389" s="20" t="s">
         <v>53</v>
@@ -13120,7 +13119,7 @@
         <v>45219</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40"/>
       <c r="B390" s="20" t="s">
         <v>296</v>
@@ -13140,7 +13139,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
         <v>40513</v>
       </c>
@@ -13166,7 +13165,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40"/>
       <c r="B392" s="20" t="s">
         <v>96</v>
@@ -13186,7 +13185,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="47" t="s">
         <v>251</v>
       </c>
@@ -13208,7 +13207,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
         <v>40544</v>
       </c>
@@ -13232,7 +13231,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40"/>
       <c r="B395" s="20" t="s">
         <v>303</v>
@@ -13252,7 +13251,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
         <v>40575</v>
       </c>
@@ -13276,7 +13275,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <v>40603</v>
       </c>
@@ -13302,7 +13301,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40"/>
       <c r="B398" s="20" t="s">
         <v>57</v>
@@ -13324,7 +13323,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40"/>
       <c r="B399" s="20" t="s">
         <v>305</v>
@@ -13344,7 +13343,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
         <v>40634</v>
       </c>
@@ -13370,7 +13369,7 @@
         <v>45027</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40"/>
       <c r="B401" s="20" t="s">
         <v>306</v>
@@ -13390,7 +13389,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
         <v>40664</v>
       </c>
@@ -13416,7 +13415,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40"/>
       <c r="B403" s="20" t="s">
         <v>307</v>
@@ -13436,7 +13435,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
         <v>40695</v>
       </c>
@@ -13460,7 +13459,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
         <v>40725</v>
       </c>
@@ -13484,7 +13483,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
         <v>40756</v>
       </c>
@@ -13510,7 +13509,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40"/>
       <c r="B407" s="20" t="s">
         <v>311</v>
@@ -13530,7 +13529,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
         <v>40787</v>
       </c>
@@ -13556,7 +13555,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40"/>
       <c r="B409" s="20" t="s">
         <v>57</v>
@@ -13578,7 +13577,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40"/>
       <c r="B410" s="20" t="s">
         <v>313</v>
@@ -13598,7 +13597,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
         <v>40817</v>
       </c>
@@ -13624,7 +13623,7 @@
         <v>45226</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
         <v>40848</v>
       </c>
@@ -13650,7 +13649,7 @@
         <v>45241</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40"/>
       <c r="B413" s="20" t="s">
         <v>224</v>
@@ -13670,7 +13669,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40"/>
       <c r="B414" s="20" t="s">
         <v>315</v>
@@ -13690,7 +13689,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40">
         <v>40878</v>
       </c>
@@ -13714,7 +13713,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="47" t="s">
         <v>299</v>
       </c>
@@ -13736,7 +13735,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
         <v>40909</v>
       </c>
@@ -13762,7 +13761,7 @@
         <v>44928</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40"/>
       <c r="B418" s="20" t="s">
         <v>320</v>
@@ -13782,7 +13781,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
         <v>40940</v>
       </c>
@@ -13812,7 +13811,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40"/>
       <c r="B420" s="20" t="s">
         <v>321</v>
@@ -13832,7 +13831,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <v>40969</v>
       </c>
@@ -13856,7 +13855,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40">
         <v>41000</v>
       </c>
@@ -13882,7 +13881,7 @@
         <v>45027</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40"/>
       <c r="B423" s="20" t="s">
         <v>57</v>
@@ -13904,7 +13903,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40"/>
       <c r="B424" s="20" t="s">
         <v>325</v>
@@ -13924,7 +13923,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
         <v>41030</v>
       </c>
@@ -13948,7 +13947,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
         <v>41061</v>
       </c>
@@ -13972,7 +13971,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
         <v>41091</v>
       </c>
@@ -13998,7 +13997,7 @@
         <v>45116</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40"/>
       <c r="B428" s="20" t="s">
         <v>53</v>
@@ -14020,7 +14019,7 @@
         <v>45137</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40"/>
       <c r="B429" s="20" t="s">
         <v>328</v>
@@ -14040,7 +14039,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
         <v>41122</v>
       </c>
@@ -14066,7 +14065,7 @@
         <v>45169</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40"/>
       <c r="B431" s="20" t="s">
         <v>329</v>
@@ -14086,7 +14085,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
         <v>41153</v>
       </c>
@@ -14112,7 +14111,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40"/>
       <c r="B433" s="20" t="s">
         <v>330</v>
@@ -14132,7 +14131,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
         <v>41183</v>
       </c>
@@ -14156,7 +14155,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40"/>
       <c r="B435" s="20" t="s">
         <v>96</v>
@@ -14178,7 +14177,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40"/>
       <c r="B436" s="20" t="s">
         <v>331</v>
@@ -14198,7 +14197,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
         <v>41214</v>
       </c>
@@ -14222,7 +14221,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40"/>
       <c r="B438" s="20" t="s">
         <v>332</v>
@@ -14242,7 +14241,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
         <v>41244</v>
       </c>
@@ -14268,7 +14267,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40"/>
       <c r="B440" s="20" t="s">
         <v>96</v>
@@ -14288,7 +14287,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="47" t="s">
         <v>300</v>
       </c>
@@ -14310,7 +14309,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
         <v>41275</v>
       </c>
@@ -14334,7 +14333,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
         <v>41306</v>
       </c>
@@ -14358,7 +14357,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
         <v>41334</v>
       </c>
@@ -14384,7 +14383,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40"/>
       <c r="B445" s="20" t="s">
         <v>122</v>
@@ -14408,7 +14407,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40"/>
       <c r="B446" s="20" t="s">
         <v>340</v>
@@ -14428,7 +14427,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40">
         <v>41365</v>
       </c>
@@ -14454,7 +14453,7 @@
         <v>45039</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40"/>
       <c r="B448" s="20" t="s">
         <v>341</v>
@@ -14476,7 +14475,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40">
         <v>41395</v>
       </c>
@@ -14504,7 +14503,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40"/>
       <c r="B450" s="20" t="s">
         <v>122</v>
@@ -14528,7 +14527,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40"/>
       <c r="B451" s="20" t="s">
         <v>342</v>
@@ -14550,7 +14549,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40">
         <v>41426</v>
       </c>
@@ -14576,7 +14575,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
         <v>41456</v>
       </c>
@@ -14602,7 +14601,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40"/>
       <c r="B454" s="20" t="s">
         <v>344</v>
@@ -14624,7 +14623,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40">
         <v>41487</v>
       </c>
@@ -14650,7 +14649,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40"/>
       <c r="B456" s="20" t="s">
         <v>345</v>
@@ -14670,7 +14669,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
         <v>41518</v>
       </c>
@@ -14696,7 +14695,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
         <v>41548</v>
       </c>
@@ -14722,7 +14721,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
         <v>41579</v>
       </c>
@@ -14748,7 +14747,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
         <v>41609</v>
       </c>
@@ -14774,7 +14773,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40"/>
       <c r="B461" s="20" t="s">
         <v>207</v>
@@ -14794,7 +14793,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40"/>
       <c r="B462" s="20" t="s">
         <v>349</v>
@@ -14816,7 +14815,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="47" t="s">
         <v>301</v>
       </c>
@@ -14838,7 +14837,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
         <v>41640</v>
       </c>
@@ -14866,7 +14865,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40"/>
       <c r="B465" s="20" t="s">
         <v>357</v>
@@ -14888,7 +14887,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40">
         <v>41671</v>
       </c>
@@ -14912,7 +14911,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40">
         <v>41699</v>
       </c>
@@ -14938,7 +14937,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
         <v>41730</v>
       </c>
@@ -14962,7 +14961,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40">
         <v>41760</v>
       </c>
@@ -14986,7 +14985,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40"/>
       <c r="B470" s="20" t="s">
         <v>57</v>
@@ -15010,7 +15009,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40"/>
       <c r="B471" s="20" t="s">
         <v>361</v>
@@ -15030,7 +15029,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40">
         <v>41791</v>
       </c>
@@ -15056,7 +15055,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40"/>
       <c r="B473" s="20" t="s">
         <v>362</v>
@@ -15076,7 +15075,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40">
         <v>41821</v>
       </c>
@@ -15102,7 +15101,7 @@
         <v>45108</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40"/>
       <c r="B475" s="20" t="s">
         <v>363</v>
@@ -15124,7 +15123,7 @@
         <v>45124</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40">
         <v>41852</v>
       </c>
@@ -15150,7 +15149,7 @@
         <v>45160</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40"/>
       <c r="B477" s="20" t="s">
         <v>364</v>
@@ -15170,7 +15169,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40">
         <v>41883</v>
       </c>
@@ -15196,7 +15195,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40"/>
       <c r="B479" s="20" t="s">
         <v>312</v>
@@ -15220,7 +15219,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40"/>
       <c r="B480" s="20" t="s">
         <v>365</v>
@@ -15240,7 +15239,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
         <v>41913</v>
       </c>
@@ -15268,7 +15267,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40"/>
       <c r="B482" s="20" t="s">
         <v>119</v>
@@ -15292,7 +15291,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40"/>
       <c r="B483" s="20" t="s">
         <v>366</v>
@@ -15314,7 +15313,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40">
         <v>41944</v>
       </c>
@@ -15340,7 +15339,7 @@
         <v>45248</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40"/>
       <c r="B485" s="20" t="s">
         <v>57</v>
@@ -15362,7 +15361,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40"/>
       <c r="B486" s="20" t="s">
         <v>207</v>
@@ -15382,7 +15381,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40"/>
       <c r="B487" s="20" t="s">
         <v>207</v>
@@ -15402,7 +15401,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40"/>
       <c r="B488" s="20" t="s">
         <v>152</v>
@@ -15422,7 +15421,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
         <v>41974</v>
       </c>
@@ -15446,7 +15445,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="47" t="s">
         <v>302</v>
       </c>
@@ -15468,7 +15467,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
         <v>42005</v>
       </c>
@@ -15492,7 +15491,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40"/>
       <c r="B492" s="20" t="s">
         <v>53</v>
@@ -15514,7 +15513,7 @@
         <v>44959</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40"/>
       <c r="B493" s="20" t="s">
         <v>383</v>
@@ -15534,7 +15533,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
         <v>42036</v>
       </c>
@@ -15558,7 +15557,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
         <v>42064</v>
       </c>
@@ -15584,7 +15583,7 @@
         <v>45004</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40"/>
       <c r="B496" s="20" t="s">
         <v>53</v>
@@ -15606,7 +15605,7 @@
         <v>45011</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40"/>
       <c r="B497" s="20" t="s">
         <v>385</v>
@@ -15626,7 +15625,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
         <v>42095</v>
       </c>
@@ -15652,7 +15651,7 @@
         <v>45045</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40"/>
       <c r="B499" s="20" t="s">
         <v>387</v>
@@ -15672,7 +15671,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
         <v>42125</v>
       </c>
@@ -15698,7 +15697,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40"/>
       <c r="B501" s="20" t="s">
         <v>386</v>
@@ -15718,7 +15717,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40"/>
       <c r="B502" s="20" t="s">
         <v>390</v>
@@ -15738,7 +15737,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
         <v>42156</v>
       </c>
@@ -15764,7 +15763,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
         <v>42186</v>
       </c>
@@ -15784,7 +15783,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
         <v>42217</v>
       </c>
@@ -15808,7 +15807,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
         <v>42248</v>
       </c>
@@ -15834,7 +15833,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40"/>
       <c r="B507" s="20" t="s">
         <v>53</v>
@@ -15856,7 +15855,7 @@
         <v>45199</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40"/>
       <c r="B508" s="20" t="s">
         <v>393</v>
@@ -15876,7 +15875,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
         <v>42278</v>
       </c>
@@ -15902,7 +15901,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40"/>
       <c r="B510" s="20" t="s">
         <v>394</v>
@@ -15922,7 +15921,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
         <v>42309</v>
       </c>
@@ -15948,7 +15947,7 @@
         <v>45232</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40"/>
       <c r="B512" s="20" t="s">
         <v>53</v>
@@ -15970,7 +15969,7 @@
         <v>45246</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40"/>
       <c r="B513" s="20" t="s">
         <v>53</v>
@@ -15992,7 +15991,7 @@
         <v>45283</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40"/>
       <c r="B514" s="20" t="s">
         <v>207</v>
@@ -16012,7 +16011,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40"/>
       <c r="B515" s="20" t="s">
         <v>396</v>
@@ -16032,7 +16031,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
         <v>42339</v>
       </c>
@@ -16056,7 +16055,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="47" t="s">
         <v>376</v>
       </c>
@@ -16078,7 +16077,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
         <v>42370</v>
       </c>
@@ -16104,7 +16103,7 @@
         <v>44930</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40"/>
       <c r="B519" s="20" t="s">
         <v>399</v>
@@ -16124,7 +16123,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40">
         <v>42401</v>
       </c>
@@ -16148,7 +16147,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40"/>
       <c r="B521" s="20" t="s">
         <v>400</v>
@@ -16170,7 +16169,7 @@
         <v>44968</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
         <v>42430</v>
       </c>
@@ -16198,7 +16197,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40"/>
       <c r="B523" s="20" t="s">
         <v>401</v>
@@ -16220,7 +16219,7 @@
         <v>45008</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
         <v>42461</v>
       </c>
@@ -16244,7 +16243,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40"/>
       <c r="B525" s="20" t="s">
         <v>53</v>
@@ -16264,7 +16263,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40"/>
       <c r="B526" s="20" t="s">
         <v>402</v>
@@ -16286,7 +16285,7 @@
         <v>45038</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
         <v>42491</v>
       </c>
@@ -16310,7 +16309,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
         <v>42522</v>
       </c>
@@ -16334,7 +16333,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40"/>
       <c r="B529" s="20" t="s">
         <v>404</v>
@@ -16356,7 +16355,7 @@
         <v>45097</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
         <v>42552</v>
       </c>
@@ -16380,7 +16379,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40"/>
       <c r="B531" s="20" t="s">
         <v>285</v>
@@ -16402,7 +16401,7 @@
         <v>45128</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
         <v>42583</v>
       </c>
@@ -16428,7 +16427,7 @@
         <v>45148</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40"/>
       <c r="B533" s="20" t="s">
         <v>53</v>
@@ -16450,7 +16449,7 @@
         <v>45160</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40"/>
       <c r="B534" s="20" t="s">
         <v>405</v>
@@ -16470,7 +16469,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
         <v>42614</v>
       </c>
@@ -16496,7 +16495,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40"/>
       <c r="B536" s="20" t="s">
         <v>53</v>
@@ -16518,7 +16517,7 @@
         <v>45199</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40"/>
       <c r="B537" s="20" t="s">
         <v>407</v>
@@ -16540,7 +16539,7 @@
         <v>45209</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
         <v>42644</v>
       </c>
@@ -16566,7 +16565,7 @@
         <v>45240</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40"/>
       <c r="B539" s="20" t="s">
         <v>53</v>
@@ -16588,7 +16587,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40"/>
       <c r="B540" s="20" t="s">
         <v>224</v>
@@ -16606,7 +16605,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40"/>
       <c r="B541" s="20" t="s">
         <v>294</v>
@@ -16626,7 +16625,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
         <v>42675</v>
       </c>
@@ -16652,7 +16651,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40"/>
       <c r="B543" s="20" t="s">
         <v>53</v>
@@ -16674,7 +16673,7 @@
         <v>45255</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40"/>
       <c r="B544" s="20" t="s">
         <v>409</v>
@@ -16694,7 +16693,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
         <v>42705</v>
       </c>
@@ -16720,7 +16719,7 @@
         <v>45269</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40"/>
       <c r="B546" s="20" t="s">
         <v>120</v>
@@ -16742,7 +16741,7 @@
         <v>45287</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40"/>
       <c r="B547" s="20" t="s">
         <v>410</v>
@@ -16762,7 +16761,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="47" t="s">
         <v>377</v>
       </c>
@@ -16784,7 +16783,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
         <v>42736</v>
       </c>
@@ -16810,7 +16809,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40"/>
       <c r="B550" s="20" t="s">
         <v>120</v>
@@ -16834,7 +16833,7 @@
         <v>44951</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40"/>
       <c r="B551" s="20" t="s">
         <v>412</v>
@@ -16856,7 +16855,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
         <v>42767</v>
       </c>
@@ -16882,7 +16881,7 @@
         <v>44970</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40"/>
       <c r="B553" s="20" t="s">
         <v>413</v>
@@ -16902,7 +16901,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
         <v>42795</v>
       </c>
@@ -16932,7 +16931,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40"/>
       <c r="B555" s="20" t="s">
         <v>120</v>
@@ -16956,7 +16955,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40"/>
       <c r="B556" s="20" t="s">
         <v>120</v>
@@ -16980,7 +16979,7 @@
         <v>44999</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40"/>
       <c r="B557" s="20" t="s">
         <v>81</v>
@@ -17000,7 +16999,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
         <v>42826</v>
       </c>
@@ -17026,7 +17025,7 @@
         <v>45036</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40"/>
       <c r="B559" s="20" t="s">
         <v>52</v>
@@ -17048,7 +17047,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
         <v>42856</v>
       </c>
@@ -17074,7 +17073,7 @@
         <v>45068</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40"/>
       <c r="B561" s="20" t="s">
         <v>415</v>
@@ -17094,7 +17093,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
         <v>42887</v>
       </c>
@@ -17122,7 +17121,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
         <v>42917</v>
       </c>
@@ -17146,7 +17145,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40"/>
       <c r="B564" s="20" t="s">
         <v>120</v>
@@ -17172,7 +17171,7 @@
         <v>45117</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40"/>
       <c r="B565" s="20" t="s">
         <v>53</v>
@@ -17196,7 +17195,7 @@
         <v>45124</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40"/>
       <c r="B566" s="20" t="s">
         <v>416</v>
@@ -17218,7 +17217,7 @@
         <v>45135</v>
       </c>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
         <v>42948</v>
       </c>
@@ -17242,7 +17241,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
         <v>42979</v>
       </c>
@@ -17266,7 +17265,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40"/>
       <c r="B569" s="20" t="s">
         <v>53</v>
@@ -17288,7 +17287,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40"/>
       <c r="B570" s="20" t="s">
         <v>53</v>
@@ -17310,7 +17309,7 @@
         <v>45175</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40"/>
       <c r="B571" s="20" t="s">
         <v>418</v>
@@ -17332,7 +17331,7 @@
         <v>45184</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
         <v>43009</v>
       </c>
@@ -17356,7 +17355,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40"/>
       <c r="B573" s="20" t="s">
         <v>53</v>
@@ -17380,7 +17379,7 @@
         <v>45203</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40"/>
       <c r="B574" s="20" t="s">
         <v>120</v>
@@ -17402,7 +17401,7 @@
         <v>45191</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40"/>
       <c r="B575" s="20" t="s">
         <v>419</v>
@@ -17424,7 +17423,7 @@
         <v>45222</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40">
         <v>43040</v>
       </c>
@@ -17450,7 +17449,7 @@
         <v>45232</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40"/>
       <c r="B577" s="20" t="s">
         <v>53</v>
@@ -17472,7 +17471,7 @@
         <v>45243</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40">
         <v>43070</v>
       </c>
@@ -17498,7 +17497,7 @@
         <v>45261</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40"/>
       <c r="B579" s="20" t="s">
         <v>120</v>
@@ -17522,7 +17521,7 @@
         <v>45271</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40"/>
       <c r="B580" s="20" t="s">
         <v>207</v>
@@ -17542,7 +17541,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40"/>
       <c r="B581" s="20" t="s">
         <v>224</v>
@@ -17562,7 +17561,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="47" t="s">
         <v>378</v>
       </c>
@@ -17584,7 +17583,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40">
         <v>43101</v>
       </c>
@@ -17610,7 +17609,7 @@
         <v>44929</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40"/>
       <c r="B584" s="20" t="s">
         <v>120</v>
@@ -17634,7 +17633,7 @@
         <v>44934</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40">
         <v>43132</v>
       </c>
@@ -17658,7 +17657,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40"/>
       <c r="B586" s="20" t="s">
         <v>52</v>
@@ -17680,7 +17679,7 @@
         <v>44976</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40">
         <v>43160</v>
       </c>
@@ -17706,7 +17705,7 @@
         <v>44986</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40"/>
       <c r="B588" s="20" t="s">
         <v>53</v>
@@ -17728,7 +17727,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40">
         <v>43191</v>
       </c>
@@ -17756,7 +17755,7 @@
         <v>44987</v>
       </c>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40"/>
       <c r="B590" s="20" t="s">
         <v>120</v>
@@ -17778,7 +17777,7 @@
         <v>44993</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40"/>
       <c r="B591" s="20" t="s">
         <v>57</v>
@@ -17800,7 +17799,7 @@
         <v>45012</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40"/>
       <c r="B592" s="20" t="s">
         <v>423</v>
@@ -17822,7 +17821,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40">
         <v>43221</v>
       </c>
@@ -17848,7 +17847,7 @@
         <v>45055</v>
       </c>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40"/>
       <c r="B594" s="20" t="s">
         <v>53</v>
@@ -17874,7 +17873,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40"/>
       <c r="B595" s="20" t="s">
         <v>120</v>
@@ -17896,7 +17895,7 @@
         <v>45068</v>
       </c>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40"/>
       <c r="B596" s="20" t="s">
         <v>425</v>
@@ -17916,7 +17915,7 @@
       <c r="J596" s="11"/>
       <c r="K596" s="20"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40">
         <v>43252</v>
       </c>
@@ -17942,7 +17941,7 @@
         <v>45090</v>
       </c>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40"/>
       <c r="B598" s="20" t="s">
         <v>426</v>
@@ -17962,7 +17961,7 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40">
         <v>43282</v>
       </c>
@@ -17988,7 +17987,7 @@
         <v>45123</v>
       </c>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40"/>
       <c r="B600" s="20" t="s">
         <v>120</v>
@@ -18014,7 +18013,7 @@
         <v>45130</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40"/>
       <c r="B601" s="20" t="s">
         <v>427</v>
@@ -18034,7 +18033,7 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40">
         <v>43313</v>
       </c>
@@ -18060,7 +18059,7 @@
         <v>45159</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40"/>
       <c r="B603" s="20" t="s">
         <v>120</v>
@@ -18082,7 +18081,7 @@
         <v>45162</v>
       </c>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40"/>
       <c r="B604" s="20" t="s">
         <v>428</v>
@@ -18102,7 +18101,7 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40">
         <v>43344</v>
       </c>
@@ -18128,7 +18127,7 @@
         <v>45173</v>
       </c>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40"/>
       <c r="B606" s="20" t="s">
         <v>86</v>
@@ -18150,7 +18149,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40"/>
       <c r="B607" s="20" t="s">
         <v>120</v>
@@ -18172,7 +18171,7 @@
         <v>45187</v>
       </c>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40"/>
       <c r="B608" s="20" t="s">
         <v>429</v>
@@ -18194,7 +18193,7 @@
         <v>45181</v>
       </c>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40">
         <v>43374</v>
       </c>
@@ -18220,7 +18219,7 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40">
         <v>43405</v>
       </c>
@@ -18246,7 +18245,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40"/>
       <c r="B611" s="20" t="s">
         <v>432</v>
@@ -18268,7 +18267,7 @@
         <v>45246</v>
       </c>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40">
         <v>43435</v>
       </c>
@@ -18294,7 +18293,7 @@
         <v>45267</v>
       </c>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="40"/>
       <c r="B613" s="20" t="s">
         <v>53</v>
@@ -18316,7 +18315,7 @@
         <v>45274</v>
       </c>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="40"/>
       <c r="B614" s="20" t="s">
         <v>207</v>
@@ -18336,7 +18335,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="40"/>
       <c r="B615" s="20" t="s">
         <v>53</v>
@@ -18358,7 +18357,7 @@
         <v>45279</v>
       </c>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="40"/>
       <c r="B616" s="20" t="s">
         <v>53</v>
@@ -18380,7 +18379,7 @@
         <v>45287</v>
       </c>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="40"/>
       <c r="B617" s="20" t="s">
         <v>93</v>
@@ -18400,7 +18399,7 @@
       <c r="J617" s="11"/>
       <c r="K617" s="20"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="47" t="s">
         <v>379</v>
       </c>
@@ -18422,7 +18421,7 @@
       <c r="J618" s="11"/>
       <c r="K618" s="20"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="40">
         <v>43466</v>
       </c>
@@ -18448,7 +18447,7 @@
         <v>44943</v>
       </c>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="40"/>
       <c r="B620" s="20" t="s">
         <v>120</v>
@@ -18470,7 +18469,7 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="40">
         <v>43497</v>
       </c>
@@ -18490,7 +18489,7 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="40">
         <v>43525</v>
       </c>
@@ -18516,7 +18515,7 @@
         <v>44990</v>
       </c>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="40"/>
       <c r="B623" s="20" t="s">
         <v>53</v>
@@ -18538,7 +18537,7 @@
         <v>45018</v>
       </c>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="40">
         <v>43556</v>
       </c>
@@ -18564,7 +18563,7 @@
         <v>45041</v>
       </c>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="40"/>
       <c r="B625" s="20" t="s">
         <v>52</v>
@@ -18586,7 +18585,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="40">
         <v>43586</v>
       </c>
@@ -18612,7 +18611,7 @@
         <v>45049</v>
       </c>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="40">
         <v>43617</v>
       </c>
@@ -18636,7 +18635,7 @@
       <c r="J627" s="11"/>
       <c r="K627" s="20"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="40"/>
       <c r="B628" s="20" t="s">
         <v>52</v>
@@ -18658,7 +18657,7 @@
         <v>45095</v>
       </c>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="40">
         <v>43647</v>
       </c>
@@ -18684,7 +18683,7 @@
         <v>45122</v>
       </c>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="40">
         <v>43678</v>
       </c>
@@ -18708,7 +18707,7 @@
       <c r="J630" s="11"/>
       <c r="K630" s="20"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="40">
         <v>43709</v>
       </c>
@@ -18734,7 +18733,7 @@
         <v>45119</v>
       </c>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="40"/>
       <c r="B632" s="20" t="s">
         <v>119</v>
@@ -18754,7 +18753,7 @@
       <c r="J632" s="11"/>
       <c r="K632" s="20"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="40"/>
       <c r="B633" s="20" t="s">
         <v>120</v>
@@ -18776,7 +18775,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="40"/>
       <c r="B634" s="20" t="s">
         <v>119</v>
@@ -18798,7 +18797,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="40"/>
       <c r="B635" s="20" t="s">
         <v>119</v>
@@ -18820,7 +18819,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="40"/>
       <c r="B636" s="20" t="s">
         <v>52</v>
@@ -18842,7 +18841,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="40">
         <v>43739</v>
       </c>
@@ -18870,7 +18869,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="40">
         <v>43770</v>
       </c>
@@ -18892,7 +18891,7 @@
         <v>45210</v>
       </c>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="40">
         <v>43800</v>
       </c>
@@ -18918,7 +18917,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="40"/>
       <c r="B640" s="20"/>
       <c r="C640" s="13"/>
@@ -18936,7 +18935,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="47" t="s">
         <v>380</v>
       </c>
@@ -18958,7 +18957,7 @@
       <c r="J641" s="11"/>
       <c r="K641" s="20"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="40">
         <v>43831</v>
       </c>
@@ -18984,7 +18983,7 @@
         <v>44941</v>
       </c>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="40"/>
       <c r="B643" s="20" t="s">
         <v>439</v>
@@ -19004,7 +19003,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="40"/>
       <c r="B644" s="20" t="s">
         <v>52</v>
@@ -19026,7 +19025,7 @@
         <v>44944</v>
       </c>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="40">
         <v>43862</v>
       </c>
@@ -19050,7 +19049,7 @@
         <v>44975</v>
       </c>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="40"/>
       <c r="B646" s="20" t="s">
         <v>207</v>
@@ -19070,7 +19069,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="40">
         <v>43891</v>
       </c>
@@ -19090,7 +19089,7 @@
       <c r="J647" s="11"/>
       <c r="K647" s="20"/>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="40">
         <v>43922</v>
       </c>
@@ -19110,7 +19109,7 @@
       <c r="J648" s="11"/>
       <c r="K648" s="20"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="40">
         <v>43952</v>
       </c>
@@ -19130,7 +19129,7 @@
       <c r="J649" s="11"/>
       <c r="K649" s="20"/>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="40">
         <v>43983</v>
       </c>
@@ -19150,7 +19149,7 @@
       <c r="J650" s="11"/>
       <c r="K650" s="20"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="40">
         <v>44013</v>
       </c>
@@ -19170,7 +19169,7 @@
       <c r="J651" s="11"/>
       <c r="K651" s="20"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="40">
         <v>44044</v>
       </c>
@@ -19196,7 +19195,7 @@
         <v>45157</v>
       </c>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="40"/>
       <c r="B653" s="20" t="s">
         <v>224</v>
@@ -19216,7 +19215,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="40"/>
       <c r="B654" s="20" t="s">
         <v>53</v>
@@ -19238,7 +19237,7 @@
         <v>45162</v>
       </c>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="40">
         <v>44075</v>
       </c>
@@ -19264,7 +19263,7 @@
         <v>45179</v>
       </c>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="40">
         <v>44105</v>
       </c>
@@ -19284,7 +19283,7 @@
       <c r="J656" s="11"/>
       <c r="K656" s="20"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="40">
         <v>44136</v>
       </c>
@@ -19310,7 +19309,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="40">
         <v>44166</v>
       </c>
@@ -19334,7 +19333,7 @@
       <c r="J658" s="11"/>
       <c r="K658" s="20"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="47" t="s">
         <v>381</v>
       </c>
@@ -19356,7 +19355,7 @@
       <c r="J659" s="11"/>
       <c r="K659" s="20"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="40">
         <v>44197</v>
       </c>
@@ -19382,7 +19381,7 @@
         <v>44944</v>
       </c>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="40">
         <v>44228</v>
       </c>
@@ -19408,7 +19407,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="40"/>
       <c r="B662" s="20" t="s">
         <v>53</v>
@@ -19430,7 +19429,7 @@
         <v>44983</v>
       </c>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="40"/>
       <c r="B663" s="20" t="s">
         <v>53</v>
@@ -19452,7 +19451,7 @@
         <v>44990</v>
       </c>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="40">
         <v>44256</v>
       </c>
@@ -19472,7 +19471,7 @@
       <c r="J664" s="11"/>
       <c r="K664" s="20"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="40">
         <v>44287</v>
       </c>
@@ -19492,7 +19491,7 @@
       <c r="J665" s="11"/>
       <c r="K665" s="20"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="40">
         <v>44317</v>
       </c>
@@ -19512,7 +19511,7 @@
       <c r="J666" s="11"/>
       <c r="K666" s="20"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="40">
         <v>44348</v>
       </c>
@@ -19532,7 +19531,7 @@
       <c r="J667" s="11"/>
       <c r="K667" s="20"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="40">
         <v>44378</v>
       </c>
@@ -19558,7 +19557,7 @@
         <v>45135</v>
       </c>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="40">
         <v>44409</v>
       </c>
@@ -19582,7 +19581,7 @@
       <c r="J669" s="11"/>
       <c r="K669" s="20"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="40">
         <v>44440</v>
       </c>
@@ -19604,7 +19603,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="40">
         <v>44470</v>
       </c>
@@ -19630,7 +19629,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="40"/>
       <c r="B672" s="20" t="s">
         <v>86</v>
@@ -19652,7 +19651,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="40"/>
       <c r="B673" s="20" t="s">
         <v>207</v>
@@ -19672,7 +19671,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="40">
         <v>44501</v>
       </c>
@@ -19696,7 +19695,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="40">
         <v>44531</v>
       </c>
@@ -19716,7 +19715,7 @@
       <c r="J675" s="11"/>
       <c r="K675" s="20"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="47" t="s">
         <v>382</v>
       </c>
@@ -19738,7 +19737,7 @@
       <c r="J676" s="11"/>
       <c r="K676" s="20"/>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="40">
         <v>44562</v>
       </c>
@@ -19764,7 +19763,7 @@
         <v>44952</v>
       </c>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="40"/>
       <c r="B678" s="20" t="s">
         <v>53</v>
@@ -19786,7 +19785,7 @@
         <v>44968</v>
       </c>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="40">
         <v>44593</v>
       </c>
@@ -19810,7 +19809,7 @@
       <c r="J679" s="11"/>
       <c r="K679" s="20"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="40">
         <v>44621</v>
       </c>
@@ -19836,7 +19835,7 @@
         <v>44988</v>
       </c>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="40">
         <v>44652</v>
       </c>
@@ -19858,7 +19857,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="40">
         <v>44682</v>
       </c>
@@ -19884,7 +19883,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="40"/>
       <c r="B683" s="20" t="s">
         <v>53</v>
@@ -19906,7 +19905,7 @@
         <v>45080</v>
       </c>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="40">
         <v>44713</v>
       </c>
@@ -19926,7 +19925,7 @@
       <c r="J684" s="11"/>
       <c r="K684" s="20"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="40">
         <v>44743</v>
       </c>
@@ -19946,7 +19945,7 @@
       <c r="J685" s="11"/>
       <c r="K685" s="20"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="40">
         <v>44774</v>
       </c>
@@ -19972,7 +19971,7 @@
         <v>45147</v>
       </c>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="40">
         <v>44805</v>
       </c>
@@ -19998,7 +19997,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="40"/>
       <c r="B688" s="20" t="s">
         <v>57</v>
@@ -20020,7 +20019,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="40">
         <v>44835</v>
       </c>
@@ -20040,7 +20039,7 @@
       <c r="J689" s="11"/>
       <c r="K689" s="20"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="40">
         <v>44866</v>
       </c>
@@ -20066,7 +20065,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="40"/>
       <c r="B691" s="20" t="s">
         <v>57</v>
@@ -20088,7 +20087,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="40">
         <v>44896</v>
       </c>
@@ -20112,7 +20111,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="40"/>
       <c r="B693" s="20" t="s">
         <v>457</v>
@@ -20132,7 +20131,7 @@
       <c r="J693" s="11"/>
       <c r="K693" s="20"/>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="47" t="s">
         <v>451</v>
       </c>
@@ -20150,7 +20149,7 @@
       <c r="J694" s="11"/>
       <c r="K694" s="20"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="40">
         <v>44927</v>
       </c>
@@ -20170,7 +20169,7 @@
       <c r="J695" s="11"/>
       <c r="K695" s="20"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="40">
         <f>EDATE(A695,1)</f>
         <v>44958</v>
@@ -20191,7 +20190,7 @@
       <c r="J696" s="11"/>
       <c r="K696" s="20"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" s="40">
         <f t="shared" ref="A697:A711" si="0">EDATE(A696,1)</f>
         <v>44986</v>
@@ -20218,7 +20217,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="40"/>
       <c r="B698" s="20" t="s">
         <v>53</v>
@@ -20240,31 +20239,35 @@
         <v>44991</v>
       </c>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="40">
         <f>EDATE(A697,1)</f>
         <v>45017</v>
       </c>
       <c r="B699" s="20"/>
-      <c r="C699" s="13"/>
+      <c r="C699" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D699" s="39"/>
       <c r="E699" s="9"/>
       <c r="F699" s="20"/>
-      <c r="G699" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G699" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H699" s="39"/>
       <c r="I699" s="9"/>
       <c r="J699" s="11"/>
       <c r="K699" s="20"/>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" s="40">
         <f t="shared" si="0"/>
         <v>45047</v>
       </c>
-      <c r="B700" s="20"/>
+      <c r="B700" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C700" s="13"/>
       <c r="D700" s="39"/>
       <c r="E700" s="9"/>
@@ -20273,12 +20276,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H700" s="39"/>
+      <c r="H700" s="39">
+        <v>1</v>
+      </c>
       <c r="I700" s="9"/>
       <c r="J700" s="11"/>
-      <c r="K700" s="20"/>
-    </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K700" s="49">
+        <v>45044</v>
+      </c>
+    </row>
+    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="40">
         <f t="shared" si="0"/>
         <v>45078</v>
@@ -20297,7 +20304,7 @@
       <c r="J701" s="11"/>
       <c r="K701" s="20"/>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="40">
         <f t="shared" si="0"/>
         <v>45108</v>
@@ -20316,7 +20323,7 @@
       <c r="J702" s="11"/>
       <c r="K702" s="20"/>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" s="40">
         <f t="shared" si="0"/>
         <v>45139</v>
@@ -20335,7 +20342,7 @@
       <c r="J703" s="11"/>
       <c r="K703" s="20"/>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" s="40">
         <f t="shared" si="0"/>
         <v>45170</v>
@@ -20354,7 +20361,7 @@
       <c r="J704" s="11"/>
       <c r="K704" s="20"/>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A705" s="40">
         <f t="shared" si="0"/>
         <v>45200</v>
@@ -20373,7 +20380,7 @@
       <c r="J705" s="11"/>
       <c r="K705" s="20"/>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A706" s="40">
         <f t="shared" si="0"/>
         <v>45231</v>
@@ -20392,7 +20399,7 @@
       <c r="J706" s="11"/>
       <c r="K706" s="20"/>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A707" s="40">
         <f t="shared" si="0"/>
         <v>45261</v>
@@ -20411,7 +20418,7 @@
       <c r="J707" s="11"/>
       <c r="K707" s="20"/>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A708" s="40">
         <f t="shared" si="0"/>
         <v>45292</v>
@@ -20430,7 +20437,7 @@
       <c r="J708" s="11"/>
       <c r="K708" s="20"/>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A709" s="40">
         <f t="shared" si="0"/>
         <v>45323</v>
@@ -20449,7 +20456,7 @@
       <c r="J709" s="11"/>
       <c r="K709" s="20"/>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" s="40">
         <f t="shared" si="0"/>
         <v>45352</v>
@@ -20468,7 +20475,7 @@
       <c r="J710" s="11"/>
       <c r="K710" s="20"/>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A711" s="40">
         <f t="shared" si="0"/>
         <v>45383</v>
@@ -20487,7 +20494,7 @@
       <c r="J711" s="11"/>
       <c r="K711" s="20"/>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A712" s="40"/>
       <c r="B712" s="20"/>
       <c r="C712" s="13"/>
@@ -20503,7 +20510,7 @@
       <c r="J712" s="11"/>
       <c r="K712" s="20"/>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A713" s="40"/>
       <c r="B713" s="20"/>
       <c r="C713" s="13"/>
@@ -20519,7 +20526,7 @@
       <c r="J713" s="11"/>
       <c r="K713" s="20"/>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A714" s="40"/>
       <c r="B714" s="20"/>
       <c r="C714" s="13"/>
@@ -20535,7 +20542,7 @@
       <c r="J714" s="11"/>
       <c r="K714" s="20"/>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A715" s="40"/>
       <c r="B715" s="20"/>
       <c r="C715" s="13"/>
@@ -20551,7 +20558,7 @@
       <c r="J715" s="11"/>
       <c r="K715" s="20"/>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A716" s="40"/>
       <c r="B716" s="20"/>
       <c r="C716" s="13"/>
@@ -20567,7 +20574,7 @@
       <c r="J716" s="11"/>
       <c r="K716" s="20"/>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A717" s="40"/>
       <c r="B717" s="20"/>
       <c r="C717" s="13"/>
@@ -20583,7 +20590,7 @@
       <c r="J717" s="11"/>
       <c r="K717" s="20"/>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A718" s="40"/>
       <c r="B718" s="20"/>
       <c r="C718" s="13"/>
@@ -20599,7 +20606,7 @@
       <c r="J718" s="11"/>
       <c r="K718" s="20"/>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A719" s="40"/>
       <c r="B719" s="20"/>
       <c r="C719" s="13"/>
@@ -20615,7 +20622,7 @@
       <c r="J719" s="11"/>
       <c r="K719" s="20"/>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A720" s="40"/>
       <c r="B720" s="20"/>
       <c r="C720" s="13"/>
@@ -20631,7 +20638,7 @@
       <c r="J720" s="11"/>
       <c r="K720" s="20"/>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A721" s="40"/>
       <c r="B721" s="20"/>
       <c r="C721" s="13"/>
@@ -20647,7 +20654,7 @@
       <c r="J721" s="11"/>
       <c r="K721" s="20"/>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A722" s="40"/>
       <c r="B722" s="20"/>
       <c r="C722" s="13"/>
@@ -20663,7 +20670,7 @@
       <c r="J722" s="11"/>
       <c r="K722" s="20"/>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A723" s="40"/>
       <c r="B723" s="20"/>
       <c r="C723" s="13"/>
@@ -20679,7 +20686,7 @@
       <c r="J723" s="11"/>
       <c r="K723" s="20"/>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A724" s="40"/>
       <c r="B724" s="20"/>
       <c r="C724" s="13"/>
@@ -20695,7 +20702,7 @@
       <c r="J724" s="11"/>
       <c r="K724" s="20"/>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A725" s="40"/>
       <c r="B725" s="20"/>
       <c r="C725" s="13"/>
@@ -20711,7 +20718,7 @@
       <c r="J725" s="11"/>
       <c r="K725" s="20"/>
     </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A726" s="40"/>
       <c r="B726" s="20"/>
       <c r="C726" s="13"/>
@@ -20727,7 +20734,7 @@
       <c r="J726" s="11"/>
       <c r="K726" s="20"/>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A727" s="40"/>
       <c r="B727" s="20"/>
       <c r="C727" s="13"/>
@@ -20743,7 +20750,7 @@
       <c r="J727" s="11"/>
       <c r="K727" s="20"/>
     </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A728" s="40"/>
       <c r="B728" s="20"/>
       <c r="C728" s="13"/>
@@ -20759,7 +20766,7 @@
       <c r="J728" s="11"/>
       <c r="K728" s="20"/>
     </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A729" s="40"/>
       <c r="B729" s="20"/>
       <c r="C729" s="13"/>
@@ -20775,7 +20782,7 @@
       <c r="J729" s="11"/>
       <c r="K729" s="20"/>
     </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A730" s="40"/>
       <c r="B730" s="20"/>
       <c r="C730" s="13"/>
@@ -20791,7 +20798,7 @@
       <c r="J730" s="11"/>
       <c r="K730" s="20"/>
     </row>
-    <row r="731" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A731" s="40"/>
       <c r="B731" s="20"/>
       <c r="C731" s="13"/>
@@ -20807,7 +20814,7 @@
       <c r="J731" s="11"/>
       <c r="K731" s="20"/>
     </row>
-    <row r="732" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A732" s="40"/>
       <c r="B732" s="20"/>
       <c r="C732" s="13"/>
@@ -20823,7 +20830,7 @@
       <c r="J732" s="11"/>
       <c r="K732" s="20"/>
     </row>
-    <row r="733" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A733" s="40"/>
       <c r="B733" s="20"/>
       <c r="C733" s="13"/>
@@ -20839,7 +20846,7 @@
       <c r="J733" s="11"/>
       <c r="K733" s="20"/>
     </row>
-    <row r="734" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A734" s="40"/>
       <c r="B734" s="20"/>
       <c r="C734" s="13"/>
@@ -20855,7 +20862,7 @@
       <c r="J734" s="11"/>
       <c r="K734" s="20"/>
     </row>
-    <row r="735" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A735" s="40"/>
       <c r="B735" s="20"/>
       <c r="C735" s="13"/>
@@ -20871,7 +20878,7 @@
       <c r="J735" s="11"/>
       <c r="K735" s="20"/>
     </row>
-    <row r="736" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A736" s="40"/>
       <c r="B736" s="20"/>
       <c r="C736" s="13"/>
@@ -20887,7 +20894,7 @@
       <c r="J736" s="11"/>
       <c r="K736" s="20"/>
     </row>
-    <row r="737" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A737" s="40"/>
       <c r="B737" s="20"/>
       <c r="C737" s="13"/>
@@ -20903,7 +20910,7 @@
       <c r="J737" s="11"/>
       <c r="K737" s="20"/>
     </row>
-    <row r="738" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A738" s="50"/>
       <c r="B738" s="15"/>
       <c r="C738" s="41"/>
@@ -20934,10 +20941,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -20960,7 +20967,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -20968,21 +20975,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -20995,7 +21002,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -21024,7 +21031,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>34.792000000000002</v>
       </c>
@@ -21054,17 +21061,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -21085,7 +21092,7 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -21112,7 +21119,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -21138,7 +21145,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -21164,7 +21171,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -21190,7 +21197,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -21216,7 +21223,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -21242,7 +21249,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -21268,7 +21275,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -21294,7 +21301,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -21314,7 +21321,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -21334,7 +21341,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -21354,7 +21361,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -21375,7 +21382,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -21396,7 +21403,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -21417,7 +21424,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -21438,7 +21445,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -21459,7 +21466,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -21480,7 +21487,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -21501,7 +21508,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -21522,7 +21529,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -21543,7 +21550,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -21564,7 +21571,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -21585,7 +21592,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -21606,7 +21613,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -21627,7 +21634,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -21648,7 +21655,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -21669,7 +21676,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -21690,7 +21697,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -21711,7 +21718,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -21732,7 +21739,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -21753,7 +21760,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -21774,7 +21781,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -21783,7 +21790,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -21792,7 +21799,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -21801,7 +21808,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -21810,7 +21817,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -21819,7 +21826,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -21828,7 +21835,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -21837,7 +21844,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -21846,7 +21853,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -21855,7 +21862,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -21864,7 +21871,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -21873,7 +21880,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -21882,7 +21889,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -21891,7 +21898,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -21900,7 +21907,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -21909,7 +21916,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -21918,7 +21925,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -21927,7 +21934,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -21936,7 +21943,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -21945,7 +21952,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -21954,7 +21961,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -21963,7 +21970,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -21972,7 +21979,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -21981,7 +21988,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -21990,7 +21997,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -21999,7 +22006,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -22008,7 +22015,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -22017,7 +22024,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -22026,7 +22033,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -22035,7 +22042,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/MENDOZA, NORA A..xlsx
+++ b/REGULAR/MENDOZA, NORA A..xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F944F4-2059-4A69-8399-8ABCF779B467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="456">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1365,9 +1366,6 @@
     <t>PARENTAL O. 9/28,29</t>
   </si>
   <si>
-    <t>FL(3-0-0)</t>
-  </si>
-  <si>
     <t>2/9,11</t>
   </si>
   <si>
@@ -1405,15 +1403,12 @@
   </si>
   <si>
     <t>ADMIN AIDE III</t>
-  </si>
-  <si>
-    <t>FL(5-0-0)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2276,7 +2271,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2319,7 +2314,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2383,7 +2378,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2443,7 +2438,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2509,7 +2504,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2572,7 +2567,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2670,7 +2665,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2729,7 +2724,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2794,7 +2789,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2837,7 +2832,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2912,7 +2907,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3098,7 +3093,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3164,7 +3159,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3222,7 +3217,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3288,7 +3283,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3344,7 +3339,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3419,7 +3414,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3462,7 +3457,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3528,7 +3523,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3584,7 +3579,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3682,7 +3677,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3745,7 +3740,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3811,26 +3806,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K738" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K738"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K738" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K738" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3842,13 +3837,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3857,14 +3852,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4168,7 +4163,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -4178,7 +4173,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4186,34 +4181,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K738"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A694" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A688" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9:K9"/>
-      <selection pane="bottomLeft" activeCell="B701" sqref="B701"/>
+      <selection pane="bottomLeft" activeCell="H697" sqref="H697"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="31" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -4234,12 +4229,12 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="52" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C3" s="52"/>
       <c r="D3" s="22" t="s">
@@ -4254,19 +4249,19 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="52" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C4" s="52"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="57" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G4" s="57"/>
       <c r="H4" s="26" t="s">
@@ -4276,7 +4271,7 @@
       <c r="J4" s="57"/>
       <c r="K4" s="58"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4284,7 +4279,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4297,7 +4292,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -4314,7 +4309,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4349,7 +4344,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4358,7 +4353,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>-5.343999999999852</v>
+        <v>2.656000000000148</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4368,12 +4363,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>64.792000000000002</v>
+        <v>63.792000000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
@@ -4395,7 +4390,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>35065</v>
       </c>
@@ -4415,7 +4410,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>35096</v>
       </c>
@@ -4435,7 +4430,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>35125</v>
       </c>
@@ -4455,7 +4450,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>35156</v>
       </c>
@@ -4475,7 +4470,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>35186</v>
       </c>
@@ -4499,7 +4494,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>35217</v>
       </c>
@@ -4523,7 +4518,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>35247</v>
       </c>
@@ -4547,7 +4542,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>35278</v>
       </c>
@@ -4571,7 +4566,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>35309</v>
       </c>
@@ -4591,7 +4586,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>35339</v>
       </c>
@@ -4611,7 +4606,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>35370</v>
       </c>
@@ -4631,7 +4626,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>35400</v>
       </c>
@@ -4651,7 +4646,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="47" t="s">
         <v>44</v>
       </c>
@@ -4673,7 +4668,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>35431</v>
       </c>
@@ -4693,7 +4688,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>35462</v>
       </c>
@@ -4713,7 +4708,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>35490</v>
       </c>
@@ -4733,7 +4728,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>35521</v>
       </c>
@@ -4753,7 +4748,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>35551</v>
       </c>
@@ -4773,7 +4768,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>35582</v>
       </c>
@@ -4799,7 +4794,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>35612</v>
       </c>
@@ -4823,7 +4818,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>35643</v>
       </c>
@@ -4847,7 +4842,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>35674</v>
       </c>
@@ -4867,7 +4862,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>35704</v>
       </c>
@@ -4889,7 +4884,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>35735</v>
       </c>
@@ -4913,7 +4908,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>35765</v>
       </c>
@@ -4939,7 +4934,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="47" t="s">
         <v>45</v>
       </c>
@@ -4961,7 +4956,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>35796</v>
       </c>
@@ -4987,7 +4982,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>35827</v>
       </c>
@@ -5013,7 +5008,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>35855</v>
       </c>
@@ -5037,7 +5032,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>35886</v>
       </c>
@@ -5059,7 +5054,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>35916</v>
       </c>
@@ -5083,7 +5078,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>35947</v>
       </c>
@@ -5107,7 +5102,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>35977</v>
       </c>
@@ -5133,7 +5128,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>59</v>
@@ -5155,7 +5150,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>36008</v>
       </c>
@@ -5179,7 +5174,7 @@
         <v>45152</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>53</v>
@@ -5201,7 +5196,7 @@
         <v>45157</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>61</v>
@@ -5221,7 +5216,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>36039</v>
       </c>
@@ -5245,7 +5240,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>36069</v>
       </c>
@@ -5271,7 +5266,7 @@
         <v>45208</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>52</v>
@@ -5293,7 +5288,7 @@
         <v>45218</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>63</v>
@@ -5313,7 +5308,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>36100</v>
       </c>
@@ -5339,7 +5334,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>65</v>
@@ -5361,7 +5356,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>66</v>
@@ -5383,7 +5378,7 @@
         <v>45261</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>36130</v>
       </c>
@@ -5409,7 +5404,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
         <v>67</v>
@@ -5431,7 +5426,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="47" t="s">
         <v>46</v>
       </c>
@@ -5453,7 +5448,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>36161</v>
       </c>
@@ -5477,7 +5472,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>36192</v>
       </c>
@@ -5503,7 +5498,7 @@
         <v>44960</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>73</v>
@@ -5523,7 +5518,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>36220</v>
       </c>
@@ -5545,7 +5540,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>36251</v>
       </c>
@@ -5571,7 +5566,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>53</v>
@@ -5593,7 +5588,7 @@
         <v>45039</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20" t="s">
         <v>74</v>
@@ -5615,7 +5610,7 @@
         <v>45042</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>36281</v>
       </c>
@@ -5641,7 +5636,7 @@
         <v>45052</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>53</v>
@@ -5663,7 +5658,7 @@
         <v>45060</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>75</v>
@@ -5683,7 +5678,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>36312</v>
       </c>
@@ -5709,7 +5704,7 @@
         <v>45081</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>76</v>
@@ -5731,7 +5726,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>36342</v>
       </c>
@@ -5757,7 +5752,7 @@
         <v>45115</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>80</v>
@@ -5779,7 +5774,7 @@
         <v>45121</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>36373</v>
       </c>
@@ -5805,7 +5800,7 @@
         <v>45141</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>53</v>
@@ -5827,7 +5822,7 @@
         <v>45147</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>53</v>
@@ -5849,7 +5844,7 @@
         <v>45163</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>81</v>
@@ -5869,7 +5864,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>36404</v>
       </c>
@@ -5895,7 +5890,7 @@
         <v>45171</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>53</v>
@@ -5917,7 +5912,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>82</v>
@@ -5937,7 +5932,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>36434</v>
       </c>
@@ -5963,7 +5958,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>86</v>
@@ -5985,7 +5980,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>53</v>
@@ -6007,7 +6002,7 @@
         <v>45220</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>36465</v>
       </c>
@@ -6033,7 +6028,7 @@
         <v>45232</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>87</v>
@@ -6053,7 +6048,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>36495</v>
       </c>
@@ -6079,7 +6074,7 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>86</v>
@@ -6101,7 +6096,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>53</v>
@@ -6123,7 +6118,7 @@
         <v>45283</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>85</v>
@@ -6145,7 +6140,7 @@
         <v>45287</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>53</v>
@@ -6167,7 +6162,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>93</v>
@@ -6189,7 +6184,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="47" t="s">
         <v>49</v>
       </c>
@@ -6211,7 +6206,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>36526</v>
       </c>
@@ -6237,7 +6232,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
         <v>52</v>
@@ -6259,7 +6254,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>95</v>
@@ -6281,7 +6276,7 @@
         <v>44954</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <v>36557</v>
       </c>
@@ -6307,7 +6302,7 @@
         <v>44968</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>96</v>
@@ -6329,7 +6324,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20" t="s">
         <v>97</v>
@@ -6349,7 +6344,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <v>36586</v>
       </c>
@@ -6375,7 +6370,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>52</v>
@@ -6397,7 +6392,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>98</v>
@@ -6417,7 +6412,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <v>36617</v>
       </c>
@@ -6443,7 +6438,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <v>36647</v>
       </c>
@@ -6469,7 +6464,7 @@
         <v>45055</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
         <v>53</v>
@@ -6491,7 +6486,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>106</v>
@@ -6511,7 +6506,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="48"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <v>36678</v>
       </c>
@@ -6535,7 +6530,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <v>36708</v>
       </c>
@@ -6559,7 +6554,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <v>36739</v>
       </c>
@@ -6583,7 +6578,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <v>36770</v>
       </c>
@@ -6609,7 +6604,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20" t="s">
         <v>85</v>
@@ -6631,7 +6626,7 @@
         <v>45189</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>95</v>
@@ -6651,7 +6646,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <v>36800</v>
       </c>
@@ -6677,7 +6672,7 @@
         <v>45203</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
         <v>110</v>
@@ -6697,7 +6692,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <v>36831</v>
       </c>
@@ -6723,7 +6718,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>53</v>
@@ -6743,7 +6738,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20" t="s">
         <v>111</v>
@@ -6763,7 +6758,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <v>36861</v>
       </c>
@@ -6789,7 +6784,7 @@
         <v>45279</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20" t="s">
         <v>86</v>
@@ -6811,7 +6806,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20" t="s">
         <v>57</v>
@@ -6833,7 +6828,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
         <v>112</v>
@@ -6855,7 +6850,7 @@
         <v>45274</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="47" t="s">
         <v>48</v>
       </c>
@@ -6877,7 +6872,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <v>36892</v>
       </c>
@@ -6903,7 +6898,7 @@
         <v>44935</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
         <v>117</v>
@@ -6923,7 +6918,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <v>36923</v>
       </c>
@@ -6949,7 +6944,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
         <v>118</v>
@@ -6969,7 +6964,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <v>36951</v>
       </c>
@@ -6995,7 +6990,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20" t="s">
         <v>57</v>
@@ -7017,7 +7012,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20" t="s">
         <v>126</v>
@@ -7039,7 +7034,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <v>36982</v>
       </c>
@@ -7067,7 +7062,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>120</v>
@@ -7089,7 +7084,7 @@
         <v>45032</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20" t="s">
         <v>53</v>
@@ -7111,7 +7106,7 @@
         <v>45046</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20" t="s">
         <v>121</v>
@@ -7131,7 +7126,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <v>37012</v>
       </c>
@@ -7159,7 +7154,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20" t="s">
         <v>120</v>
@@ -7181,7 +7176,7 @@
         <v>45070</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
         <v>123</v>
@@ -7201,7 +7196,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <v>37043</v>
       </c>
@@ -7227,7 +7222,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20" t="s">
         <v>119</v>
@@ -7251,7 +7246,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" s="20" t="s">
         <v>124</v>
@@ -7273,7 +7268,7 @@
         <v>45111</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
         <v>37073</v>
       </c>
@@ -7299,7 +7294,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
         <v>125</v>
@@ -7321,7 +7316,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40"/>
       <c r="B139" s="20" t="s">
         <v>122</v>
@@ -7341,7 +7336,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40"/>
       <c r="B140" s="20" t="s">
         <v>127</v>
@@ -7361,7 +7356,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
         <v>37104</v>
       </c>
@@ -7387,7 +7382,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40"/>
       <c r="B142" s="20" t="s">
         <v>53</v>
@@ -7407,7 +7402,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
         <v>128</v>
@@ -7429,7 +7424,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40"/>
       <c r="B144" s="20" t="s">
         <v>129</v>
@@ -7449,7 +7444,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
         <v>37135</v>
       </c>
@@ -7475,7 +7470,7 @@
         <v>45173</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>120</v>
@@ -7499,7 +7494,7 @@
         <v>45189</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40"/>
       <c r="B147" s="20" t="s">
         <v>87</v>
@@ -7519,7 +7514,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
         <v>37165</v>
       </c>
@@ -7547,7 +7542,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>86</v>
@@ -7569,7 +7564,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40"/>
       <c r="B150" s="20" t="s">
         <v>130</v>
@@ -7589,7 +7584,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <v>37196</v>
       </c>
@@ -7615,7 +7610,7 @@
         <v>45236</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>120</v>
@@ -7639,7 +7634,7 @@
         <v>45244</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>52</v>
@@ -7661,7 +7656,7 @@
         <v>45257</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40"/>
       <c r="B154" s="20" t="s">
         <v>131</v>
@@ -7681,7 +7676,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40">
         <v>37226</v>
       </c>
@@ -7707,7 +7702,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
         <v>132</v>
@@ -7731,7 +7726,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40"/>
       <c r="B157" s="20" t="s">
         <v>119</v>
@@ -7753,7 +7748,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40"/>
       <c r="B158" s="20" t="s">
         <v>148</v>
@@ -7773,7 +7768,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="47" t="s">
         <v>47</v>
       </c>
@@ -7795,7 +7790,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40">
         <v>37257</v>
       </c>
@@ -7821,7 +7816,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40"/>
       <c r="B161" s="20" t="s">
         <v>120</v>
@@ -7845,7 +7840,7 @@
         <v>44950</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>149</v>
@@ -7867,7 +7862,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
         <v>37288</v>
       </c>
@@ -7893,7 +7888,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>119</v>
@@ -7915,7 +7910,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40"/>
       <c r="B165" s="20" t="s">
         <v>130</v>
@@ -7935,7 +7930,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40">
         <v>37316</v>
       </c>
@@ -7959,7 +7954,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40">
         <v>37347</v>
       </c>
@@ -7985,7 +7980,7 @@
         <v>45030</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>151</v>
@@ -8005,7 +8000,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40">
         <v>37377</v>
       </c>
@@ -8031,7 +8026,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40"/>
       <c r="B170" s="20" t="s">
         <v>120</v>
@@ -8055,7 +8050,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40"/>
       <c r="B171" s="20" t="s">
         <v>119</v>
@@ -8077,7 +8072,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>152</v>
@@ -8097,7 +8092,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40">
         <v>37408</v>
       </c>
@@ -8123,7 +8118,7 @@
         <v>45095</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>153</v>
@@ -8143,7 +8138,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40">
         <v>37438</v>
       </c>
@@ -8169,7 +8164,7 @@
         <v>45119</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40"/>
       <c r="B176" s="20" t="s">
         <v>53</v>
@@ -8191,7 +8186,7 @@
         <v>45138</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>159</v>
@@ -8211,7 +8206,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="48"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40">
         <v>37469</v>
       </c>
@@ -8237,7 +8232,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40"/>
       <c r="B179" s="20" t="s">
         <v>107</v>
@@ -8257,7 +8252,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
         <v>37500</v>
       </c>
@@ -8283,7 +8278,7 @@
         <v>45179</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
         <v>53</v>
@@ -8305,7 +8300,7 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>120</v>
@@ -8323,7 +8318,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40"/>
       <c r="B183" s="20" t="s">
         <v>165</v>
@@ -8343,7 +8338,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40">
         <v>37530</v>
       </c>
@@ -8371,7 +8366,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>165</v>
@@ -8393,7 +8388,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
         <v>37561</v>
       </c>
@@ -8413,7 +8408,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40">
         <v>37591</v>
       </c>
@@ -8439,7 +8434,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>166</v>
@@ -8461,7 +8456,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="47" t="s">
         <v>164</v>
       </c>
@@ -8483,7 +8478,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40">
         <v>37622</v>
       </c>
@@ -8509,7 +8504,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40">
         <v>37653</v>
       </c>
@@ -8535,7 +8530,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>52</v>
@@ -8557,7 +8552,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40"/>
       <c r="B193" s="20" t="s">
         <v>53</v>
@@ -8579,7 +8574,7 @@
         <v>44975</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40"/>
       <c r="B194" s="20" t="s">
         <v>153</v>
@@ -8601,7 +8596,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
         <v>37681</v>
       </c>
@@ -8625,7 +8620,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40">
         <v>37712</v>
       </c>
@@ -8645,7 +8640,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40">
         <v>37742</v>
       </c>
@@ -8671,7 +8666,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>53</v>
@@ -8693,7 +8688,7 @@
         <v>45073</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>173</v>
@@ -8713,7 +8708,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40">
         <v>37773</v>
       </c>
@@ -8739,7 +8734,7 @@
         <v>45093</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40">
         <v>37803</v>
       </c>
@@ -8763,7 +8758,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>174</v>
@@ -8785,7 +8780,7 @@
         <v>45129</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40">
         <v>37834</v>
       </c>
@@ -8809,7 +8804,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>53</v>
@@ -8831,7 +8826,7 @@
         <v>45144</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
         <v>175</v>
@@ -8853,7 +8848,7 @@
         <v>45154</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40">
         <v>37865</v>
       </c>
@@ -8877,7 +8872,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40"/>
       <c r="B207" s="20" t="s">
         <v>86</v>
@@ -8899,7 +8894,7 @@
         <v>45181</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>119</v>
@@ -8923,7 +8918,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
         <v>176</v>
@@ -8945,7 +8940,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40">
         <v>37895</v>
       </c>
@@ -8969,7 +8964,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40">
         <v>37926</v>
       </c>
@@ -8997,7 +8992,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>178</v>
@@ -9017,7 +9012,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40">
         <v>37956</v>
       </c>
@@ -9043,7 +9038,7 @@
         <v>45264</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40"/>
       <c r="B214" s="20" t="s">
         <v>119</v>
@@ -9067,7 +9062,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40"/>
       <c r="B215" s="20" t="s">
         <v>120</v>
@@ -9089,7 +9084,7 @@
         <v>45276</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>120</v>
@@ -9111,7 +9106,7 @@
         <v>45283</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>120</v>
@@ -9133,7 +9128,7 @@
         <v>44934</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
         <v>184</v>
@@ -9153,7 +9148,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="47" t="s">
         <v>163</v>
       </c>
@@ -9175,7 +9170,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
         <v>37987</v>
       </c>
@@ -9201,7 +9196,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40">
         <v>38018</v>
       </c>
@@ -9227,7 +9222,7 @@
         <v>44940</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>120</v>
@@ -9251,7 +9246,7 @@
         <v>44961</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>120</v>
@@ -9275,7 +9270,7 @@
         <v>44968</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
         <v>119</v>
@@ -9297,7 +9292,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>186</v>
@@ -9317,7 +9312,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40">
         <v>38047</v>
       </c>
@@ -9341,7 +9336,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40">
         <v>38078</v>
       </c>
@@ -9367,7 +9362,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40"/>
       <c r="B228" s="20" t="s">
         <v>188</v>
@@ -9387,7 +9382,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40">
         <v>38108</v>
       </c>
@@ -9415,7 +9410,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40">
         <v>38139</v>
       </c>
@@ -9439,7 +9434,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40">
         <v>38169</v>
       </c>
@@ -9465,7 +9460,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>192</v>
@@ -9487,7 +9482,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40">
         <v>38200</v>
       </c>
@@ -9513,7 +9508,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>199</v>
@@ -9533,7 +9528,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40">
         <v>38231</v>
       </c>
@@ -9559,7 +9554,7 @@
         <v>45164</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40"/>
       <c r="B236" s="20" t="s">
         <v>53</v>
@@ -9581,7 +9576,7 @@
         <v>45177</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>200</v>
@@ -9603,7 +9598,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40">
         <v>38261</v>
       </c>
@@ -9629,7 +9624,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>53</v>
@@ -9649,7 +9644,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40"/>
       <c r="B240" s="20" t="s">
         <v>122</v>
@@ -9671,7 +9666,7 @@
         <v>45210</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>120</v>
@@ -9691,7 +9686,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>120</v>
@@ -9713,7 +9708,7 @@
         <v>45218</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40"/>
       <c r="B243" s="20" t="s">
         <v>201</v>
@@ -9735,7 +9730,7 @@
         <v>45226</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40">
         <v>38292</v>
       </c>
@@ -9763,7 +9758,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40"/>
       <c r="B245" s="20" t="s">
         <v>119</v>
@@ -9785,7 +9780,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>53</v>
@@ -9807,7 +9802,7 @@
         <v>45241</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>53</v>
@@ -9829,7 +9824,7 @@
         <v>45248</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>202</v>
@@ -9849,7 +9844,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40">
         <v>38322</v>
       </c>
@@ -9875,7 +9870,7 @@
         <v>45261</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
         <v>53</v>
@@ -9897,7 +9892,7 @@
         <v>45278</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>206</v>
@@ -9917,7 +9912,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="48"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="47" t="s">
         <v>162</v>
       </c>
@@ -9939,7 +9934,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40">
         <v>38353</v>
       </c>
@@ -9963,7 +9958,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40"/>
       <c r="B254" s="20" t="s">
         <v>208</v>
@@ -9985,7 +9980,7 @@
         <v>44980</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40">
         <v>38384</v>
       </c>
@@ -10009,7 +10004,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40"/>
       <c r="B256" s="20" t="s">
         <v>209</v>
@@ -10031,7 +10026,7 @@
         <v>44987</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40">
         <v>38412</v>
       </c>
@@ -10057,7 +10052,7 @@
         <v>45007</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>120</v>
@@ -10081,7 +10076,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>120</v>
@@ -10101,7 +10096,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40"/>
       <c r="B260" s="20" t="s">
         <v>210</v>
@@ -10121,7 +10116,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40">
         <v>38443</v>
       </c>
@@ -10147,7 +10142,7 @@
         <v>45029</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>53</v>
@@ -10169,7 +10164,7 @@
         <v>45036</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>211</v>
@@ -10191,7 +10186,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40">
         <v>38473</v>
       </c>
@@ -10217,7 +10212,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
         <v>212</v>
@@ -10237,7 +10232,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40">
         <v>38504</v>
       </c>
@@ -10263,7 +10258,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>213</v>
@@ -10283,7 +10278,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40">
         <v>38534</v>
       </c>
@@ -10309,7 +10304,7 @@
         <v>45121</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>120</v>
@@ -10333,7 +10328,7 @@
         <v>45127</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>188</v>
@@ -10355,7 +10350,7 @@
         <v>45129</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40">
         <v>38565</v>
       </c>
@@ -10383,7 +10378,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40"/>
       <c r="B272" s="20" t="s">
         <v>53</v>
@@ -10405,7 +10400,7 @@
         <v>45148</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>216</v>
@@ -10425,7 +10420,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40">
         <v>38596</v>
       </c>
@@ -10449,7 +10444,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40">
         <v>38626</v>
       </c>
@@ -10477,7 +10472,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>120</v>
@@ -10499,7 +10494,7 @@
         <v>45213</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
         <v>120</v>
@@ -10521,7 +10516,7 @@
         <v>45217</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40"/>
       <c r="B278" s="20" t="s">
         <v>218</v>
@@ -10543,7 +10538,7 @@
         <v>45219</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40">
         <v>38657</v>
       </c>
@@ -10569,7 +10564,7 @@
         <v>45245</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>219</v>
@@ -10591,7 +10586,7 @@
         <v>45254</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40">
         <v>38687</v>
       </c>
@@ -10617,7 +10612,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40"/>
       <c r="B282" s="20" t="s">
         <v>220</v>
@@ -10637,7 +10632,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="47" t="s">
         <v>161</v>
       </c>
@@ -10659,7 +10654,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40">
         <v>38718</v>
       </c>
@@ -10691,7 +10686,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>223</v>
@@ -10711,7 +10706,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40">
         <v>38749</v>
       </c>
@@ -10735,7 +10730,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>227</v>
@@ -10755,7 +10750,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40">
         <v>38777</v>
       </c>
@@ -10781,7 +10776,7 @@
         <v>45001</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>120</v>
@@ -10805,7 +10800,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>228</v>
@@ -10825,7 +10820,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40">
         <v>38808</v>
       </c>
@@ -10851,7 +10846,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40"/>
       <c r="B292" s="20" t="s">
         <v>53</v>
@@ -10873,7 +10868,7 @@
         <v>45083</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>229</v>
@@ -10893,7 +10888,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40">
         <v>38838</v>
       </c>
@@ -10917,7 +10912,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40">
         <v>38869</v>
       </c>
@@ -10943,7 +10938,7 @@
         <v>45086</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40"/>
       <c r="B296" s="20" t="s">
         <v>120</v>
@@ -10967,7 +10962,7 @@
         <v>45100</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>200</v>
@@ -10987,7 +10982,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40">
         <v>38899</v>
       </c>
@@ -11013,7 +11008,7 @@
         <v>45127</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40"/>
       <c r="B299" s="20" t="s">
         <v>231</v>
@@ -11033,7 +11028,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40">
         <v>38930</v>
       </c>
@@ -11059,7 +11054,7 @@
         <v>45153</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>120</v>
@@ -11083,7 +11078,7 @@
         <v>45169</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40"/>
       <c r="B302" s="20" t="s">
         <v>232</v>
@@ -11103,7 +11098,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40">
         <v>38961</v>
       </c>
@@ -11129,7 +11124,7 @@
         <v>45198</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>233</v>
@@ -11149,7 +11144,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40">
         <v>38991</v>
       </c>
@@ -11175,7 +11170,7 @@
         <v>45208</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>235</v>
@@ -11197,7 +11192,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40">
         <v>39022</v>
       </c>
@@ -11221,7 +11216,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40">
         <v>39052</v>
       </c>
@@ -11245,7 +11240,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="47" t="s">
         <v>160</v>
       </c>
@@ -11267,7 +11262,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40">
         <v>39083</v>
       </c>
@@ -11293,7 +11288,7 @@
         <v>44948</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40">
         <v>39114</v>
       </c>
@@ -11317,7 +11312,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40">
         <v>39142</v>
       </c>
@@ -11343,7 +11338,7 @@
         <v>44991</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>224</v>
@@ -11363,7 +11358,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>240</v>
@@ -11383,7 +11378,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40">
         <v>39173</v>
       </c>
@@ -11407,7 +11402,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40">
         <v>39203</v>
       </c>
@@ -11433,7 +11428,7 @@
         <v>45064</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
         <v>207</v>
@@ -11453,7 +11448,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40"/>
       <c r="B318" s="20" t="s">
         <v>53</v>
@@ -11475,7 +11470,7 @@
         <v>45071</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>242</v>
@@ -11495,7 +11490,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40">
         <v>39234</v>
       </c>
@@ -11519,7 +11514,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40">
         <v>39264</v>
       </c>
@@ -11543,7 +11538,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40">
         <v>39295</v>
       </c>
@@ -11569,7 +11564,7 @@
         <v>45146</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
         <v>245</v>
@@ -11589,7 +11584,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40">
         <v>39326</v>
       </c>
@@ -11615,7 +11610,7 @@
         <v>45179</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40"/>
       <c r="B325" s="20" t="s">
         <v>252</v>
@@ -11635,7 +11630,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="48"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40">
         <v>39356</v>
       </c>
@@ -11661,7 +11656,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>57</v>
@@ -11683,7 +11678,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>253</v>
@@ -11703,7 +11698,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40">
         <v>39387</v>
       </c>
@@ -11727,7 +11722,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40">
         <v>39417</v>
       </c>
@@ -11751,7 +11746,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="47" t="s">
         <v>248</v>
       </c>
@@ -11773,7 +11768,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40">
         <v>39448</v>
       </c>
@@ -11797,7 +11792,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40">
         <v>39479</v>
       </c>
@@ -11819,7 +11814,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40"/>
       <c r="B334" s="20" t="s">
         <v>257</v>
@@ -11839,7 +11834,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40">
         <v>39508</v>
       </c>
@@ -11867,7 +11862,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>53</v>
@@ -11887,7 +11882,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40"/>
       <c r="B337" s="20" t="s">
         <v>259</v>
@@ -11907,7 +11902,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40">
         <v>39539</v>
       </c>
@@ -11931,7 +11926,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40">
         <v>39569</v>
       </c>
@@ -11955,7 +11950,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40"/>
       <c r="B340" s="20" t="s">
         <v>261</v>
@@ -11975,7 +11970,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40">
         <v>39600</v>
       </c>
@@ -11999,7 +11994,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40">
         <v>39630</v>
       </c>
@@ -12023,7 +12018,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
         <v>263</v>
@@ -12043,7 +12038,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40">
         <v>39661</v>
       </c>
@@ -12067,7 +12062,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40">
         <v>39692</v>
       </c>
@@ -12093,7 +12088,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40">
         <v>39722</v>
       </c>
@@ -12119,7 +12114,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40">
         <v>39753</v>
       </c>
@@ -12145,7 +12140,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40">
         <v>39783</v>
       </c>
@@ -12171,7 +12166,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="47" t="s">
         <v>249</v>
       </c>
@@ -12193,7 +12188,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40">
         <v>39814</v>
       </c>
@@ -12217,7 +12212,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40">
         <v>39845</v>
       </c>
@@ -12241,7 +12236,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40">
         <v>39873</v>
       </c>
@@ -12265,7 +12260,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40">
         <v>39904</v>
       </c>
@@ -12289,7 +12284,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40">
         <v>39934</v>
       </c>
@@ -12315,7 +12310,7 @@
         <v>45052</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40"/>
       <c r="B355" s="20" t="s">
         <v>273</v>
@@ -12335,7 +12330,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40">
         <v>39965</v>
       </c>
@@ -12361,7 +12356,7 @@
         <v>45095</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40"/>
       <c r="B357" s="20" t="s">
         <v>274</v>
@@ -12381,7 +12376,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40">
         <v>39995</v>
       </c>
@@ -12405,7 +12400,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40">
         <v>40026</v>
       </c>
@@ -12429,7 +12424,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40">
         <v>40057</v>
       </c>
@@ -12455,7 +12450,7 @@
         <v>45198</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>131</v>
@@ -12477,7 +12472,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40">
         <v>40087</v>
       </c>
@@ -12503,7 +12498,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40">
         <v>40118</v>
       </c>
@@ -12527,7 +12522,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40">
         <v>40148</v>
       </c>
@@ -12551,7 +12546,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="47" t="s">
         <v>250</v>
       </c>
@@ -12573,7 +12568,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40">
         <v>40179</v>
       </c>
@@ -12597,7 +12592,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40">
         <v>40210</v>
       </c>
@@ -12621,7 +12616,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40">
         <v>40238</v>
       </c>
@@ -12645,7 +12640,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>53</v>
@@ -12667,7 +12662,7 @@
         <v>45004</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40"/>
       <c r="B370" s="20" t="s">
         <v>283</v>
@@ -12687,7 +12682,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40">
         <v>40269</v>
       </c>
@@ -12713,7 +12708,7 @@
         <v>45030</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40"/>
       <c r="B372" s="20" t="s">
         <v>284</v>
@@ -12733,7 +12728,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40">
         <v>40299</v>
       </c>
@@ -12757,7 +12752,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40"/>
       <c r="B374" s="20" t="s">
         <v>285</v>
@@ -12777,7 +12772,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40">
         <v>40330</v>
       </c>
@@ -12801,7 +12796,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40">
         <v>40360</v>
       </c>
@@ -12827,7 +12822,7 @@
         <v>45116</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40"/>
       <c r="B377" s="20" t="s">
         <v>53</v>
@@ -12849,7 +12844,7 @@
         <v>45121</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
         <v>53</v>
@@ -12869,7 +12864,7 @@
         <v>45129</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40"/>
       <c r="B379" s="20" t="s">
         <v>287</v>
@@ -12889,7 +12884,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40">
         <v>40391</v>
       </c>
@@ -12915,7 +12910,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40"/>
       <c r="B381" s="20" t="s">
         <v>57</v>
@@ -12937,7 +12932,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40"/>
       <c r="B382" s="20" t="s">
         <v>288</v>
@@ -12957,7 +12952,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40">
         <v>40422</v>
       </c>
@@ -12983,7 +12978,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40"/>
       <c r="B384" s="20" t="s">
         <v>57</v>
@@ -13005,7 +13000,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40"/>
       <c r="B385" s="20" t="s">
         <v>294</v>
@@ -13025,7 +13020,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40">
         <v>40452</v>
       </c>
@@ -13051,7 +13046,7 @@
         <v>45206</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
         <v>295</v>
@@ -13071,7 +13066,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40">
         <v>40483</v>
       </c>
@@ -13097,7 +13092,7 @@
         <v>45232</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40"/>
       <c r="B389" s="20" t="s">
         <v>53</v>
@@ -13119,7 +13114,7 @@
         <v>45219</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40"/>
       <c r="B390" s="20" t="s">
         <v>296</v>
@@ -13139,7 +13134,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40">
         <v>40513</v>
       </c>
@@ -13165,7 +13160,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40"/>
       <c r="B392" s="20" t="s">
         <v>96</v>
@@ -13185,7 +13180,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="47" t="s">
         <v>251</v>
       </c>
@@ -13207,7 +13202,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40">
         <v>40544</v>
       </c>
@@ -13231,7 +13226,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40"/>
       <c r="B395" s="20" t="s">
         <v>303</v>
@@ -13251,7 +13246,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40">
         <v>40575</v>
       </c>
@@ -13275,7 +13270,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40">
         <v>40603</v>
       </c>
@@ -13301,7 +13296,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40"/>
       <c r="B398" s="20" t="s">
         <v>57</v>
@@ -13323,7 +13318,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40"/>
       <c r="B399" s="20" t="s">
         <v>305</v>
@@ -13343,7 +13338,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40">
         <v>40634</v>
       </c>
@@ -13369,7 +13364,7 @@
         <v>45027</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40"/>
       <c r="B401" s="20" t="s">
         <v>306</v>
@@ -13389,7 +13384,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40">
         <v>40664</v>
       </c>
@@ -13415,7 +13410,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40"/>
       <c r="B403" s="20" t="s">
         <v>307</v>
@@ -13435,7 +13430,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40">
         <v>40695</v>
       </c>
@@ -13459,7 +13454,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40">
         <v>40725</v>
       </c>
@@ -13483,7 +13478,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40">
         <v>40756</v>
       </c>
@@ -13509,7 +13504,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40"/>
       <c r="B407" s="20" t="s">
         <v>311</v>
@@ -13529,7 +13524,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40">
         <v>40787</v>
       </c>
@@ -13555,7 +13550,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40"/>
       <c r="B409" s="20" t="s">
         <v>57</v>
@@ -13577,7 +13572,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40"/>
       <c r="B410" s="20" t="s">
         <v>313</v>
@@ -13597,7 +13592,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40">
         <v>40817</v>
       </c>
@@ -13623,7 +13618,7 @@
         <v>45226</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="40">
         <v>40848</v>
       </c>
@@ -13649,7 +13644,7 @@
         <v>45241</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40"/>
       <c r="B413" s="20" t="s">
         <v>224</v>
@@ -13669,7 +13664,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40"/>
       <c r="B414" s="20" t="s">
         <v>315</v>
@@ -13689,7 +13684,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40">
         <v>40878</v>
       </c>
@@ -13713,7 +13708,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="47" t="s">
         <v>299</v>
       </c>
@@ -13735,7 +13730,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="40">
         <v>40909</v>
       </c>
@@ -13761,7 +13756,7 @@
         <v>44928</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40"/>
       <c r="B418" s="20" t="s">
         <v>320</v>
@@ -13781,7 +13776,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40">
         <v>40940</v>
       </c>
@@ -13811,7 +13806,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40"/>
       <c r="B420" s="20" t="s">
         <v>321</v>
@@ -13831,7 +13826,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40">
         <v>40969</v>
       </c>
@@ -13855,7 +13850,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40">
         <v>41000</v>
       </c>
@@ -13881,7 +13876,7 @@
         <v>45027</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40"/>
       <c r="B423" s="20" t="s">
         <v>57</v>
@@ -13903,7 +13898,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40"/>
       <c r="B424" s="20" t="s">
         <v>325</v>
@@ -13923,7 +13918,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40">
         <v>41030</v>
       </c>
@@ -13947,7 +13942,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40">
         <v>41061</v>
       </c>
@@ -13971,7 +13966,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40">
         <v>41091</v>
       </c>
@@ -13997,7 +13992,7 @@
         <v>45116</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40"/>
       <c r="B428" s="20" t="s">
         <v>53</v>
@@ -14019,7 +14014,7 @@
         <v>45137</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40"/>
       <c r="B429" s="20" t="s">
         <v>328</v>
@@ -14039,7 +14034,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40">
         <v>41122</v>
       </c>
@@ -14065,7 +14060,7 @@
         <v>45169</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40"/>
       <c r="B431" s="20" t="s">
         <v>329</v>
@@ -14085,7 +14080,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40">
         <v>41153</v>
       </c>
@@ -14111,7 +14106,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40"/>
       <c r="B433" s="20" t="s">
         <v>330</v>
@@ -14131,7 +14126,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40">
         <v>41183</v>
       </c>
@@ -14155,7 +14150,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40"/>
       <c r="B435" s="20" t="s">
         <v>96</v>
@@ -14177,7 +14172,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40"/>
       <c r="B436" s="20" t="s">
         <v>331</v>
@@ -14197,7 +14192,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40">
         <v>41214</v>
       </c>
@@ -14221,7 +14216,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40"/>
       <c r="B438" s="20" t="s">
         <v>332</v>
@@ -14241,7 +14236,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40">
         <v>41244</v>
       </c>
@@ -14267,7 +14262,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40"/>
       <c r="B440" s="20" t="s">
         <v>96</v>
@@ -14287,7 +14282,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="47" t="s">
         <v>300</v>
       </c>
@@ -14309,7 +14304,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40">
         <v>41275</v>
       </c>
@@ -14333,7 +14328,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40">
         <v>41306</v>
       </c>
@@ -14357,7 +14352,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40">
         <v>41334</v>
       </c>
@@ -14383,7 +14378,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40"/>
       <c r="B445" s="20" t="s">
         <v>122</v>
@@ -14407,7 +14402,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40"/>
       <c r="B446" s="20" t="s">
         <v>340</v>
@@ -14427,7 +14422,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40">
         <v>41365</v>
       </c>
@@ -14453,7 +14448,7 @@
         <v>45039</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40"/>
       <c r="B448" s="20" t="s">
         <v>341</v>
@@ -14475,7 +14470,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40">
         <v>41395</v>
       </c>
@@ -14503,7 +14498,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40"/>
       <c r="B450" s="20" t="s">
         <v>122</v>
@@ -14527,7 +14522,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40"/>
       <c r="B451" s="20" t="s">
         <v>342</v>
@@ -14549,7 +14544,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40">
         <v>41426</v>
       </c>
@@ -14575,7 +14570,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40">
         <v>41456</v>
       </c>
@@ -14601,7 +14596,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40"/>
       <c r="B454" s="20" t="s">
         <v>344</v>
@@ -14623,7 +14618,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40">
         <v>41487</v>
       </c>
@@ -14649,7 +14644,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="40"/>
       <c r="B456" s="20" t="s">
         <v>345</v>
@@ -14669,7 +14664,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40">
         <v>41518</v>
       </c>
@@ -14695,7 +14690,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40">
         <v>41548</v>
       </c>
@@ -14721,7 +14716,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40">
         <v>41579</v>
       </c>
@@ -14747,7 +14742,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40">
         <v>41609</v>
       </c>
@@ -14773,7 +14768,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40"/>
       <c r="B461" s="20" t="s">
         <v>207</v>
@@ -14793,7 +14788,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40"/>
       <c r="B462" s="20" t="s">
         <v>349</v>
@@ -14815,7 +14810,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="47" t="s">
         <v>301</v>
       </c>
@@ -14837,7 +14832,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40">
         <v>41640</v>
       </c>
@@ -14865,7 +14860,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40"/>
       <c r="B465" s="20" t="s">
         <v>357</v>
@@ -14887,7 +14882,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40">
         <v>41671</v>
       </c>
@@ -14911,7 +14906,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40">
         <v>41699</v>
       </c>
@@ -14937,7 +14932,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40">
         <v>41730</v>
       </c>
@@ -14961,7 +14956,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40">
         <v>41760</v>
       </c>
@@ -14985,7 +14980,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40"/>
       <c r="B470" s="20" t="s">
         <v>57</v>
@@ -15009,7 +15004,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40"/>
       <c r="B471" s="20" t="s">
         <v>361</v>
@@ -15029,7 +15024,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40">
         <v>41791</v>
       </c>
@@ -15055,7 +15050,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40"/>
       <c r="B473" s="20" t="s">
         <v>362</v>
@@ -15075,7 +15070,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40">
         <v>41821</v>
       </c>
@@ -15101,7 +15096,7 @@
         <v>45108</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40"/>
       <c r="B475" s="20" t="s">
         <v>363</v>
@@ -15123,7 +15118,7 @@
         <v>45124</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40">
         <v>41852</v>
       </c>
@@ -15149,7 +15144,7 @@
         <v>45160</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40"/>
       <c r="B477" s="20" t="s">
         <v>364</v>
@@ -15169,7 +15164,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="40">
         <v>41883</v>
       </c>
@@ -15195,7 +15190,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40"/>
       <c r="B479" s="20" t="s">
         <v>312</v>
@@ -15219,7 +15214,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40"/>
       <c r="B480" s="20" t="s">
         <v>365</v>
@@ -15239,7 +15234,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40">
         <v>41913</v>
       </c>
@@ -15267,7 +15262,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40"/>
       <c r="B482" s="20" t="s">
         <v>119</v>
@@ -15291,7 +15286,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40"/>
       <c r="B483" s="20" t="s">
         <v>366</v>
@@ -15313,7 +15308,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40">
         <v>41944</v>
       </c>
@@ -15339,7 +15334,7 @@
         <v>45248</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40"/>
       <c r="B485" s="20" t="s">
         <v>57</v>
@@ -15361,7 +15356,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40"/>
       <c r="B486" s="20" t="s">
         <v>207</v>
@@ -15381,7 +15376,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="40"/>
       <c r="B487" s="20" t="s">
         <v>207</v>
@@ -15401,7 +15396,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40"/>
       <c r="B488" s="20" t="s">
         <v>152</v>
@@ -15421,7 +15416,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40">
         <v>41974</v>
       </c>
@@ -15445,7 +15440,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="47" t="s">
         <v>302</v>
       </c>
@@ -15467,7 +15462,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40">
         <v>42005</v>
       </c>
@@ -15491,7 +15486,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40"/>
       <c r="B492" s="20" t="s">
         <v>53</v>
@@ -15513,7 +15508,7 @@
         <v>44959</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40"/>
       <c r="B493" s="20" t="s">
         <v>383</v>
@@ -15533,7 +15528,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40">
         <v>42036</v>
       </c>
@@ -15557,7 +15552,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40">
         <v>42064</v>
       </c>
@@ -15583,7 +15578,7 @@
         <v>45004</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40"/>
       <c r="B496" s="20" t="s">
         <v>53</v>
@@ -15605,7 +15600,7 @@
         <v>45011</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40"/>
       <c r="B497" s="20" t="s">
         <v>385</v>
@@ -15625,7 +15620,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40">
         <v>42095</v>
       </c>
@@ -15651,7 +15646,7 @@
         <v>45045</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40"/>
       <c r="B499" s="20" t="s">
         <v>387</v>
@@ -15671,7 +15666,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40">
         <v>42125</v>
       </c>
@@ -15697,7 +15692,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40"/>
       <c r="B501" s="20" t="s">
         <v>386</v>
@@ -15717,7 +15712,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40"/>
       <c r="B502" s="20" t="s">
         <v>390</v>
@@ -15737,7 +15732,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40">
         <v>42156</v>
       </c>
@@ -15763,7 +15758,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40">
         <v>42186</v>
       </c>
@@ -15783,7 +15778,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40">
         <v>42217</v>
       </c>
@@ -15807,7 +15802,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="40">
         <v>42248</v>
       </c>
@@ -15833,7 +15828,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40"/>
       <c r="B507" s="20" t="s">
         <v>53</v>
@@ -15855,7 +15850,7 @@
         <v>45199</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40"/>
       <c r="B508" s="20" t="s">
         <v>393</v>
@@ -15875,7 +15870,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40">
         <v>42278</v>
       </c>
@@ -15901,7 +15896,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="40"/>
       <c r="B510" s="20" t="s">
         <v>394</v>
@@ -15921,7 +15916,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40">
         <v>42309</v>
       </c>
@@ -15947,7 +15942,7 @@
         <v>45232</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="40"/>
       <c r="B512" s="20" t="s">
         <v>53</v>
@@ -15969,7 +15964,7 @@
         <v>45246</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40"/>
       <c r="B513" s="20" t="s">
         <v>53</v>
@@ -15991,7 +15986,7 @@
         <v>45283</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="40"/>
       <c r="B514" s="20" t="s">
         <v>207</v>
@@ -16011,7 +16006,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40"/>
       <c r="B515" s="20" t="s">
         <v>396</v>
@@ -16031,7 +16026,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40">
         <v>42339</v>
       </c>
@@ -16055,7 +16050,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="47" t="s">
         <v>376</v>
       </c>
@@ -16077,7 +16072,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="40">
         <v>42370</v>
       </c>
@@ -16103,7 +16098,7 @@
         <v>44930</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="40"/>
       <c r="B519" s="20" t="s">
         <v>399</v>
@@ -16123,7 +16118,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="40">
         <v>42401</v>
       </c>
@@ -16147,7 +16142,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="40"/>
       <c r="B521" s="20" t="s">
         <v>400</v>
@@ -16169,7 +16164,7 @@
         <v>44968</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="40">
         <v>42430</v>
       </c>
@@ -16197,7 +16192,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="40"/>
       <c r="B523" s="20" t="s">
         <v>401</v>
@@ -16219,7 +16214,7 @@
         <v>45008</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="40">
         <v>42461</v>
       </c>
@@ -16243,7 +16238,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="40"/>
       <c r="B525" s="20" t="s">
         <v>53</v>
@@ -16263,7 +16258,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="40"/>
       <c r="B526" s="20" t="s">
         <v>402</v>
@@ -16285,7 +16280,7 @@
         <v>45038</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="40">
         <v>42491</v>
       </c>
@@ -16309,7 +16304,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="40">
         <v>42522</v>
       </c>
@@ -16333,7 +16328,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="40"/>
       <c r="B529" s="20" t="s">
         <v>404</v>
@@ -16355,7 +16350,7 @@
         <v>45097</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="40">
         <v>42552</v>
       </c>
@@ -16379,7 +16374,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="40"/>
       <c r="B531" s="20" t="s">
         <v>285</v>
@@ -16401,7 +16396,7 @@
         <v>45128</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="40">
         <v>42583</v>
       </c>
@@ -16427,7 +16422,7 @@
         <v>45148</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="40"/>
       <c r="B533" s="20" t="s">
         <v>53</v>
@@ -16449,7 +16444,7 @@
         <v>45160</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="40"/>
       <c r="B534" s="20" t="s">
         <v>405</v>
@@ -16469,7 +16464,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="40">
         <v>42614</v>
       </c>
@@ -16495,7 +16490,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="40"/>
       <c r="B536" s="20" t="s">
         <v>53</v>
@@ -16517,7 +16512,7 @@
         <v>45199</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="40"/>
       <c r="B537" s="20" t="s">
         <v>407</v>
@@ -16539,7 +16534,7 @@
         <v>45209</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="40">
         <v>42644</v>
       </c>
@@ -16565,7 +16560,7 @@
         <v>45240</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40"/>
       <c r="B539" s="20" t="s">
         <v>53</v>
@@ -16587,7 +16582,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="40"/>
       <c r="B540" s="20" t="s">
         <v>224</v>
@@ -16605,7 +16600,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="40"/>
       <c r="B541" s="20" t="s">
         <v>294</v>
@@ -16625,7 +16620,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="40">
         <v>42675</v>
       </c>
@@ -16651,7 +16646,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="40"/>
       <c r="B543" s="20" t="s">
         <v>53</v>
@@ -16673,7 +16668,7 @@
         <v>45255</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="40"/>
       <c r="B544" s="20" t="s">
         <v>409</v>
@@ -16693,7 +16688,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="40">
         <v>42705</v>
       </c>
@@ -16719,7 +16714,7 @@
         <v>45269</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="40"/>
       <c r="B546" s="20" t="s">
         <v>120</v>
@@ -16741,7 +16736,7 @@
         <v>45287</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="40"/>
       <c r="B547" s="20" t="s">
         <v>410</v>
@@ -16761,7 +16756,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="47" t="s">
         <v>377</v>
       </c>
@@ -16783,7 +16778,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="40">
         <v>42736</v>
       </c>
@@ -16809,7 +16804,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="40"/>
       <c r="B550" s="20" t="s">
         <v>120</v>
@@ -16833,7 +16828,7 @@
         <v>44951</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="40"/>
       <c r="B551" s="20" t="s">
         <v>412</v>
@@ -16855,7 +16850,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="40">
         <v>42767</v>
       </c>
@@ -16881,7 +16876,7 @@
         <v>44970</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="40"/>
       <c r="B553" s="20" t="s">
         <v>413</v>
@@ -16901,7 +16896,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="40">
         <v>42795</v>
       </c>
@@ -16931,7 +16926,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="40"/>
       <c r="B555" s="20" t="s">
         <v>120</v>
@@ -16955,7 +16950,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="40"/>
       <c r="B556" s="20" t="s">
         <v>120</v>
@@ -16979,7 +16974,7 @@
         <v>44999</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="40"/>
       <c r="B557" s="20" t="s">
         <v>81</v>
@@ -16999,7 +16994,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="40">
         <v>42826</v>
       </c>
@@ -17025,7 +17020,7 @@
         <v>45036</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="40"/>
       <c r="B559" s="20" t="s">
         <v>52</v>
@@ -17047,7 +17042,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="40">
         <v>42856</v>
       </c>
@@ -17073,7 +17068,7 @@
         <v>45068</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="40"/>
       <c r="B561" s="20" t="s">
         <v>415</v>
@@ -17093,7 +17088,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="40">
         <v>42887</v>
       </c>
@@ -17121,7 +17116,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="40">
         <v>42917</v>
       </c>
@@ -17145,7 +17140,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="40"/>
       <c r="B564" s="20" t="s">
         <v>120</v>
@@ -17171,7 +17166,7 @@
         <v>45117</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="40"/>
       <c r="B565" s="20" t="s">
         <v>53</v>
@@ -17195,7 +17190,7 @@
         <v>45124</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="40"/>
       <c r="B566" s="20" t="s">
         <v>416</v>
@@ -17217,7 +17212,7 @@
         <v>45135</v>
       </c>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="40">
         <v>42948</v>
       </c>
@@ -17241,7 +17236,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="40">
         <v>42979</v>
       </c>
@@ -17265,7 +17260,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="40"/>
       <c r="B569" s="20" t="s">
         <v>53</v>
@@ -17287,7 +17282,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="40"/>
       <c r="B570" s="20" t="s">
         <v>53</v>
@@ -17309,7 +17304,7 @@
         <v>45175</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="40"/>
       <c r="B571" s="20" t="s">
         <v>418</v>
@@ -17331,7 +17326,7 @@
         <v>45184</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="40">
         <v>43009</v>
       </c>
@@ -17355,7 +17350,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="40"/>
       <c r="B573" s="20" t="s">
         <v>53</v>
@@ -17379,7 +17374,7 @@
         <v>45203</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="40"/>
       <c r="B574" s="20" t="s">
         <v>120</v>
@@ -17401,7 +17396,7 @@
         <v>45191</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="40"/>
       <c r="B575" s="20" t="s">
         <v>419</v>
@@ -17423,7 +17418,7 @@
         <v>45222</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="40">
         <v>43040</v>
       </c>
@@ -17449,7 +17444,7 @@
         <v>45232</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="40"/>
       <c r="B577" s="20" t="s">
         <v>53</v>
@@ -17471,7 +17466,7 @@
         <v>45243</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="40">
         <v>43070</v>
       </c>
@@ -17497,7 +17492,7 @@
         <v>45261</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="40"/>
       <c r="B579" s="20" t="s">
         <v>120</v>
@@ -17521,7 +17516,7 @@
         <v>45271</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A580" s="40"/>
       <c r="B580" s="20" t="s">
         <v>207</v>
@@ -17541,7 +17536,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A581" s="40"/>
       <c r="B581" s="20" t="s">
         <v>224</v>
@@ -17561,7 +17556,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A582" s="47" t="s">
         <v>378</v>
       </c>
@@ -17583,7 +17578,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A583" s="40">
         <v>43101</v>
       </c>
@@ -17609,7 +17604,7 @@
         <v>44929</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A584" s="40"/>
       <c r="B584" s="20" t="s">
         <v>120</v>
@@ -17633,7 +17628,7 @@
         <v>44934</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A585" s="40">
         <v>43132</v>
       </c>
@@ -17657,7 +17652,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A586" s="40"/>
       <c r="B586" s="20" t="s">
         <v>52</v>
@@ -17679,7 +17674,7 @@
         <v>44976</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A587" s="40">
         <v>43160</v>
       </c>
@@ -17705,7 +17700,7 @@
         <v>44986</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A588" s="40"/>
       <c r="B588" s="20" t="s">
         <v>53</v>
@@ -17727,7 +17722,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A589" s="40">
         <v>43191</v>
       </c>
@@ -17755,7 +17750,7 @@
         <v>44987</v>
       </c>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A590" s="40"/>
       <c r="B590" s="20" t="s">
         <v>120</v>
@@ -17777,7 +17772,7 @@
         <v>44993</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A591" s="40"/>
       <c r="B591" s="20" t="s">
         <v>57</v>
@@ -17799,7 +17794,7 @@
         <v>45012</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A592" s="40"/>
       <c r="B592" s="20" t="s">
         <v>423</v>
@@ -17821,7 +17816,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A593" s="40">
         <v>43221</v>
       </c>
@@ -17847,7 +17842,7 @@
         <v>45055</v>
       </c>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A594" s="40"/>
       <c r="B594" s="20" t="s">
         <v>53</v>
@@ -17873,7 +17868,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A595" s="40"/>
       <c r="B595" s="20" t="s">
         <v>120</v>
@@ -17895,7 +17890,7 @@
         <v>45068</v>
       </c>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A596" s="40"/>
       <c r="B596" s="20" t="s">
         <v>425</v>
@@ -17915,7 +17910,7 @@
       <c r="J596" s="11"/>
       <c r="K596" s="20"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A597" s="40">
         <v>43252</v>
       </c>
@@ -17941,7 +17936,7 @@
         <v>45090</v>
       </c>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A598" s="40"/>
       <c r="B598" s="20" t="s">
         <v>426</v>
@@ -17961,7 +17956,7 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A599" s="40">
         <v>43282</v>
       </c>
@@ -17987,7 +17982,7 @@
         <v>45123</v>
       </c>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A600" s="40"/>
       <c r="B600" s="20" t="s">
         <v>120</v>
@@ -18013,7 +18008,7 @@
         <v>45130</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A601" s="40"/>
       <c r="B601" s="20" t="s">
         <v>427</v>
@@ -18033,7 +18028,7 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A602" s="40">
         <v>43313</v>
       </c>
@@ -18059,7 +18054,7 @@
         <v>45159</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A603" s="40"/>
       <c r="B603" s="20" t="s">
         <v>120</v>
@@ -18081,7 +18076,7 @@
         <v>45162</v>
       </c>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A604" s="40"/>
       <c r="B604" s="20" t="s">
         <v>428</v>
@@ -18101,7 +18096,7 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A605" s="40">
         <v>43344</v>
       </c>
@@ -18127,7 +18122,7 @@
         <v>45173</v>
       </c>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A606" s="40"/>
       <c r="B606" s="20" t="s">
         <v>86</v>
@@ -18149,7 +18144,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A607" s="40"/>
       <c r="B607" s="20" t="s">
         <v>120</v>
@@ -18171,7 +18166,7 @@
         <v>45187</v>
       </c>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A608" s="40"/>
       <c r="B608" s="20" t="s">
         <v>429</v>
@@ -18193,7 +18188,7 @@
         <v>45181</v>
       </c>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A609" s="40">
         <v>43374</v>
       </c>
@@ -18219,7 +18214,7 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A610" s="40">
         <v>43405</v>
       </c>
@@ -18245,7 +18240,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A611" s="40"/>
       <c r="B611" s="20" t="s">
         <v>432</v>
@@ -18267,7 +18262,7 @@
         <v>45246</v>
       </c>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A612" s="40">
         <v>43435</v>
       </c>
@@ -18293,7 +18288,7 @@
         <v>45267</v>
       </c>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A613" s="40"/>
       <c r="B613" s="20" t="s">
         <v>53</v>
@@ -18315,7 +18310,7 @@
         <v>45274</v>
       </c>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A614" s="40"/>
       <c r="B614" s="20" t="s">
         <v>207</v>
@@ -18335,7 +18330,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A615" s="40"/>
       <c r="B615" s="20" t="s">
         <v>53</v>
@@ -18357,7 +18352,7 @@
         <v>45279</v>
       </c>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A616" s="40"/>
       <c r="B616" s="20" t="s">
         <v>53</v>
@@ -18379,7 +18374,7 @@
         <v>45287</v>
       </c>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A617" s="40"/>
       <c r="B617" s="20" t="s">
         <v>93</v>
@@ -18399,7 +18394,7 @@
       <c r="J617" s="11"/>
       <c r="K617" s="20"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A618" s="47" t="s">
         <v>379</v>
       </c>
@@ -18421,7 +18416,7 @@
       <c r="J618" s="11"/>
       <c r="K618" s="20"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A619" s="40">
         <v>43466</v>
       </c>
@@ -18447,7 +18442,7 @@
         <v>44943</v>
       </c>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A620" s="40"/>
       <c r="B620" s="20" t="s">
         <v>120</v>
@@ -18469,7 +18464,7 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A621" s="40">
         <v>43497</v>
       </c>
@@ -18489,7 +18484,7 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A622" s="40">
         <v>43525</v>
       </c>
@@ -18515,7 +18510,7 @@
         <v>44990</v>
       </c>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A623" s="40"/>
       <c r="B623" s="20" t="s">
         <v>53</v>
@@ -18537,7 +18532,7 @@
         <v>45018</v>
       </c>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A624" s="40">
         <v>43556</v>
       </c>
@@ -18563,7 +18558,7 @@
         <v>45041</v>
       </c>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A625" s="40"/>
       <c r="B625" s="20" t="s">
         <v>52</v>
@@ -18585,7 +18580,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A626" s="40">
         <v>43586</v>
       </c>
@@ -18611,7 +18606,7 @@
         <v>45049</v>
       </c>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A627" s="40">
         <v>43617</v>
       </c>
@@ -18635,7 +18630,7 @@
       <c r="J627" s="11"/>
       <c r="K627" s="20"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A628" s="40"/>
       <c r="B628" s="20" t="s">
         <v>52</v>
@@ -18657,7 +18652,7 @@
         <v>45095</v>
       </c>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A629" s="40">
         <v>43647</v>
       </c>
@@ -18683,7 +18678,7 @@
         <v>45122</v>
       </c>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A630" s="40">
         <v>43678</v>
       </c>
@@ -18707,7 +18702,7 @@
       <c r="J630" s="11"/>
       <c r="K630" s="20"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A631" s="40">
         <v>43709</v>
       </c>
@@ -18733,7 +18728,7 @@
         <v>45119</v>
       </c>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A632" s="40"/>
       <c r="B632" s="20" t="s">
         <v>119</v>
@@ -18753,7 +18748,7 @@
       <c r="J632" s="11"/>
       <c r="K632" s="20"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A633" s="40"/>
       <c r="B633" s="20" t="s">
         <v>120</v>
@@ -18775,7 +18770,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A634" s="40"/>
       <c r="B634" s="20" t="s">
         <v>119</v>
@@ -18797,7 +18792,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A635" s="40"/>
       <c r="B635" s="20" t="s">
         <v>119</v>
@@ -18819,7 +18814,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A636" s="40"/>
       <c r="B636" s="20" t="s">
         <v>52</v>
@@ -18841,7 +18836,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A637" s="40">
         <v>43739</v>
       </c>
@@ -18869,7 +18864,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A638" s="40">
         <v>43770</v>
       </c>
@@ -18891,7 +18886,7 @@
         <v>45210</v>
       </c>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A639" s="40">
         <v>43800</v>
       </c>
@@ -18917,7 +18912,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A640" s="40"/>
       <c r="B640" s="20"/>
       <c r="C640" s="13"/>
@@ -18935,7 +18930,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A641" s="47" t="s">
         <v>380</v>
       </c>
@@ -18957,7 +18952,7 @@
       <c r="J641" s="11"/>
       <c r="K641" s="20"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A642" s="40">
         <v>43831</v>
       </c>
@@ -18983,7 +18978,7 @@
         <v>44941</v>
       </c>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A643" s="40"/>
       <c r="B643" s="20" t="s">
         <v>439</v>
@@ -19003,7 +18998,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A644" s="40"/>
       <c r="B644" s="20" t="s">
         <v>52</v>
@@ -19025,7 +19020,7 @@
         <v>44944</v>
       </c>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A645" s="40">
         <v>43862</v>
       </c>
@@ -19049,7 +19044,7 @@
         <v>44975</v>
       </c>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A646" s="40"/>
       <c r="B646" s="20" t="s">
         <v>207</v>
@@ -19069,7 +19064,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A647" s="40">
         <v>43891</v>
       </c>
@@ -19089,7 +19084,7 @@
       <c r="J647" s="11"/>
       <c r="K647" s="20"/>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A648" s="40">
         <v>43922</v>
       </c>
@@ -19109,7 +19104,7 @@
       <c r="J648" s="11"/>
       <c r="K648" s="20"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A649" s="40">
         <v>43952</v>
       </c>
@@ -19129,7 +19124,7 @@
       <c r="J649" s="11"/>
       <c r="K649" s="20"/>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A650" s="40">
         <v>43983</v>
       </c>
@@ -19149,7 +19144,7 @@
       <c r="J650" s="11"/>
       <c r="K650" s="20"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A651" s="40">
         <v>44013</v>
       </c>
@@ -19169,7 +19164,7 @@
       <c r="J651" s="11"/>
       <c r="K651" s="20"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A652" s="40">
         <v>44044</v>
       </c>
@@ -19195,7 +19190,7 @@
         <v>45157</v>
       </c>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A653" s="40"/>
       <c r="B653" s="20" t="s">
         <v>224</v>
@@ -19215,7 +19210,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A654" s="40"/>
       <c r="B654" s="20" t="s">
         <v>53</v>
@@ -19237,7 +19232,7 @@
         <v>45162</v>
       </c>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A655" s="40">
         <v>44075</v>
       </c>
@@ -19263,7 +19258,7 @@
         <v>45179</v>
       </c>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A656" s="40">
         <v>44105</v>
       </c>
@@ -19283,7 +19278,7 @@
       <c r="J656" s="11"/>
       <c r="K656" s="20"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A657" s="40">
         <v>44136</v>
       </c>
@@ -19309,19 +19304,15 @@
         <v>115</v>
       </c>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A658" s="40">
         <v>44166</v>
       </c>
-      <c r="B658" s="20" t="s">
-        <v>443</v>
-      </c>
+      <c r="B658" s="20"/>
       <c r="C658" s="13">
         <v>1.25</v>
       </c>
-      <c r="D658" s="39">
-        <v>3</v>
-      </c>
+      <c r="D658" s="39"/>
       <c r="E658" s="9"/>
       <c r="F658" s="20"/>
       <c r="G658" s="13">
@@ -19333,7 +19324,7 @@
       <c r="J658" s="11"/>
       <c r="K658" s="20"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A659" s="47" t="s">
         <v>381</v>
       </c>
@@ -19355,7 +19346,7 @@
       <c r="J659" s="11"/>
       <c r="K659" s="20"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A660" s="40">
         <v>44197</v>
       </c>
@@ -19381,7 +19372,7 @@
         <v>44944</v>
       </c>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A661" s="40">
         <v>44228</v>
       </c>
@@ -19404,10 +19395,10 @@
       <c r="I661" s="9"/>
       <c r="J661" s="11"/>
       <c r="K661" s="20" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A662" s="40"/>
       <c r="B662" s="20" t="s">
         <v>53</v>
@@ -19429,7 +19420,7 @@
         <v>44983</v>
       </c>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A663" s="40"/>
       <c r="B663" s="20" t="s">
         <v>53</v>
@@ -19451,7 +19442,7 @@
         <v>44990</v>
       </c>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A664" s="40">
         <v>44256</v>
       </c>
@@ -19471,7 +19462,7 @@
       <c r="J664" s="11"/>
       <c r="K664" s="20"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A665" s="40">
         <v>44287</v>
       </c>
@@ -19491,7 +19482,7 @@
       <c r="J665" s="11"/>
       <c r="K665" s="20"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A666" s="40">
         <v>44317</v>
       </c>
@@ -19511,7 +19502,7 @@
       <c r="J666" s="11"/>
       <c r="K666" s="20"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A667" s="40">
         <v>44348</v>
       </c>
@@ -19531,7 +19522,7 @@
       <c r="J667" s="11"/>
       <c r="K667" s="20"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A668" s="40">
         <v>44378</v>
       </c>
@@ -19557,7 +19548,7 @@
         <v>45135</v>
       </c>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A669" s="40">
         <v>44409</v>
       </c>
@@ -19581,7 +19572,7 @@
       <c r="J669" s="11"/>
       <c r="K669" s="20"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A670" s="40">
         <v>44440</v>
       </c>
@@ -19600,10 +19591,10 @@
       <c r="I670" s="9"/>
       <c r="J670" s="11"/>
       <c r="K670" s="20" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A671" s="40">
         <v>44470</v>
       </c>
@@ -19626,10 +19617,10 @@
       <c r="I671" s="9"/>
       <c r="J671" s="11"/>
       <c r="K671" s="20" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A672" s="40"/>
       <c r="B672" s="20" t="s">
         <v>86</v>
@@ -19648,10 +19639,10 @@
       <c r="I672" s="9"/>
       <c r="J672" s="11"/>
       <c r="K672" s="20" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A673" s="40"/>
       <c r="B673" s="20" t="s">
         <v>207</v>
@@ -19668,10 +19659,10 @@
       <c r="I673" s="9"/>
       <c r="J673" s="11"/>
       <c r="K673" s="20" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A674" s="40">
         <v>44501</v>
       </c>
@@ -19695,7 +19686,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A675" s="40">
         <v>44531</v>
       </c>
@@ -19715,7 +19706,7 @@
       <c r="J675" s="11"/>
       <c r="K675" s="20"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A676" s="47" t="s">
         <v>382</v>
       </c>
@@ -19737,7 +19728,7 @@
       <c r="J676" s="11"/>
       <c r="K676" s="20"/>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A677" s="40">
         <v>44562</v>
       </c>
@@ -19763,7 +19754,7 @@
         <v>44952</v>
       </c>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A678" s="40"/>
       <c r="B678" s="20" t="s">
         <v>53</v>
@@ -19785,7 +19776,7 @@
         <v>44968</v>
       </c>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A679" s="40">
         <v>44593</v>
       </c>
@@ -19809,7 +19800,7 @@
       <c r="J679" s="11"/>
       <c r="K679" s="20"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A680" s="40">
         <v>44621</v>
       </c>
@@ -19835,7 +19826,7 @@
         <v>44988</v>
       </c>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A681" s="40">
         <v>44652</v>
       </c>
@@ -19854,10 +19845,10 @@
       <c r="I681" s="9"/>
       <c r="J681" s="11"/>
       <c r="K681" s="20" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A682" s="40">
         <v>44682</v>
       </c>
@@ -19883,7 +19874,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A683" s="40"/>
       <c r="B683" s="20" t="s">
         <v>53</v>
@@ -19905,7 +19896,7 @@
         <v>45080</v>
       </c>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A684" s="40">
         <v>44713</v>
       </c>
@@ -19925,7 +19916,7 @@
       <c r="J684" s="11"/>
       <c r="K684" s="20"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A685" s="40">
         <v>44743</v>
       </c>
@@ -19945,7 +19936,7 @@
       <c r="J685" s="11"/>
       <c r="K685" s="20"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A686" s="40">
         <v>44774</v>
       </c>
@@ -19971,7 +19962,7 @@
         <v>45147</v>
       </c>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A687" s="40">
         <v>44805</v>
       </c>
@@ -19994,10 +19985,10 @@
       <c r="I687" s="9"/>
       <c r="J687" s="11"/>
       <c r="K687" s="20" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A688" s="40"/>
       <c r="B688" s="20" t="s">
         <v>57</v>
@@ -20019,7 +20010,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A689" s="40">
         <v>44835</v>
       </c>
@@ -20039,7 +20030,7 @@
       <c r="J689" s="11"/>
       <c r="K689" s="20"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A690" s="40">
         <v>44866</v>
       </c>
@@ -20065,7 +20056,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A691" s="40"/>
       <c r="B691" s="20" t="s">
         <v>57</v>
@@ -20084,15 +20075,15 @@
       <c r="I691" s="9"/>
       <c r="J691" s="11"/>
       <c r="K691" s="49" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A692" s="40">
         <v>44896</v>
       </c>
       <c r="B692" s="20" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C692" s="13">
         <v>1.25</v>
@@ -20108,18 +20099,16 @@
       <c r="I692" s="9"/>
       <c r="J692" s="11"/>
       <c r="K692" s="20" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A693" s="40"/>
-      <c r="B693" s="20" t="s">
-        <v>457</v>
-      </c>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A693" s="47" t="s">
+        <v>450</v>
+      </c>
+      <c r="B693" s="20"/>
       <c r="C693" s="13"/>
-      <c r="D693" s="39">
-        <v>5</v>
-      </c>
+      <c r="D693" s="39"/>
       <c r="E693" s="9"/>
       <c r="F693" s="20"/>
       <c r="G693" s="13" t="str">
@@ -20131,27 +20120,30 @@
       <c r="J693" s="11"/>
       <c r="K693" s="20"/>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A694" s="47" t="s">
-        <v>451</v>
+    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A694" s="40">
+        <v>44927</v>
       </c>
       <c r="B694" s="20"/>
-      <c r="C694" s="13"/>
+      <c r="C694" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D694" s="39"/>
       <c r="E694" s="9"/>
       <c r="F694" s="20"/>
-      <c r="G694" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G694" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H694" s="39"/>
       <c r="I694" s="9"/>
       <c r="J694" s="11"/>
       <c r="K694" s="20"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A695" s="40">
-        <v>44927</v>
+        <f>EDATE(A694,1)</f>
+        <v>44958</v>
       </c>
       <c r="B695" s="20"/>
       <c r="C695" s="13">
@@ -20169,12 +20161,14 @@
       <c r="J695" s="11"/>
       <c r="K695" s="20"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A696" s="40">
-        <f>EDATE(A695,1)</f>
-        <v>44958</v>
-      </c>
-      <c r="B696" s="20"/>
+        <f t="shared" ref="A696:A711" si="0">EDATE(A695,1)</f>
+        <v>44986</v>
+      </c>
+      <c r="B696" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C696" s="13">
         <v>1.25</v>
       </c>
@@ -20185,28 +20179,27 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H696" s="39"/>
+      <c r="H696" s="39">
+        <v>1</v>
+      </c>
       <c r="I696" s="9"/>
       <c r="J696" s="11"/>
-      <c r="K696" s="20"/>
-    </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A697" s="40">
-        <f t="shared" ref="A697:A711" si="0">EDATE(A696,1)</f>
-        <v>44986</v>
-      </c>
+      <c r="K696" s="49">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A697" s="40"/>
       <c r="B697" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C697" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C697" s="13"/>
       <c r="D697" s="39"/>
       <c r="E697" s="9"/>
       <c r="F697" s="20"/>
-      <c r="G697" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G697" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H697" s="39">
         <v>1</v>
@@ -20214,57 +20207,57 @@
       <c r="I697" s="9"/>
       <c r="J697" s="11"/>
       <c r="K697" s="49">
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A698" s="40"/>
-      <c r="B698" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C698" s="13"/>
+        <v>44991</v>
+      </c>
+    </row>
+    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A698" s="40">
+        <f>EDATE(A696,1)</f>
+        <v>45017</v>
+      </c>
+      <c r="B698" s="20"/>
+      <c r="C698" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D698" s="39"/>
       <c r="E698" s="9"/>
       <c r="F698" s="20"/>
-      <c r="G698" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H698" s="39">
-        <v>1</v>
-      </c>
+      <c r="G698" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H698" s="39"/>
       <c r="I698" s="9"/>
       <c r="J698" s="11"/>
-      <c r="K698" s="49">
-        <v>44991</v>
-      </c>
-    </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K698" s="20"/>
+    </row>
+    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A699" s="40">
-        <f>EDATE(A697,1)</f>
-        <v>45017</v>
-      </c>
-      <c r="B699" s="20"/>
-      <c r="C699" s="13">
-        <v>1.25</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>45047</v>
+      </c>
+      <c r="B699" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C699" s="13"/>
       <c r="D699" s="39"/>
       <c r="E699" s="9"/>
       <c r="F699" s="20"/>
-      <c r="G699" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H699" s="39"/>
+      <c r="G699" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H699" s="39">
+        <v>1</v>
+      </c>
       <c r="I699" s="9"/>
       <c r="J699" s="11"/>
-      <c r="K699" s="20"/>
-    </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A700" s="40">
-        <f t="shared" si="0"/>
-        <v>45047</v>
-      </c>
+      <c r="K699" s="49">
+        <v>45044</v>
+      </c>
+    </row>
+    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A700" s="40"/>
       <c r="B700" s="20" t="s">
         <v>53</v>
       </c>
@@ -20282,12 +20275,12 @@
       <c r="I700" s="9"/>
       <c r="J700" s="11"/>
       <c r="K700" s="49">
-        <v>45044</v>
-      </c>
-    </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
+        <v>45061</v>
+      </c>
+    </row>
+    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A701" s="40">
-        <f t="shared" si="0"/>
+        <f>EDATE(A699,1)</f>
         <v>45078</v>
       </c>
       <c r="B701" s="20"/>
@@ -20304,7 +20297,7 @@
       <c r="J701" s="11"/>
       <c r="K701" s="20"/>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A702" s="40">
         <f t="shared" si="0"/>
         <v>45108</v>
@@ -20323,7 +20316,7 @@
       <c r="J702" s="11"/>
       <c r="K702" s="20"/>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A703" s="40">
         <f t="shared" si="0"/>
         <v>45139</v>
@@ -20342,7 +20335,7 @@
       <c r="J703" s="11"/>
       <c r="K703" s="20"/>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A704" s="40">
         <f t="shared" si="0"/>
         <v>45170</v>
@@ -20361,7 +20354,7 @@
       <c r="J704" s="11"/>
       <c r="K704" s="20"/>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A705" s="40">
         <f t="shared" si="0"/>
         <v>45200</v>
@@ -20380,7 +20373,7 @@
       <c r="J705" s="11"/>
       <c r="K705" s="20"/>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A706" s="40">
         <f t="shared" si="0"/>
         <v>45231</v>
@@ -20399,7 +20392,7 @@
       <c r="J706" s="11"/>
       <c r="K706" s="20"/>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A707" s="40">
         <f t="shared" si="0"/>
         <v>45261</v>
@@ -20418,7 +20411,7 @@
       <c r="J707" s="11"/>
       <c r="K707" s="20"/>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A708" s="40">
         <f t="shared" si="0"/>
         <v>45292</v>
@@ -20437,7 +20430,7 @@
       <c r="J708" s="11"/>
       <c r="K708" s="20"/>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A709" s="40">
         <f t="shared" si="0"/>
         <v>45323</v>
@@ -20456,7 +20449,7 @@
       <c r="J709" s="11"/>
       <c r="K709" s="20"/>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A710" s="40">
         <f t="shared" si="0"/>
         <v>45352</v>
@@ -20475,7 +20468,7 @@
       <c r="J710" s="11"/>
       <c r="K710" s="20"/>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A711" s="40">
         <f t="shared" si="0"/>
         <v>45383</v>
@@ -20494,7 +20487,7 @@
       <c r="J711" s="11"/>
       <c r="K711" s="20"/>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A712" s="40"/>
       <c r="B712" s="20"/>
       <c r="C712" s="13"/>
@@ -20510,7 +20503,7 @@
       <c r="J712" s="11"/>
       <c r="K712" s="20"/>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A713" s="40"/>
       <c r="B713" s="20"/>
       <c r="C713" s="13"/>
@@ -20526,7 +20519,7 @@
       <c r="J713" s="11"/>
       <c r="K713" s="20"/>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A714" s="40"/>
       <c r="B714" s="20"/>
       <c r="C714" s="13"/>
@@ -20542,7 +20535,7 @@
       <c r="J714" s="11"/>
       <c r="K714" s="20"/>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A715" s="40"/>
       <c r="B715" s="20"/>
       <c r="C715" s="13"/>
@@ -20558,7 +20551,7 @@
       <c r="J715" s="11"/>
       <c r="K715" s="20"/>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A716" s="40"/>
       <c r="B716" s="20"/>
       <c r="C716" s="13"/>
@@ -20574,7 +20567,7 @@
       <c r="J716" s="11"/>
       <c r="K716" s="20"/>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A717" s="40"/>
       <c r="B717" s="20"/>
       <c r="C717" s="13"/>
@@ -20590,7 +20583,7 @@
       <c r="J717" s="11"/>
       <c r="K717" s="20"/>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A718" s="40"/>
       <c r="B718" s="20"/>
       <c r="C718" s="13"/>
@@ -20606,7 +20599,7 @@
       <c r="J718" s="11"/>
       <c r="K718" s="20"/>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A719" s="40"/>
       <c r="B719" s="20"/>
       <c r="C719" s="13"/>
@@ -20622,7 +20615,7 @@
       <c r="J719" s="11"/>
       <c r="K719" s="20"/>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A720" s="40"/>
       <c r="B720" s="20"/>
       <c r="C720" s="13"/>
@@ -20638,7 +20631,7 @@
       <c r="J720" s="11"/>
       <c r="K720" s="20"/>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A721" s="40"/>
       <c r="B721" s="20"/>
       <c r="C721" s="13"/>
@@ -20654,7 +20647,7 @@
       <c r="J721" s="11"/>
       <c r="K721" s="20"/>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A722" s="40"/>
       <c r="B722" s="20"/>
       <c r="C722" s="13"/>
@@ -20670,7 +20663,7 @@
       <c r="J722" s="11"/>
       <c r="K722" s="20"/>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A723" s="40"/>
       <c r="B723" s="20"/>
       <c r="C723" s="13"/>
@@ -20686,7 +20679,7 @@
       <c r="J723" s="11"/>
       <c r="K723" s="20"/>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A724" s="40"/>
       <c r="B724" s="20"/>
       <c r="C724" s="13"/>
@@ -20702,7 +20695,7 @@
       <c r="J724" s="11"/>
       <c r="K724" s="20"/>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A725" s="40"/>
       <c r="B725" s="20"/>
       <c r="C725" s="13"/>
@@ -20718,7 +20711,7 @@
       <c r="J725" s="11"/>
       <c r="K725" s="20"/>
     </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A726" s="40"/>
       <c r="B726" s="20"/>
       <c r="C726" s="13"/>
@@ -20734,7 +20727,7 @@
       <c r="J726" s="11"/>
       <c r="K726" s="20"/>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A727" s="40"/>
       <c r="B727" s="20"/>
       <c r="C727" s="13"/>
@@ -20750,7 +20743,7 @@
       <c r="J727" s="11"/>
       <c r="K727" s="20"/>
     </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A728" s="40"/>
       <c r="B728" s="20"/>
       <c r="C728" s="13"/>
@@ -20766,7 +20759,7 @@
       <c r="J728" s="11"/>
       <c r="K728" s="20"/>
     </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A729" s="40"/>
       <c r="B729" s="20"/>
       <c r="C729" s="13"/>
@@ -20782,7 +20775,7 @@
       <c r="J729" s="11"/>
       <c r="K729" s="20"/>
     </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A730" s="40"/>
       <c r="B730" s="20"/>
       <c r="C730" s="13"/>
@@ -20798,7 +20791,7 @@
       <c r="J730" s="11"/>
       <c r="K730" s="20"/>
     </row>
-    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A731" s="40"/>
       <c r="B731" s="20"/>
       <c r="C731" s="13"/>
@@ -20814,7 +20807,7 @@
       <c r="J731" s="11"/>
       <c r="K731" s="20"/>
     </row>
-    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A732" s="40"/>
       <c r="B732" s="20"/>
       <c r="C732" s="13"/>
@@ -20830,7 +20823,7 @@
       <c r="J732" s="11"/>
       <c r="K732" s="20"/>
     </row>
-    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A733" s="40"/>
       <c r="B733" s="20"/>
       <c r="C733" s="13"/>
@@ -20846,7 +20839,7 @@
       <c r="J733" s="11"/>
       <c r="K733" s="20"/>
     </row>
-    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A734" s="40"/>
       <c r="B734" s="20"/>
       <c r="C734" s="13"/>
@@ -20862,7 +20855,7 @@
       <c r="J734" s="11"/>
       <c r="K734" s="20"/>
     </row>
-    <row r="735" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A735" s="40"/>
       <c r="B735" s="20"/>
       <c r="C735" s="13"/>
@@ -20878,7 +20871,7 @@
       <c r="J735" s="11"/>
       <c r="K735" s="20"/>
     </row>
-    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A736" s="40"/>
       <c r="B736" s="20"/>
       <c r="C736" s="13"/>
@@ -20894,7 +20887,7 @@
       <c r="J736" s="11"/>
       <c r="K736" s="20"/>
     </row>
-    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A737" s="40"/>
       <c r="B737" s="20"/>
       <c r="C737" s="13"/>
@@ -20910,7 +20903,7 @@
       <c r="J737" s="11"/>
       <c r="K737" s="20"/>
     </row>
-    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A738" s="50"/>
       <c r="B738" s="15"/>
       <c r="C738" s="41"/>
@@ -20941,10 +20934,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -20967,7 +20960,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -20975,21 +20968,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -21002,7 +20995,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -21031,7 +21024,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>34.792000000000002</v>
       </c>
@@ -21061,17 +21054,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -21092,7 +21085,7 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -21119,7 +21112,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -21145,7 +21138,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -21171,7 +21164,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -21197,7 +21190,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -21223,7 +21216,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -21249,7 +21242,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -21275,7 +21268,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -21301,7 +21294,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -21321,7 +21314,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -21341,7 +21334,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -21361,7 +21354,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -21382,7 +21375,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -21403,7 +21396,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -21424,7 +21417,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -21445,7 +21438,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -21466,7 +21459,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -21487,7 +21480,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -21508,7 +21501,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -21529,7 +21522,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -21550,7 +21543,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -21571,7 +21564,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -21592,7 +21585,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -21613,7 +21606,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -21634,7 +21627,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -21655,7 +21648,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -21676,7 +21669,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -21697,7 +21690,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -21718,7 +21711,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -21739,7 +21732,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -21760,7 +21753,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -21781,7 +21774,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -21790,7 +21783,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -21799,7 +21792,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -21808,7 +21801,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -21817,7 +21810,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -21826,7 +21819,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -21835,7 +21828,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -21844,7 +21837,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -21853,7 +21846,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -21862,7 +21855,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -21871,7 +21864,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -21880,7 +21873,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -21889,7 +21882,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -21898,7 +21891,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -21907,7 +21900,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -21916,7 +21909,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -21925,7 +21918,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -21934,7 +21927,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -21943,7 +21936,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -21952,7 +21945,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -21961,7 +21954,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -21970,7 +21963,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -21979,7 +21972,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -21988,7 +21981,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -21997,7 +21990,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -22006,7 +21999,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -22015,7 +22008,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -22024,7 +22017,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -22033,7 +22026,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -22042,7 +22035,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/MENDOZA, NORA A..xlsx
+++ b/REGULAR/MENDOZA, NORA A..xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F944F4-2059-4A69-8399-8ABCF779B467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1408,7 +1407,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2271,7 +2270,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2314,7 +2313,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2378,7 +2377,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2438,7 +2437,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2504,7 +2503,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2567,7 +2566,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2665,7 +2664,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2724,7 +2723,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2789,7 +2788,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2832,7 +2831,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2907,7 +2906,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3093,7 +3092,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3159,7 +3158,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3217,7 +3216,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3283,7 +3282,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3339,7 +3338,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3414,7 +3413,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3457,7 +3456,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3523,7 +3522,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3579,7 +3578,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3677,7 +3676,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3740,7 +3739,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3806,26 +3805,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K738" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K738" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K738" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K738"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3837,13 +3836,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3852,14 +3851,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4163,7 +4162,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -4173,7 +4172,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4181,34 +4180,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K738"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A688" activePane="bottomLeft"/>
-      <selection activeCell="I9" sqref="I9:K9"/>
-      <selection pane="bottomLeft" activeCell="H697" sqref="H697"/>
+      <pane ySplit="3690" topLeftCell="A688" activePane="bottomLeft"/>
+      <selection activeCell="F4" sqref="F4:G4"/>
+      <selection pane="bottomLeft" activeCell="B701" sqref="B701"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="31" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -4229,7 +4228,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -4249,7 +4248,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4271,7 +4270,7 @@
       <c r="J4" s="57"/>
       <c r="K4" s="58"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4279,7 +4278,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4292,7 +4291,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -4309,7 +4308,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4344,7 +4343,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4368,7 +4367,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
@@ -4390,7 +4389,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>35065</v>
       </c>
@@ -4410,7 +4409,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>35096</v>
       </c>
@@ -4430,7 +4429,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>35125</v>
       </c>
@@ -4450,7 +4449,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>35156</v>
       </c>
@@ -4470,7 +4469,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>35186</v>
       </c>
@@ -4494,7 +4493,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>35217</v>
       </c>
@@ -4518,7 +4517,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>35247</v>
       </c>
@@ -4542,7 +4541,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>35278</v>
       </c>
@@ -4566,7 +4565,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>35309</v>
       </c>
@@ -4586,7 +4585,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>35339</v>
       </c>
@@ -4606,7 +4605,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>35370</v>
       </c>
@@ -4626,7 +4625,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>35400</v>
       </c>
@@ -4646,7 +4645,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="47" t="s">
         <v>44</v>
       </c>
@@ -4668,7 +4667,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>35431</v>
       </c>
@@ -4688,7 +4687,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>35462</v>
       </c>
@@ -4708,7 +4707,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>35490</v>
       </c>
@@ -4728,7 +4727,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>35521</v>
       </c>
@@ -4748,7 +4747,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>35551</v>
       </c>
@@ -4768,7 +4767,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>35582</v>
       </c>
@@ -4794,7 +4793,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>35612</v>
       </c>
@@ -4818,7 +4817,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>35643</v>
       </c>
@@ -4842,7 +4841,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>35674</v>
       </c>
@@ -4862,7 +4861,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>35704</v>
       </c>
@@ -4884,7 +4883,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>35735</v>
       </c>
@@ -4908,7 +4907,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>35765</v>
       </c>
@@ -4934,7 +4933,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="47" t="s">
         <v>45</v>
       </c>
@@ -4956,7 +4955,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>35796</v>
       </c>
@@ -4982,7 +4981,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>35827</v>
       </c>
@@ -5008,7 +5007,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>35855</v>
       </c>
@@ -5032,7 +5031,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>35886</v>
       </c>
@@ -5054,7 +5053,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>35916</v>
       </c>
@@ -5078,7 +5077,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>35947</v>
       </c>
@@ -5102,7 +5101,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>35977</v>
       </c>
@@ -5128,7 +5127,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>59</v>
@@ -5150,7 +5149,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>36008</v>
       </c>
@@ -5174,7 +5173,7 @@
         <v>45152</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>53</v>
@@ -5196,7 +5195,7 @@
         <v>45157</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>61</v>
@@ -5216,7 +5215,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>36039</v>
       </c>
@@ -5240,7 +5239,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>36069</v>
       </c>
@@ -5266,7 +5265,7 @@
         <v>45208</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>52</v>
@@ -5288,7 +5287,7 @@
         <v>45218</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>63</v>
@@ -5308,7 +5307,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>36100</v>
       </c>
@@ -5334,7 +5333,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>65</v>
@@ -5356,7 +5355,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>66</v>
@@ -5378,7 +5377,7 @@
         <v>45261</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>36130</v>
       </c>
@@ -5404,7 +5403,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
         <v>67</v>
@@ -5426,7 +5425,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="47" t="s">
         <v>46</v>
       </c>
@@ -5448,7 +5447,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>36161</v>
       </c>
@@ -5472,7 +5471,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>36192</v>
       </c>
@@ -5498,7 +5497,7 @@
         <v>44960</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>73</v>
@@ -5518,7 +5517,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>36220</v>
       </c>
@@ -5540,7 +5539,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>36251</v>
       </c>
@@ -5566,7 +5565,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>53</v>
@@ -5588,7 +5587,7 @@
         <v>45039</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20" t="s">
         <v>74</v>
@@ -5610,7 +5609,7 @@
         <v>45042</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>36281</v>
       </c>
@@ -5636,7 +5635,7 @@
         <v>45052</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>53</v>
@@ -5658,7 +5657,7 @@
         <v>45060</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>75</v>
@@ -5678,7 +5677,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>36312</v>
       </c>
@@ -5704,7 +5703,7 @@
         <v>45081</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>76</v>
@@ -5726,7 +5725,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>36342</v>
       </c>
@@ -5752,7 +5751,7 @@
         <v>45115</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>80</v>
@@ -5774,7 +5773,7 @@
         <v>45121</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>36373</v>
       </c>
@@ -5800,7 +5799,7 @@
         <v>45141</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>53</v>
@@ -5822,7 +5821,7 @@
         <v>45147</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>53</v>
@@ -5844,7 +5843,7 @@
         <v>45163</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>81</v>
@@ -5864,7 +5863,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>36404</v>
       </c>
@@ -5890,7 +5889,7 @@
         <v>45171</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>53</v>
@@ -5912,7 +5911,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>82</v>
@@ -5932,7 +5931,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>36434</v>
       </c>
@@ -5958,7 +5957,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>86</v>
@@ -5980,7 +5979,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>53</v>
@@ -6002,7 +6001,7 @@
         <v>45220</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>36465</v>
       </c>
@@ -6028,7 +6027,7 @@
         <v>45232</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>87</v>
@@ -6048,7 +6047,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>36495</v>
       </c>
@@ -6074,7 +6073,7 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>86</v>
@@ -6096,7 +6095,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>53</v>
@@ -6118,7 +6117,7 @@
         <v>45283</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>85</v>
@@ -6140,7 +6139,7 @@
         <v>45287</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>53</v>
@@ -6162,7 +6161,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>93</v>
@@ -6184,7 +6183,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="47" t="s">
         <v>49</v>
       </c>
@@ -6206,7 +6205,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>36526</v>
       </c>
@@ -6232,7 +6231,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
         <v>52</v>
@@ -6254,7 +6253,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>95</v>
@@ -6276,7 +6275,7 @@
         <v>44954</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>36557</v>
       </c>
@@ -6302,7 +6301,7 @@
         <v>44968</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>96</v>
@@ -6324,7 +6323,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20" t="s">
         <v>97</v>
@@ -6344,7 +6343,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>36586</v>
       </c>
@@ -6370,7 +6369,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>52</v>
@@ -6392,7 +6391,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>98</v>
@@ -6412,7 +6411,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>36617</v>
       </c>
@@ -6438,7 +6437,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>36647</v>
       </c>
@@ -6464,7 +6463,7 @@
         <v>45055</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
         <v>53</v>
@@ -6486,7 +6485,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>106</v>
@@ -6506,7 +6505,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="48"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>36678</v>
       </c>
@@ -6530,7 +6529,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>36708</v>
       </c>
@@ -6554,7 +6553,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>36739</v>
       </c>
@@ -6578,7 +6577,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>36770</v>
       </c>
@@ -6604,7 +6603,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20" t="s">
         <v>85</v>
@@ -6626,7 +6625,7 @@
         <v>45189</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>95</v>
@@ -6646,7 +6645,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>36800</v>
       </c>
@@ -6672,7 +6671,7 @@
         <v>45203</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
         <v>110</v>
@@ -6692,7 +6691,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>36831</v>
       </c>
@@ -6718,7 +6717,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>53</v>
@@ -6738,7 +6737,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20" t="s">
         <v>111</v>
@@ -6758,7 +6757,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>36861</v>
       </c>
@@ -6784,7 +6783,7 @@
         <v>45279</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20" t="s">
         <v>86</v>
@@ -6806,7 +6805,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20" t="s">
         <v>57</v>
@@ -6828,7 +6827,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
         <v>112</v>
@@ -6850,7 +6849,7 @@
         <v>45274</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="47" t="s">
         <v>48</v>
       </c>
@@ -6872,7 +6871,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>36892</v>
       </c>
@@ -6898,7 +6897,7 @@
         <v>44935</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
         <v>117</v>
@@ -6918,7 +6917,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>36923</v>
       </c>
@@ -6944,7 +6943,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
         <v>118</v>
@@ -6964,7 +6963,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>36951</v>
       </c>
@@ -6990,7 +6989,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20" t="s">
         <v>57</v>
@@ -7012,7 +7011,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20" t="s">
         <v>126</v>
@@ -7034,7 +7033,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>36982</v>
       </c>
@@ -7062,7 +7061,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>120</v>
@@ -7084,7 +7083,7 @@
         <v>45032</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20" t="s">
         <v>53</v>
@@ -7106,7 +7105,7 @@
         <v>45046</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20" t="s">
         <v>121</v>
@@ -7126,7 +7125,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>37012</v>
       </c>
@@ -7154,7 +7153,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20" t="s">
         <v>120</v>
@@ -7176,7 +7175,7 @@
         <v>45070</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
         <v>123</v>
@@ -7196,7 +7195,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>37043</v>
       </c>
@@ -7222,7 +7221,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20" t="s">
         <v>119</v>
@@ -7246,7 +7245,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20" t="s">
         <v>124</v>
@@ -7268,7 +7267,7 @@
         <v>45111</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <v>37073</v>
       </c>
@@ -7294,7 +7293,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
         <v>125</v>
@@ -7316,7 +7315,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40"/>
       <c r="B139" s="20" t="s">
         <v>122</v>
@@ -7336,7 +7335,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40"/>
       <c r="B140" s="20" t="s">
         <v>127</v>
@@ -7356,7 +7355,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <v>37104</v>
       </c>
@@ -7382,7 +7381,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40"/>
       <c r="B142" s="20" t="s">
         <v>53</v>
@@ -7402,7 +7401,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
         <v>128</v>
@@ -7424,7 +7423,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40"/>
       <c r="B144" s="20" t="s">
         <v>129</v>
@@ -7444,7 +7443,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <v>37135</v>
       </c>
@@ -7470,7 +7469,7 @@
         <v>45173</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>120</v>
@@ -7494,7 +7493,7 @@
         <v>45189</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40"/>
       <c r="B147" s="20" t="s">
         <v>87</v>
@@ -7514,7 +7513,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <v>37165</v>
       </c>
@@ -7542,7 +7541,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>86</v>
@@ -7564,7 +7563,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40"/>
       <c r="B150" s="20" t="s">
         <v>130</v>
@@ -7584,7 +7583,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <v>37196</v>
       </c>
@@ -7610,7 +7609,7 @@
         <v>45236</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>120</v>
@@ -7634,7 +7633,7 @@
         <v>45244</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>52</v>
@@ -7656,7 +7655,7 @@
         <v>45257</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40"/>
       <c r="B154" s="20" t="s">
         <v>131</v>
@@ -7676,7 +7675,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <v>37226</v>
       </c>
@@ -7702,7 +7701,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
         <v>132</v>
@@ -7726,7 +7725,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40"/>
       <c r="B157" s="20" t="s">
         <v>119</v>
@@ -7748,7 +7747,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40"/>
       <c r="B158" s="20" t="s">
         <v>148</v>
@@ -7768,7 +7767,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="47" t="s">
         <v>47</v>
       </c>
@@ -7790,7 +7789,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <v>37257</v>
       </c>
@@ -7816,7 +7815,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40"/>
       <c r="B161" s="20" t="s">
         <v>120</v>
@@ -7840,7 +7839,7 @@
         <v>44950</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>149</v>
@@ -7862,7 +7861,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <v>37288</v>
       </c>
@@ -7888,7 +7887,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>119</v>
@@ -7910,7 +7909,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40"/>
       <c r="B165" s="20" t="s">
         <v>130</v>
@@ -7930,7 +7929,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <v>37316</v>
       </c>
@@ -7954,7 +7953,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <v>37347</v>
       </c>
@@ -7980,7 +7979,7 @@
         <v>45030</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>151</v>
@@ -8000,7 +7999,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <v>37377</v>
       </c>
@@ -8026,7 +8025,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40"/>
       <c r="B170" s="20" t="s">
         <v>120</v>
@@ -8050,7 +8049,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40"/>
       <c r="B171" s="20" t="s">
         <v>119</v>
@@ -8072,7 +8071,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>152</v>
@@ -8092,7 +8091,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <v>37408</v>
       </c>
@@ -8118,7 +8117,7 @@
         <v>45095</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>153</v>
@@ -8138,7 +8137,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <v>37438</v>
       </c>
@@ -8164,7 +8163,7 @@
         <v>45119</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40"/>
       <c r="B176" s="20" t="s">
         <v>53</v>
@@ -8186,7 +8185,7 @@
         <v>45138</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>159</v>
@@ -8206,7 +8205,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="48"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <v>37469</v>
       </c>
@@ -8232,7 +8231,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40"/>
       <c r="B179" s="20" t="s">
         <v>107</v>
@@ -8252,7 +8251,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <v>37500</v>
       </c>
@@ -8278,7 +8277,7 @@
         <v>45179</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
         <v>53</v>
@@ -8300,7 +8299,7 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>120</v>
@@ -8318,7 +8317,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40"/>
       <c r="B183" s="20" t="s">
         <v>165</v>
@@ -8338,7 +8337,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <v>37530</v>
       </c>
@@ -8366,7 +8365,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>165</v>
@@ -8388,7 +8387,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <v>37561</v>
       </c>
@@ -8408,7 +8407,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <v>37591</v>
       </c>
@@ -8434,7 +8433,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>166</v>
@@ -8456,7 +8455,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="47" t="s">
         <v>164</v>
       </c>
@@ -8478,7 +8477,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <v>37622</v>
       </c>
@@ -8504,7 +8503,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <v>37653</v>
       </c>
@@ -8530,7 +8529,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>52</v>
@@ -8552,7 +8551,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40"/>
       <c r="B193" s="20" t="s">
         <v>53</v>
@@ -8574,7 +8573,7 @@
         <v>44975</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40"/>
       <c r="B194" s="20" t="s">
         <v>153</v>
@@ -8596,7 +8595,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <v>37681</v>
       </c>
@@ -8620,7 +8619,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <v>37712</v>
       </c>
@@ -8640,7 +8639,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <v>37742</v>
       </c>
@@ -8666,7 +8665,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>53</v>
@@ -8688,7 +8687,7 @@
         <v>45073</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>173</v>
@@ -8708,7 +8707,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <v>37773</v>
       </c>
@@ -8734,7 +8733,7 @@
         <v>45093</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <v>37803</v>
       </c>
@@ -8758,7 +8757,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>174</v>
@@ -8780,7 +8779,7 @@
         <v>45129</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <v>37834</v>
       </c>
@@ -8804,7 +8803,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>53</v>
@@ -8826,7 +8825,7 @@
         <v>45144</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
         <v>175</v>
@@ -8848,7 +8847,7 @@
         <v>45154</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <v>37865</v>
       </c>
@@ -8872,7 +8871,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40"/>
       <c r="B207" s="20" t="s">
         <v>86</v>
@@ -8894,7 +8893,7 @@
         <v>45181</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>119</v>
@@ -8918,7 +8917,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
         <v>176</v>
@@ -8940,7 +8939,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <v>37895</v>
       </c>
@@ -8964,7 +8963,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <v>37926</v>
       </c>
@@ -8992,7 +8991,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>178</v>
@@ -9012,7 +9011,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <v>37956</v>
       </c>
@@ -9038,7 +9037,7 @@
         <v>45264</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40"/>
       <c r="B214" s="20" t="s">
         <v>119</v>
@@ -9062,7 +9061,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40"/>
       <c r="B215" s="20" t="s">
         <v>120</v>
@@ -9084,7 +9083,7 @@
         <v>45276</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>120</v>
@@ -9106,7 +9105,7 @@
         <v>45283</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>120</v>
@@ -9128,7 +9127,7 @@
         <v>44934</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
         <v>184</v>
@@ -9148,7 +9147,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="47" t="s">
         <v>163</v>
       </c>
@@ -9170,7 +9169,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <v>37987</v>
       </c>
@@ -9196,7 +9195,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <v>38018</v>
       </c>
@@ -9222,7 +9221,7 @@
         <v>44940</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>120</v>
@@ -9246,7 +9245,7 @@
         <v>44961</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>120</v>
@@ -9270,7 +9269,7 @@
         <v>44968</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
         <v>119</v>
@@ -9292,7 +9291,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>186</v>
@@ -9312,7 +9311,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <v>38047</v>
       </c>
@@ -9336,7 +9335,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
         <v>38078</v>
       </c>
@@ -9362,7 +9361,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40"/>
       <c r="B228" s="20" t="s">
         <v>188</v>
@@ -9382,7 +9381,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <v>38108</v>
       </c>
@@ -9410,7 +9409,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <v>38139</v>
       </c>
@@ -9434,7 +9433,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <v>38169</v>
       </c>
@@ -9460,7 +9459,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>192</v>
@@ -9482,7 +9481,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <v>38200</v>
       </c>
@@ -9508,7 +9507,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>199</v>
@@ -9528,7 +9527,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <v>38231</v>
       </c>
@@ -9554,7 +9553,7 @@
         <v>45164</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40"/>
       <c r="B236" s="20" t="s">
         <v>53</v>
@@ -9576,7 +9575,7 @@
         <v>45177</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>200</v>
@@ -9598,7 +9597,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <v>38261</v>
       </c>
@@ -9624,7 +9623,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>53</v>
@@ -9644,7 +9643,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40"/>
       <c r="B240" s="20" t="s">
         <v>122</v>
@@ -9666,7 +9665,7 @@
         <v>45210</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>120</v>
@@ -9686,7 +9685,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>120</v>
@@ -9708,7 +9707,7 @@
         <v>45218</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40"/>
       <c r="B243" s="20" t="s">
         <v>201</v>
@@ -9730,7 +9729,7 @@
         <v>45226</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <v>38292</v>
       </c>
@@ -9758,7 +9757,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40"/>
       <c r="B245" s="20" t="s">
         <v>119</v>
@@ -9780,7 +9779,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>53</v>
@@ -9802,7 +9801,7 @@
         <v>45241</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>53</v>
@@ -9824,7 +9823,7 @@
         <v>45248</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>202</v>
@@ -9844,7 +9843,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <v>38322</v>
       </c>
@@ -9870,7 +9869,7 @@
         <v>45261</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
         <v>53</v>
@@ -9892,7 +9891,7 @@
         <v>45278</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>206</v>
@@ -9912,7 +9911,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="48"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="47" t="s">
         <v>162</v>
       </c>
@@ -9934,7 +9933,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <v>38353</v>
       </c>
@@ -9958,7 +9957,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40"/>
       <c r="B254" s="20" t="s">
         <v>208</v>
@@ -9980,7 +9979,7 @@
         <v>44980</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <v>38384</v>
       </c>
@@ -10004,7 +10003,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40"/>
       <c r="B256" s="20" t="s">
         <v>209</v>
@@ -10026,7 +10025,7 @@
         <v>44987</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <v>38412</v>
       </c>
@@ -10052,7 +10051,7 @@
         <v>45007</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>120</v>
@@ -10076,7 +10075,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>120</v>
@@ -10096,7 +10095,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40"/>
       <c r="B260" s="20" t="s">
         <v>210</v>
@@ -10116,7 +10115,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <v>38443</v>
       </c>
@@ -10142,7 +10141,7 @@
         <v>45029</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>53</v>
@@ -10164,7 +10163,7 @@
         <v>45036</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>211</v>
@@ -10186,7 +10185,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <v>38473</v>
       </c>
@@ -10212,7 +10211,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
         <v>212</v>
@@ -10232,7 +10231,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <v>38504</v>
       </c>
@@ -10258,7 +10257,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>213</v>
@@ -10278,7 +10277,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <v>38534</v>
       </c>
@@ -10304,7 +10303,7 @@
         <v>45121</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>120</v>
@@ -10328,7 +10327,7 @@
         <v>45127</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>188</v>
@@ -10350,7 +10349,7 @@
         <v>45129</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <v>38565</v>
       </c>
@@ -10378,7 +10377,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40"/>
       <c r="B272" s="20" t="s">
         <v>53</v>
@@ -10400,7 +10399,7 @@
         <v>45148</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>216</v>
@@ -10420,7 +10419,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <v>38596</v>
       </c>
@@ -10444,7 +10443,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
         <v>38626</v>
       </c>
@@ -10472,7 +10471,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>120</v>
@@ -10494,7 +10493,7 @@
         <v>45213</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
         <v>120</v>
@@ -10516,7 +10515,7 @@
         <v>45217</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40"/>
       <c r="B278" s="20" t="s">
         <v>218</v>
@@ -10538,7 +10537,7 @@
         <v>45219</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <v>38657</v>
       </c>
@@ -10564,7 +10563,7 @@
         <v>45245</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>219</v>
@@ -10586,7 +10585,7 @@
         <v>45254</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <v>38687</v>
       </c>
@@ -10612,7 +10611,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40"/>
       <c r="B282" s="20" t="s">
         <v>220</v>
@@ -10632,7 +10631,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="47" t="s">
         <v>161</v>
       </c>
@@ -10654,7 +10653,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <v>38718</v>
       </c>
@@ -10686,7 +10685,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>223</v>
@@ -10706,7 +10705,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <v>38749</v>
       </c>
@@ -10730,7 +10729,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>227</v>
@@ -10750,7 +10749,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <v>38777</v>
       </c>
@@ -10776,7 +10775,7 @@
         <v>45001</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>120</v>
@@ -10800,7 +10799,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>228</v>
@@ -10820,7 +10819,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <v>38808</v>
       </c>
@@ -10846,7 +10845,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40"/>
       <c r="B292" s="20" t="s">
         <v>53</v>
@@ -10868,7 +10867,7 @@
         <v>45083</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>229</v>
@@ -10888,7 +10887,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <v>38838</v>
       </c>
@@ -10912,7 +10911,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <v>38869</v>
       </c>
@@ -10938,7 +10937,7 @@
         <v>45086</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40"/>
       <c r="B296" s="20" t="s">
         <v>120</v>
@@ -10962,7 +10961,7 @@
         <v>45100</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>200</v>
@@ -10982,7 +10981,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <v>38899</v>
       </c>
@@ -11008,7 +11007,7 @@
         <v>45127</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40"/>
       <c r="B299" s="20" t="s">
         <v>231</v>
@@ -11028,7 +11027,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <v>38930</v>
       </c>
@@ -11054,7 +11053,7 @@
         <v>45153</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>120</v>
@@ -11078,7 +11077,7 @@
         <v>45169</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40"/>
       <c r="B302" s="20" t="s">
         <v>232</v>
@@ -11098,7 +11097,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <v>38961</v>
       </c>
@@ -11124,7 +11123,7 @@
         <v>45198</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>233</v>
@@ -11144,7 +11143,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <v>38991</v>
       </c>
@@ -11170,7 +11169,7 @@
         <v>45208</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>235</v>
@@ -11192,7 +11191,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <v>39022</v>
       </c>
@@ -11216,7 +11215,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
         <v>39052</v>
       </c>
@@ -11240,7 +11239,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="47" t="s">
         <v>160</v>
       </c>
@@ -11262,7 +11261,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <v>39083</v>
       </c>
@@ -11288,7 +11287,7 @@
         <v>44948</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <v>39114</v>
       </c>
@@ -11312,7 +11311,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <v>39142</v>
       </c>
@@ -11338,7 +11337,7 @@
         <v>44991</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>224</v>
@@ -11358,7 +11357,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>240</v>
@@ -11378,7 +11377,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <v>39173</v>
       </c>
@@ -11402,7 +11401,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <v>39203</v>
       </c>
@@ -11428,7 +11427,7 @@
         <v>45064</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
         <v>207</v>
@@ -11448,7 +11447,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40"/>
       <c r="B318" s="20" t="s">
         <v>53</v>
@@ -11470,7 +11469,7 @@
         <v>45071</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>242</v>
@@ -11490,7 +11489,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
         <v>39234</v>
       </c>
@@ -11514,7 +11513,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <v>39264</v>
       </c>
@@ -11538,7 +11537,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <v>39295</v>
       </c>
@@ -11564,7 +11563,7 @@
         <v>45146</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
         <v>245</v>
@@ -11584,7 +11583,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
         <v>39326</v>
       </c>
@@ -11610,7 +11609,7 @@
         <v>45179</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40"/>
       <c r="B325" s="20" t="s">
         <v>252</v>
@@ -11630,7 +11629,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="48"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <v>39356</v>
       </c>
@@ -11656,7 +11655,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>57</v>
@@ -11678,7 +11677,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>253</v>
@@ -11698,7 +11697,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <v>39387</v>
       </c>
@@ -11722,7 +11721,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <v>39417</v>
       </c>
@@ -11746,7 +11745,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="47" t="s">
         <v>248</v>
       </c>
@@ -11768,7 +11767,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <v>39448</v>
       </c>
@@ -11792,7 +11791,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <v>39479</v>
       </c>
@@ -11814,7 +11813,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40"/>
       <c r="B334" s="20" t="s">
         <v>257</v>
@@ -11834,7 +11833,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <v>39508</v>
       </c>
@@ -11862,7 +11861,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>53</v>
@@ -11882,7 +11881,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40"/>
       <c r="B337" s="20" t="s">
         <v>259</v>
@@ -11902,7 +11901,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <v>39539</v>
       </c>
@@ -11926,7 +11925,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
         <v>39569</v>
       </c>
@@ -11950,7 +11949,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40"/>
       <c r="B340" s="20" t="s">
         <v>261</v>
@@ -11970,7 +11969,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <v>39600</v>
       </c>
@@ -11994,7 +11993,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <v>39630</v>
       </c>
@@ -12018,7 +12017,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
         <v>263</v>
@@ -12038,7 +12037,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <v>39661</v>
       </c>
@@ -12062,7 +12061,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <v>39692</v>
       </c>
@@ -12088,7 +12087,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <v>39722</v>
       </c>
@@ -12114,7 +12113,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <v>39753</v>
       </c>
@@ -12140,7 +12139,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
         <v>39783</v>
       </c>
@@ -12166,7 +12165,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="47" t="s">
         <v>249</v>
       </c>
@@ -12188,7 +12187,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40">
         <v>39814</v>
       </c>
@@ -12212,7 +12211,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <v>39845</v>
       </c>
@@ -12236,7 +12235,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <v>39873</v>
       </c>
@@ -12260,7 +12259,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <v>39904</v>
       </c>
@@ -12284,7 +12283,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <v>39934</v>
       </c>
@@ -12310,7 +12309,7 @@
         <v>45052</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40"/>
       <c r="B355" s="20" t="s">
         <v>273</v>
@@ -12330,7 +12329,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <v>39965</v>
       </c>
@@ -12356,7 +12355,7 @@
         <v>45095</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40"/>
       <c r="B357" s="20" t="s">
         <v>274</v>
@@ -12376,7 +12375,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <v>39995</v>
       </c>
@@ -12400,7 +12399,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
         <v>40026</v>
       </c>
@@ -12424,7 +12423,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <v>40057</v>
       </c>
@@ -12450,7 +12449,7 @@
         <v>45198</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>131</v>
@@ -12472,7 +12471,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40">
         <v>40087</v>
       </c>
@@ -12498,7 +12497,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <v>40118</v>
       </c>
@@ -12522,7 +12521,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
         <v>40148</v>
       </c>
@@ -12546,7 +12545,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="47" t="s">
         <v>250</v>
       </c>
@@ -12568,7 +12567,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <v>40179</v>
       </c>
@@ -12592,7 +12591,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40">
         <v>40210</v>
       </c>
@@ -12616,7 +12615,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <v>40238</v>
       </c>
@@ -12640,7 +12639,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>53</v>
@@ -12662,7 +12661,7 @@
         <v>45004</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40"/>
       <c r="B370" s="20" t="s">
         <v>283</v>
@@ -12682,7 +12681,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <v>40269</v>
       </c>
@@ -12708,7 +12707,7 @@
         <v>45030</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40"/>
       <c r="B372" s="20" t="s">
         <v>284</v>
@@ -12728,7 +12727,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
         <v>40299</v>
       </c>
@@ -12752,7 +12751,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40"/>
       <c r="B374" s="20" t="s">
         <v>285</v>
@@ -12772,7 +12771,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <v>40330</v>
       </c>
@@ -12796,7 +12795,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
         <v>40360</v>
       </c>
@@ -12822,7 +12821,7 @@
         <v>45116</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40"/>
       <c r="B377" s="20" t="s">
         <v>53</v>
@@ -12844,7 +12843,7 @@
         <v>45121</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
         <v>53</v>
@@ -12864,7 +12863,7 @@
         <v>45129</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40"/>
       <c r="B379" s="20" t="s">
         <v>287</v>
@@ -12884,7 +12883,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <v>40391</v>
       </c>
@@ -12910,7 +12909,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40"/>
       <c r="B381" s="20" t="s">
         <v>57</v>
@@ -12932,7 +12931,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40"/>
       <c r="B382" s="20" t="s">
         <v>288</v>
@@ -12952,7 +12951,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <v>40422</v>
       </c>
@@ -12978,7 +12977,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40"/>
       <c r="B384" s="20" t="s">
         <v>57</v>
@@ -13000,7 +12999,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40"/>
       <c r="B385" s="20" t="s">
         <v>294</v>
@@ -13020,7 +13019,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
         <v>40452</v>
       </c>
@@ -13046,7 +13045,7 @@
         <v>45206</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
         <v>295</v>
@@ -13066,7 +13065,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
         <v>40483</v>
       </c>
@@ -13092,7 +13091,7 @@
         <v>45232</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40"/>
       <c r="B389" s="20" t="s">
         <v>53</v>
@@ -13114,7 +13113,7 @@
         <v>45219</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40"/>
       <c r="B390" s="20" t="s">
         <v>296</v>
@@ -13134,7 +13133,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
         <v>40513</v>
       </c>
@@ -13160,7 +13159,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40"/>
       <c r="B392" s="20" t="s">
         <v>96</v>
@@ -13180,7 +13179,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="47" t="s">
         <v>251</v>
       </c>
@@ -13202,7 +13201,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
         <v>40544</v>
       </c>
@@ -13226,7 +13225,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40"/>
       <c r="B395" s="20" t="s">
         <v>303</v>
@@ -13246,7 +13245,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
         <v>40575</v>
       </c>
@@ -13270,7 +13269,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <v>40603</v>
       </c>
@@ -13296,7 +13295,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40"/>
       <c r="B398" s="20" t="s">
         <v>57</v>
@@ -13318,7 +13317,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40"/>
       <c r="B399" s="20" t="s">
         <v>305</v>
@@ -13338,7 +13337,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
         <v>40634</v>
       </c>
@@ -13364,7 +13363,7 @@
         <v>45027</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40"/>
       <c r="B401" s="20" t="s">
         <v>306</v>
@@ -13384,7 +13383,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
         <v>40664</v>
       </c>
@@ -13410,7 +13409,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40"/>
       <c r="B403" s="20" t="s">
         <v>307</v>
@@ -13430,7 +13429,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
         <v>40695</v>
       </c>
@@ -13454,7 +13453,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
         <v>40725</v>
       </c>
@@ -13478,7 +13477,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
         <v>40756</v>
       </c>
@@ -13504,7 +13503,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40"/>
       <c r="B407" s="20" t="s">
         <v>311</v>
@@ -13524,7 +13523,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
         <v>40787</v>
       </c>
@@ -13550,7 +13549,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40"/>
       <c r="B409" s="20" t="s">
         <v>57</v>
@@ -13572,7 +13571,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40"/>
       <c r="B410" s="20" t="s">
         <v>313</v>
@@ -13592,7 +13591,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
         <v>40817</v>
       </c>
@@ -13618,7 +13617,7 @@
         <v>45226</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
         <v>40848</v>
       </c>
@@ -13644,7 +13643,7 @@
         <v>45241</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40"/>
       <c r="B413" s="20" t="s">
         <v>224</v>
@@ -13664,7 +13663,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40"/>
       <c r="B414" s="20" t="s">
         <v>315</v>
@@ -13684,7 +13683,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40">
         <v>40878</v>
       </c>
@@ -13708,7 +13707,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="47" t="s">
         <v>299</v>
       </c>
@@ -13730,7 +13729,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
         <v>40909</v>
       </c>
@@ -13756,7 +13755,7 @@
         <v>44928</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40"/>
       <c r="B418" s="20" t="s">
         <v>320</v>
@@ -13776,7 +13775,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
         <v>40940</v>
       </c>
@@ -13806,7 +13805,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40"/>
       <c r="B420" s="20" t="s">
         <v>321</v>
@@ -13826,7 +13825,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <v>40969</v>
       </c>
@@ -13850,7 +13849,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40">
         <v>41000</v>
       </c>
@@ -13876,7 +13875,7 @@
         <v>45027</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40"/>
       <c r="B423" s="20" t="s">
         <v>57</v>
@@ -13898,7 +13897,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40"/>
       <c r="B424" s="20" t="s">
         <v>325</v>
@@ -13918,7 +13917,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
         <v>41030</v>
       </c>
@@ -13942,7 +13941,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
         <v>41061</v>
       </c>
@@ -13966,7 +13965,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
         <v>41091</v>
       </c>
@@ -13992,7 +13991,7 @@
         <v>45116</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40"/>
       <c r="B428" s="20" t="s">
         <v>53</v>
@@ -14014,7 +14013,7 @@
         <v>45137</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40"/>
       <c r="B429" s="20" t="s">
         <v>328</v>
@@ -14034,7 +14033,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
         <v>41122</v>
       </c>
@@ -14060,7 +14059,7 @@
         <v>45169</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40"/>
       <c r="B431" s="20" t="s">
         <v>329</v>
@@ -14080,7 +14079,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
         <v>41153</v>
       </c>
@@ -14106,7 +14105,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40"/>
       <c r="B433" s="20" t="s">
         <v>330</v>
@@ -14126,7 +14125,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
         <v>41183</v>
       </c>
@@ -14150,7 +14149,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40"/>
       <c r="B435" s="20" t="s">
         <v>96</v>
@@ -14172,7 +14171,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40"/>
       <c r="B436" s="20" t="s">
         <v>331</v>
@@ -14192,7 +14191,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
         <v>41214</v>
       </c>
@@ -14216,7 +14215,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40"/>
       <c r="B438" s="20" t="s">
         <v>332</v>
@@ -14236,7 +14235,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
         <v>41244</v>
       </c>
@@ -14262,7 +14261,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40"/>
       <c r="B440" s="20" t="s">
         <v>96</v>
@@ -14282,7 +14281,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="47" t="s">
         <v>300</v>
       </c>
@@ -14304,7 +14303,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
         <v>41275</v>
       </c>
@@ -14328,7 +14327,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
         <v>41306</v>
       </c>
@@ -14352,7 +14351,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
         <v>41334</v>
       </c>
@@ -14378,7 +14377,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40"/>
       <c r="B445" s="20" t="s">
         <v>122</v>
@@ -14402,7 +14401,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40"/>
       <c r="B446" s="20" t="s">
         <v>340</v>
@@ -14422,7 +14421,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40">
         <v>41365</v>
       </c>
@@ -14448,7 +14447,7 @@
         <v>45039</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40"/>
       <c r="B448" s="20" t="s">
         <v>341</v>
@@ -14470,7 +14469,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40">
         <v>41395</v>
       </c>
@@ -14498,7 +14497,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40"/>
       <c r="B450" s="20" t="s">
         <v>122</v>
@@ -14522,7 +14521,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40"/>
       <c r="B451" s="20" t="s">
         <v>342</v>
@@ -14544,7 +14543,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40">
         <v>41426</v>
       </c>
@@ -14570,7 +14569,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
         <v>41456</v>
       </c>
@@ -14596,7 +14595,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40"/>
       <c r="B454" s="20" t="s">
         <v>344</v>
@@ -14618,7 +14617,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40">
         <v>41487</v>
       </c>
@@ -14644,7 +14643,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40"/>
       <c r="B456" s="20" t="s">
         <v>345</v>
@@ -14664,7 +14663,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
         <v>41518</v>
       </c>
@@ -14690,7 +14689,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
         <v>41548</v>
       </c>
@@ -14716,7 +14715,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
         <v>41579</v>
       </c>
@@ -14742,7 +14741,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
         <v>41609</v>
       </c>
@@ -14768,7 +14767,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40"/>
       <c r="B461" s="20" t="s">
         <v>207</v>
@@ -14788,7 +14787,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40"/>
       <c r="B462" s="20" t="s">
         <v>349</v>
@@ -14810,7 +14809,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="47" t="s">
         <v>301</v>
       </c>
@@ -14832,7 +14831,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
         <v>41640</v>
       </c>
@@ -14860,7 +14859,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40"/>
       <c r="B465" s="20" t="s">
         <v>357</v>
@@ -14882,7 +14881,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40">
         <v>41671</v>
       </c>
@@ -14906,7 +14905,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40">
         <v>41699</v>
       </c>
@@ -14932,7 +14931,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
         <v>41730</v>
       </c>
@@ -14956,7 +14955,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40">
         <v>41760</v>
       </c>
@@ -14980,7 +14979,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40"/>
       <c r="B470" s="20" t="s">
         <v>57</v>
@@ -15004,7 +15003,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40"/>
       <c r="B471" s="20" t="s">
         <v>361</v>
@@ -15024,7 +15023,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40">
         <v>41791</v>
       </c>
@@ -15050,7 +15049,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40"/>
       <c r="B473" s="20" t="s">
         <v>362</v>
@@ -15070,7 +15069,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40">
         <v>41821</v>
       </c>
@@ -15096,7 +15095,7 @@
         <v>45108</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40"/>
       <c r="B475" s="20" t="s">
         <v>363</v>
@@ -15118,7 +15117,7 @@
         <v>45124</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40">
         <v>41852</v>
       </c>
@@ -15144,7 +15143,7 @@
         <v>45160</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40"/>
       <c r="B477" s="20" t="s">
         <v>364</v>
@@ -15164,7 +15163,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40">
         <v>41883</v>
       </c>
@@ -15190,7 +15189,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40"/>
       <c r="B479" s="20" t="s">
         <v>312</v>
@@ -15214,7 +15213,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40"/>
       <c r="B480" s="20" t="s">
         <v>365</v>
@@ -15234,7 +15233,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
         <v>41913</v>
       </c>
@@ -15262,7 +15261,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40"/>
       <c r="B482" s="20" t="s">
         <v>119</v>
@@ -15286,7 +15285,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40"/>
       <c r="B483" s="20" t="s">
         <v>366</v>
@@ -15308,7 +15307,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40">
         <v>41944</v>
       </c>
@@ -15334,7 +15333,7 @@
         <v>45248</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40"/>
       <c r="B485" s="20" t="s">
         <v>57</v>
@@ -15356,7 +15355,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40"/>
       <c r="B486" s="20" t="s">
         <v>207</v>
@@ -15376,7 +15375,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40"/>
       <c r="B487" s="20" t="s">
         <v>207</v>
@@ -15396,7 +15395,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40"/>
       <c r="B488" s="20" t="s">
         <v>152</v>
@@ -15416,7 +15415,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
         <v>41974</v>
       </c>
@@ -15440,7 +15439,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="47" t="s">
         <v>302</v>
       </c>
@@ -15462,7 +15461,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
         <v>42005</v>
       </c>
@@ -15486,7 +15485,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40"/>
       <c r="B492" s="20" t="s">
         <v>53</v>
@@ -15508,7 +15507,7 @@
         <v>44959</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40"/>
       <c r="B493" s="20" t="s">
         <v>383</v>
@@ -15528,7 +15527,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
         <v>42036</v>
       </c>
@@ -15552,7 +15551,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
         <v>42064</v>
       </c>
@@ -15578,7 +15577,7 @@
         <v>45004</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40"/>
       <c r="B496" s="20" t="s">
         <v>53</v>
@@ -15600,7 +15599,7 @@
         <v>45011</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40"/>
       <c r="B497" s="20" t="s">
         <v>385</v>
@@ -15620,7 +15619,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
         <v>42095</v>
       </c>
@@ -15646,7 +15645,7 @@
         <v>45045</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40"/>
       <c r="B499" s="20" t="s">
         <v>387</v>
@@ -15666,7 +15665,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
         <v>42125</v>
       </c>
@@ -15692,7 +15691,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40"/>
       <c r="B501" s="20" t="s">
         <v>386</v>
@@ -15712,7 +15711,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40"/>
       <c r="B502" s="20" t="s">
         <v>390</v>
@@ -15732,7 +15731,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
         <v>42156</v>
       </c>
@@ -15758,7 +15757,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
         <v>42186</v>
       </c>
@@ -15778,7 +15777,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
         <v>42217</v>
       </c>
@@ -15802,7 +15801,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
         <v>42248</v>
       </c>
@@ -15828,7 +15827,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40"/>
       <c r="B507" s="20" t="s">
         <v>53</v>
@@ -15850,7 +15849,7 @@
         <v>45199</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40"/>
       <c r="B508" s="20" t="s">
         <v>393</v>
@@ -15870,7 +15869,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
         <v>42278</v>
       </c>
@@ -15896,7 +15895,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40"/>
       <c r="B510" s="20" t="s">
         <v>394</v>
@@ -15916,7 +15915,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
         <v>42309</v>
       </c>
@@ -15942,7 +15941,7 @@
         <v>45232</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40"/>
       <c r="B512" s="20" t="s">
         <v>53</v>
@@ -15964,7 +15963,7 @@
         <v>45246</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40"/>
       <c r="B513" s="20" t="s">
         <v>53</v>
@@ -15986,7 +15985,7 @@
         <v>45283</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40"/>
       <c r="B514" s="20" t="s">
         <v>207</v>
@@ -16006,7 +16005,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40"/>
       <c r="B515" s="20" t="s">
         <v>396</v>
@@ -16026,7 +16025,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
         <v>42339</v>
       </c>
@@ -16050,7 +16049,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="47" t="s">
         <v>376</v>
       </c>
@@ -16072,7 +16071,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
         <v>42370</v>
       </c>
@@ -16098,7 +16097,7 @@
         <v>44930</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40"/>
       <c r="B519" s="20" t="s">
         <v>399</v>
@@ -16118,7 +16117,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40">
         <v>42401</v>
       </c>
@@ -16142,7 +16141,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40"/>
       <c r="B521" s="20" t="s">
         <v>400</v>
@@ -16164,7 +16163,7 @@
         <v>44968</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
         <v>42430</v>
       </c>
@@ -16192,7 +16191,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40"/>
       <c r="B523" s="20" t="s">
         <v>401</v>
@@ -16214,7 +16213,7 @@
         <v>45008</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
         <v>42461</v>
       </c>
@@ -16238,7 +16237,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40"/>
       <c r="B525" s="20" t="s">
         <v>53</v>
@@ -16258,7 +16257,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40"/>
       <c r="B526" s="20" t="s">
         <v>402</v>
@@ -16280,7 +16279,7 @@
         <v>45038</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
         <v>42491</v>
       </c>
@@ -16304,7 +16303,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
         <v>42522</v>
       </c>
@@ -16328,7 +16327,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40"/>
       <c r="B529" s="20" t="s">
         <v>404</v>
@@ -16350,7 +16349,7 @@
         <v>45097</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
         <v>42552</v>
       </c>
@@ -16374,7 +16373,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40"/>
       <c r="B531" s="20" t="s">
         <v>285</v>
@@ -16396,7 +16395,7 @@
         <v>45128</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
         <v>42583</v>
       </c>
@@ -16422,7 +16421,7 @@
         <v>45148</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40"/>
       <c r="B533" s="20" t="s">
         <v>53</v>
@@ -16444,7 +16443,7 @@
         <v>45160</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40"/>
       <c r="B534" s="20" t="s">
         <v>405</v>
@@ -16464,7 +16463,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
         <v>42614</v>
       </c>
@@ -16490,7 +16489,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40"/>
       <c r="B536" s="20" t="s">
         <v>53</v>
@@ -16512,7 +16511,7 @@
         <v>45199</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40"/>
       <c r="B537" s="20" t="s">
         <v>407</v>
@@ -16534,7 +16533,7 @@
         <v>45209</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
         <v>42644</v>
       </c>
@@ -16560,7 +16559,7 @@
         <v>45240</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40"/>
       <c r="B539" s="20" t="s">
         <v>53</v>
@@ -16582,7 +16581,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40"/>
       <c r="B540" s="20" t="s">
         <v>224</v>
@@ -16600,7 +16599,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40"/>
       <c r="B541" s="20" t="s">
         <v>294</v>
@@ -16620,7 +16619,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
         <v>42675</v>
       </c>
@@ -16646,7 +16645,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40"/>
       <c r="B543" s="20" t="s">
         <v>53</v>
@@ -16668,7 +16667,7 @@
         <v>45255</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40"/>
       <c r="B544" s="20" t="s">
         <v>409</v>
@@ -16688,7 +16687,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
         <v>42705</v>
       </c>
@@ -16714,7 +16713,7 @@
         <v>45269</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40"/>
       <c r="B546" s="20" t="s">
         <v>120</v>
@@ -16736,7 +16735,7 @@
         <v>45287</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40"/>
       <c r="B547" s="20" t="s">
         <v>410</v>
@@ -16756,7 +16755,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="47" t="s">
         <v>377</v>
       </c>
@@ -16778,7 +16777,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
         <v>42736</v>
       </c>
@@ -16804,7 +16803,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40"/>
       <c r="B550" s="20" t="s">
         <v>120</v>
@@ -16828,7 +16827,7 @@
         <v>44951</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40"/>
       <c r="B551" s="20" t="s">
         <v>412</v>
@@ -16850,7 +16849,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
         <v>42767</v>
       </c>
@@ -16876,7 +16875,7 @@
         <v>44970</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40"/>
       <c r="B553" s="20" t="s">
         <v>413</v>
@@ -16896,7 +16895,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
         <v>42795</v>
       </c>
@@ -16926,7 +16925,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40"/>
       <c r="B555" s="20" t="s">
         <v>120</v>
@@ -16950,7 +16949,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40"/>
       <c r="B556" s="20" t="s">
         <v>120</v>
@@ -16974,7 +16973,7 @@
         <v>44999</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40"/>
       <c r="B557" s="20" t="s">
         <v>81</v>
@@ -16994,7 +16993,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
         <v>42826</v>
       </c>
@@ -17020,7 +17019,7 @@
         <v>45036</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40"/>
       <c r="B559" s="20" t="s">
         <v>52</v>
@@ -17042,7 +17041,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
         <v>42856</v>
       </c>
@@ -17068,7 +17067,7 @@
         <v>45068</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40"/>
       <c r="B561" s="20" t="s">
         <v>415</v>
@@ -17088,7 +17087,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
         <v>42887</v>
       </c>
@@ -17116,7 +17115,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
         <v>42917</v>
       </c>
@@ -17140,7 +17139,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40"/>
       <c r="B564" s="20" t="s">
         <v>120</v>
@@ -17166,7 +17165,7 @@
         <v>45117</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40"/>
       <c r="B565" s="20" t="s">
         <v>53</v>
@@ -17190,7 +17189,7 @@
         <v>45124</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40"/>
       <c r="B566" s="20" t="s">
         <v>416</v>
@@ -17212,7 +17211,7 @@
         <v>45135</v>
       </c>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
         <v>42948</v>
       </c>
@@ -17236,7 +17235,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
         <v>42979</v>
       </c>
@@ -17260,7 +17259,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40"/>
       <c r="B569" s="20" t="s">
         <v>53</v>
@@ -17282,7 +17281,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40"/>
       <c r="B570" s="20" t="s">
         <v>53</v>
@@ -17304,7 +17303,7 @@
         <v>45175</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40"/>
       <c r="B571" s="20" t="s">
         <v>418</v>
@@ -17326,7 +17325,7 @@
         <v>45184</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
         <v>43009</v>
       </c>
@@ -17350,7 +17349,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40"/>
       <c r="B573" s="20" t="s">
         <v>53</v>
@@ -17374,7 +17373,7 @@
         <v>45203</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40"/>
       <c r="B574" s="20" t="s">
         <v>120</v>
@@ -17396,7 +17395,7 @@
         <v>45191</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40"/>
       <c r="B575" s="20" t="s">
         <v>419</v>
@@ -17418,7 +17417,7 @@
         <v>45222</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40">
         <v>43040</v>
       </c>
@@ -17444,7 +17443,7 @@
         <v>45232</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40"/>
       <c r="B577" s="20" t="s">
         <v>53</v>
@@ -17466,7 +17465,7 @@
         <v>45243</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40">
         <v>43070</v>
       </c>
@@ -17492,7 +17491,7 @@
         <v>45261</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40"/>
       <c r="B579" s="20" t="s">
         <v>120</v>
@@ -17516,7 +17515,7 @@
         <v>45271</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40"/>
       <c r="B580" s="20" t="s">
         <v>207</v>
@@ -17536,7 +17535,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40"/>
       <c r="B581" s="20" t="s">
         <v>224</v>
@@ -17556,7 +17555,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="47" t="s">
         <v>378</v>
       </c>
@@ -17578,7 +17577,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40">
         <v>43101</v>
       </c>
@@ -17604,7 +17603,7 @@
         <v>44929</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40"/>
       <c r="B584" s="20" t="s">
         <v>120</v>
@@ -17628,7 +17627,7 @@
         <v>44934</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40">
         <v>43132</v>
       </c>
@@ -17652,7 +17651,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40"/>
       <c r="B586" s="20" t="s">
         <v>52</v>
@@ -17674,7 +17673,7 @@
         <v>44976</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40">
         <v>43160</v>
       </c>
@@ -17700,7 +17699,7 @@
         <v>44986</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40"/>
       <c r="B588" s="20" t="s">
         <v>53</v>
@@ -17722,7 +17721,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40">
         <v>43191</v>
       </c>
@@ -17750,7 +17749,7 @@
         <v>44987</v>
       </c>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40"/>
       <c r="B590" s="20" t="s">
         <v>120</v>
@@ -17772,7 +17771,7 @@
         <v>44993</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40"/>
       <c r="B591" s="20" t="s">
         <v>57</v>
@@ -17794,7 +17793,7 @@
         <v>45012</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40"/>
       <c r="B592" s="20" t="s">
         <v>423</v>
@@ -17816,7 +17815,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40">
         <v>43221</v>
       </c>
@@ -17842,7 +17841,7 @@
         <v>45055</v>
       </c>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40"/>
       <c r="B594" s="20" t="s">
         <v>53</v>
@@ -17868,7 +17867,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40"/>
       <c r="B595" s="20" t="s">
         <v>120</v>
@@ -17890,7 +17889,7 @@
         <v>45068</v>
       </c>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40"/>
       <c r="B596" s="20" t="s">
         <v>425</v>
@@ -17910,7 +17909,7 @@
       <c r="J596" s="11"/>
       <c r="K596" s="20"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40">
         <v>43252</v>
       </c>
@@ -17936,7 +17935,7 @@
         <v>45090</v>
       </c>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40"/>
       <c r="B598" s="20" t="s">
         <v>426</v>
@@ -17956,7 +17955,7 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40">
         <v>43282</v>
       </c>
@@ -17982,7 +17981,7 @@
         <v>45123</v>
       </c>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40"/>
       <c r="B600" s="20" t="s">
         <v>120</v>
@@ -18008,7 +18007,7 @@
         <v>45130</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40"/>
       <c r="B601" s="20" t="s">
         <v>427</v>
@@ -18028,7 +18027,7 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40">
         <v>43313</v>
       </c>
@@ -18054,7 +18053,7 @@
         <v>45159</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40"/>
       <c r="B603" s="20" t="s">
         <v>120</v>
@@ -18076,7 +18075,7 @@
         <v>45162</v>
       </c>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40"/>
       <c r="B604" s="20" t="s">
         <v>428</v>
@@ -18096,7 +18095,7 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40">
         <v>43344</v>
       </c>
@@ -18122,7 +18121,7 @@
         <v>45173</v>
       </c>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40"/>
       <c r="B606" s="20" t="s">
         <v>86</v>
@@ -18144,7 +18143,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40"/>
       <c r="B607" s="20" t="s">
         <v>120</v>
@@ -18166,7 +18165,7 @@
         <v>45187</v>
       </c>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40"/>
       <c r="B608" s="20" t="s">
         <v>429</v>
@@ -18188,7 +18187,7 @@
         <v>45181</v>
       </c>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40">
         <v>43374</v>
       </c>
@@ -18214,7 +18213,7 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40">
         <v>43405</v>
       </c>
@@ -18240,7 +18239,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40"/>
       <c r="B611" s="20" t="s">
         <v>432</v>
@@ -18262,7 +18261,7 @@
         <v>45246</v>
       </c>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40">
         <v>43435</v>
       </c>
@@ -18288,7 +18287,7 @@
         <v>45267</v>
       </c>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="40"/>
       <c r="B613" s="20" t="s">
         <v>53</v>
@@ -18310,7 +18309,7 @@
         <v>45274</v>
       </c>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="40"/>
       <c r="B614" s="20" t="s">
         <v>207</v>
@@ -18330,7 +18329,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="40"/>
       <c r="B615" s="20" t="s">
         <v>53</v>
@@ -18352,7 +18351,7 @@
         <v>45279</v>
       </c>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="40"/>
       <c r="B616" s="20" t="s">
         <v>53</v>
@@ -18374,7 +18373,7 @@
         <v>45287</v>
       </c>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="40"/>
       <c r="B617" s="20" t="s">
         <v>93</v>
@@ -18394,7 +18393,7 @@
       <c r="J617" s="11"/>
       <c r="K617" s="20"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="47" t="s">
         <v>379</v>
       </c>
@@ -18416,7 +18415,7 @@
       <c r="J618" s="11"/>
       <c r="K618" s="20"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="40">
         <v>43466</v>
       </c>
@@ -18442,7 +18441,7 @@
         <v>44943</v>
       </c>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="40"/>
       <c r="B620" s="20" t="s">
         <v>120</v>
@@ -18464,7 +18463,7 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="40">
         <v>43497</v>
       </c>
@@ -18484,7 +18483,7 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="40">
         <v>43525</v>
       </c>
@@ -18510,7 +18509,7 @@
         <v>44990</v>
       </c>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="40"/>
       <c r="B623" s="20" t="s">
         <v>53</v>
@@ -18532,7 +18531,7 @@
         <v>45018</v>
       </c>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="40">
         <v>43556</v>
       </c>
@@ -18558,7 +18557,7 @@
         <v>45041</v>
       </c>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="40"/>
       <c r="B625" s="20" t="s">
         <v>52</v>
@@ -18580,7 +18579,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="40">
         <v>43586</v>
       </c>
@@ -18606,7 +18605,7 @@
         <v>45049</v>
       </c>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="40">
         <v>43617</v>
       </c>
@@ -18630,7 +18629,7 @@
       <c r="J627" s="11"/>
       <c r="K627" s="20"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="40"/>
       <c r="B628" s="20" t="s">
         <v>52</v>
@@ -18652,7 +18651,7 @@
         <v>45095</v>
       </c>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="40">
         <v>43647</v>
       </c>
@@ -18678,7 +18677,7 @@
         <v>45122</v>
       </c>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="40">
         <v>43678</v>
       </c>
@@ -18702,7 +18701,7 @@
       <c r="J630" s="11"/>
       <c r="K630" s="20"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="40">
         <v>43709</v>
       </c>
@@ -18728,7 +18727,7 @@
         <v>45119</v>
       </c>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="40"/>
       <c r="B632" s="20" t="s">
         <v>119</v>
@@ -18748,7 +18747,7 @@
       <c r="J632" s="11"/>
       <c r="K632" s="20"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="40"/>
       <c r="B633" s="20" t="s">
         <v>120</v>
@@ -18770,7 +18769,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="40"/>
       <c r="B634" s="20" t="s">
         <v>119</v>
@@ -18792,7 +18791,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="40"/>
       <c r="B635" s="20" t="s">
         <v>119</v>
@@ -18814,7 +18813,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="40"/>
       <c r="B636" s="20" t="s">
         <v>52</v>
@@ -18836,7 +18835,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="40">
         <v>43739</v>
       </c>
@@ -18864,7 +18863,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="40">
         <v>43770</v>
       </c>
@@ -18886,7 +18885,7 @@
         <v>45210</v>
       </c>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="40">
         <v>43800</v>
       </c>
@@ -18912,7 +18911,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="40"/>
       <c r="B640" s="20"/>
       <c r="C640" s="13"/>
@@ -18930,7 +18929,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="47" t="s">
         <v>380</v>
       </c>
@@ -18952,7 +18951,7 @@
       <c r="J641" s="11"/>
       <c r="K641" s="20"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="40">
         <v>43831</v>
       </c>
@@ -18978,7 +18977,7 @@
         <v>44941</v>
       </c>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="40"/>
       <c r="B643" s="20" t="s">
         <v>439</v>
@@ -18998,7 +18997,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="40"/>
       <c r="B644" s="20" t="s">
         <v>52</v>
@@ -19020,7 +19019,7 @@
         <v>44944</v>
       </c>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="40">
         <v>43862</v>
       </c>
@@ -19044,7 +19043,7 @@
         <v>44975</v>
       </c>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="40"/>
       <c r="B646" s="20" t="s">
         <v>207</v>
@@ -19064,7 +19063,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="40">
         <v>43891</v>
       </c>
@@ -19084,7 +19083,7 @@
       <c r="J647" s="11"/>
       <c r="K647" s="20"/>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="40">
         <v>43922</v>
       </c>
@@ -19104,7 +19103,7 @@
       <c r="J648" s="11"/>
       <c r="K648" s="20"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="40">
         <v>43952</v>
       </c>
@@ -19124,7 +19123,7 @@
       <c r="J649" s="11"/>
       <c r="K649" s="20"/>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="40">
         <v>43983</v>
       </c>
@@ -19144,7 +19143,7 @@
       <c r="J650" s="11"/>
       <c r="K650" s="20"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="40">
         <v>44013</v>
       </c>
@@ -19164,7 +19163,7 @@
       <c r="J651" s="11"/>
       <c r="K651" s="20"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="40">
         <v>44044</v>
       </c>
@@ -19190,7 +19189,7 @@
         <v>45157</v>
       </c>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="40"/>
       <c r="B653" s="20" t="s">
         <v>224</v>
@@ -19210,7 +19209,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="40"/>
       <c r="B654" s="20" t="s">
         <v>53</v>
@@ -19232,7 +19231,7 @@
         <v>45162</v>
       </c>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="40">
         <v>44075</v>
       </c>
@@ -19258,7 +19257,7 @@
         <v>45179</v>
       </c>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="40">
         <v>44105</v>
       </c>
@@ -19278,7 +19277,7 @@
       <c r="J656" s="11"/>
       <c r="K656" s="20"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="40">
         <v>44136</v>
       </c>
@@ -19304,7 +19303,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="40">
         <v>44166</v>
       </c>
@@ -19324,7 +19323,7 @@
       <c r="J658" s="11"/>
       <c r="K658" s="20"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="47" t="s">
         <v>381</v>
       </c>
@@ -19346,7 +19345,7 @@
       <c r="J659" s="11"/>
       <c r="K659" s="20"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="40">
         <v>44197</v>
       </c>
@@ -19372,7 +19371,7 @@
         <v>44944</v>
       </c>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="40">
         <v>44228</v>
       </c>
@@ -19398,7 +19397,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="40"/>
       <c r="B662" s="20" t="s">
         <v>53</v>
@@ -19420,7 +19419,7 @@
         <v>44983</v>
       </c>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="40"/>
       <c r="B663" s="20" t="s">
         <v>53</v>
@@ -19442,7 +19441,7 @@
         <v>44990</v>
       </c>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="40">
         <v>44256</v>
       </c>
@@ -19462,7 +19461,7 @@
       <c r="J664" s="11"/>
       <c r="K664" s="20"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="40">
         <v>44287</v>
       </c>
@@ -19482,7 +19481,7 @@
       <c r="J665" s="11"/>
       <c r="K665" s="20"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="40">
         <v>44317</v>
       </c>
@@ -19502,7 +19501,7 @@
       <c r="J666" s="11"/>
       <c r="K666" s="20"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="40">
         <v>44348</v>
       </c>
@@ -19522,7 +19521,7 @@
       <c r="J667" s="11"/>
       <c r="K667" s="20"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="40">
         <v>44378</v>
       </c>
@@ -19548,7 +19547,7 @@
         <v>45135</v>
       </c>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="40">
         <v>44409</v>
       </c>
@@ -19572,7 +19571,7 @@
       <c r="J669" s="11"/>
       <c r="K669" s="20"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="40">
         <v>44440</v>
       </c>
@@ -19594,7 +19593,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="40">
         <v>44470</v>
       </c>
@@ -19620,7 +19619,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="40"/>
       <c r="B672" s="20" t="s">
         <v>86</v>
@@ -19642,7 +19641,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="40"/>
       <c r="B673" s="20" t="s">
         <v>207</v>
@@ -19662,7 +19661,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="40">
         <v>44501</v>
       </c>
@@ -19686,7 +19685,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="40">
         <v>44531</v>
       </c>
@@ -19706,7 +19705,7 @@
       <c r="J675" s="11"/>
       <c r="K675" s="20"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="47" t="s">
         <v>382</v>
       </c>
@@ -19728,7 +19727,7 @@
       <c r="J676" s="11"/>
       <c r="K676" s="20"/>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="40">
         <v>44562</v>
       </c>
@@ -19754,7 +19753,7 @@
         <v>44952</v>
       </c>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="40"/>
       <c r="B678" s="20" t="s">
         <v>53</v>
@@ -19776,7 +19775,7 @@
         <v>44968</v>
       </c>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="40">
         <v>44593</v>
       </c>
@@ -19800,7 +19799,7 @@
       <c r="J679" s="11"/>
       <c r="K679" s="20"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="40">
         <v>44621</v>
       </c>
@@ -19826,7 +19825,7 @@
         <v>44988</v>
       </c>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="40">
         <v>44652</v>
       </c>
@@ -19848,7 +19847,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="40">
         <v>44682</v>
       </c>
@@ -19874,7 +19873,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="40"/>
       <c r="B683" s="20" t="s">
         <v>53</v>
@@ -19896,7 +19895,7 @@
         <v>45080</v>
       </c>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="40">
         <v>44713</v>
       </c>
@@ -19916,7 +19915,7 @@
       <c r="J684" s="11"/>
       <c r="K684" s="20"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="40">
         <v>44743</v>
       </c>
@@ -19936,7 +19935,7 @@
       <c r="J685" s="11"/>
       <c r="K685" s="20"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="40">
         <v>44774</v>
       </c>
@@ -19962,7 +19961,7 @@
         <v>45147</v>
       </c>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="40">
         <v>44805</v>
       </c>
@@ -19988,7 +19987,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="40"/>
       <c r="B688" s="20" t="s">
         <v>57</v>
@@ -20010,7 +20009,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="40">
         <v>44835</v>
       </c>
@@ -20030,7 +20029,7 @@
       <c r="J689" s="11"/>
       <c r="K689" s="20"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="40">
         <v>44866</v>
       </c>
@@ -20056,7 +20055,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="40"/>
       <c r="B691" s="20" t="s">
         <v>57</v>
@@ -20078,7 +20077,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="40">
         <v>44896</v>
       </c>
@@ -20102,7 +20101,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="47" t="s">
         <v>450</v>
       </c>
@@ -20120,7 +20119,7 @@
       <c r="J693" s="11"/>
       <c r="K693" s="20"/>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="40">
         <v>44927</v>
       </c>
@@ -20140,7 +20139,7 @@
       <c r="J694" s="11"/>
       <c r="K694" s="20"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="40">
         <f>EDATE(A694,1)</f>
         <v>44958</v>
@@ -20161,7 +20160,7 @@
       <c r="J695" s="11"/>
       <c r="K695" s="20"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="40">
         <f t="shared" ref="A696:A711" si="0">EDATE(A695,1)</f>
         <v>44986</v>
@@ -20188,7 +20187,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" s="40"/>
       <c r="B697" s="20" t="s">
         <v>53</v>
@@ -20210,7 +20209,7 @@
         <v>44991</v>
       </c>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="40">
         <f>EDATE(A696,1)</f>
         <v>45017</v>
@@ -20229,9 +20228,9 @@
       <c r="H698" s="39"/>
       <c r="I698" s="9"/>
       <c r="J698" s="11"/>
-      <c r="K698" s="20"/>
-    </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K698" s="49"/>
+    </row>
+    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="40">
         <f t="shared" si="0"/>
         <v>45047</v>
@@ -20256,7 +20255,7 @@
         <v>45044</v>
       </c>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" s="40"/>
       <c r="B700" s="20" t="s">
         <v>53</v>
@@ -20278,7 +20277,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="40">
         <f>EDATE(A699,1)</f>
         <v>45078</v>
@@ -20297,7 +20296,7 @@
       <c r="J701" s="11"/>
       <c r="K701" s="20"/>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="40">
         <f t="shared" si="0"/>
         <v>45108</v>
@@ -20316,7 +20315,7 @@
       <c r="J702" s="11"/>
       <c r="K702" s="20"/>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" s="40">
         <f t="shared" si="0"/>
         <v>45139</v>
@@ -20335,7 +20334,7 @@
       <c r="J703" s="11"/>
       <c r="K703" s="20"/>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" s="40">
         <f t="shared" si="0"/>
         <v>45170</v>
@@ -20354,7 +20353,7 @@
       <c r="J704" s="11"/>
       <c r="K704" s="20"/>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A705" s="40">
         <f t="shared" si="0"/>
         <v>45200</v>
@@ -20373,7 +20372,7 @@
       <c r="J705" s="11"/>
       <c r="K705" s="20"/>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A706" s="40">
         <f t="shared" si="0"/>
         <v>45231</v>
@@ -20392,7 +20391,7 @@
       <c r="J706" s="11"/>
       <c r="K706" s="20"/>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A707" s="40">
         <f t="shared" si="0"/>
         <v>45261</v>
@@ -20411,7 +20410,7 @@
       <c r="J707" s="11"/>
       <c r="K707" s="20"/>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A708" s="40">
         <f t="shared" si="0"/>
         <v>45292</v>
@@ -20430,7 +20429,7 @@
       <c r="J708" s="11"/>
       <c r="K708" s="20"/>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A709" s="40">
         <f t="shared" si="0"/>
         <v>45323</v>
@@ -20449,7 +20448,7 @@
       <c r="J709" s="11"/>
       <c r="K709" s="20"/>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" s="40">
         <f t="shared" si="0"/>
         <v>45352</v>
@@ -20468,7 +20467,7 @@
       <c r="J710" s="11"/>
       <c r="K710" s="20"/>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A711" s="40">
         <f t="shared" si="0"/>
         <v>45383</v>
@@ -20487,7 +20486,7 @@
       <c r="J711" s="11"/>
       <c r="K711" s="20"/>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A712" s="40"/>
       <c r="B712" s="20"/>
       <c r="C712" s="13"/>
@@ -20503,7 +20502,7 @@
       <c r="J712" s="11"/>
       <c r="K712" s="20"/>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A713" s="40"/>
       <c r="B713" s="20"/>
       <c r="C713" s="13"/>
@@ -20519,7 +20518,7 @@
       <c r="J713" s="11"/>
       <c r="K713" s="20"/>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A714" s="40"/>
       <c r="B714" s="20"/>
       <c r="C714" s="13"/>
@@ -20535,7 +20534,7 @@
       <c r="J714" s="11"/>
       <c r="K714" s="20"/>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A715" s="40"/>
       <c r="B715" s="20"/>
       <c r="C715" s="13"/>
@@ -20551,7 +20550,7 @@
       <c r="J715" s="11"/>
       <c r="K715" s="20"/>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A716" s="40"/>
       <c r="B716" s="20"/>
       <c r="C716" s="13"/>
@@ -20567,7 +20566,7 @@
       <c r="J716" s="11"/>
       <c r="K716" s="20"/>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A717" s="40"/>
       <c r="B717" s="20"/>
       <c r="C717" s="13"/>
@@ -20583,7 +20582,7 @@
       <c r="J717" s="11"/>
       <c r="K717" s="20"/>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A718" s="40"/>
       <c r="B718" s="20"/>
       <c r="C718" s="13"/>
@@ -20599,7 +20598,7 @@
       <c r="J718" s="11"/>
       <c r="K718" s="20"/>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A719" s="40"/>
       <c r="B719" s="20"/>
       <c r="C719" s="13"/>
@@ -20615,7 +20614,7 @@
       <c r="J719" s="11"/>
       <c r="K719" s="20"/>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A720" s="40"/>
       <c r="B720" s="20"/>
       <c r="C720" s="13"/>
@@ -20631,7 +20630,7 @@
       <c r="J720" s="11"/>
       <c r="K720" s="20"/>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A721" s="40"/>
       <c r="B721" s="20"/>
       <c r="C721" s="13"/>
@@ -20647,7 +20646,7 @@
       <c r="J721" s="11"/>
       <c r="K721" s="20"/>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A722" s="40"/>
       <c r="B722" s="20"/>
       <c r="C722" s="13"/>
@@ -20663,7 +20662,7 @@
       <c r="J722" s="11"/>
       <c r="K722" s="20"/>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A723" s="40"/>
       <c r="B723" s="20"/>
       <c r="C723" s="13"/>
@@ -20679,7 +20678,7 @@
       <c r="J723" s="11"/>
       <c r="K723" s="20"/>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A724" s="40"/>
       <c r="B724" s="20"/>
       <c r="C724" s="13"/>
@@ -20695,7 +20694,7 @@
       <c r="J724" s="11"/>
       <c r="K724" s="20"/>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A725" s="40"/>
       <c r="B725" s="20"/>
       <c r="C725" s="13"/>
@@ -20711,7 +20710,7 @@
       <c r="J725" s="11"/>
       <c r="K725" s="20"/>
     </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A726" s="40"/>
       <c r="B726" s="20"/>
       <c r="C726" s="13"/>
@@ -20727,7 +20726,7 @@
       <c r="J726" s="11"/>
       <c r="K726" s="20"/>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A727" s="40"/>
       <c r="B727" s="20"/>
       <c r="C727" s="13"/>
@@ -20743,7 +20742,7 @@
       <c r="J727" s="11"/>
       <c r="K727" s="20"/>
     </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A728" s="40"/>
       <c r="B728" s="20"/>
       <c r="C728" s="13"/>
@@ -20759,7 +20758,7 @@
       <c r="J728" s="11"/>
       <c r="K728" s="20"/>
     </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A729" s="40"/>
       <c r="B729" s="20"/>
       <c r="C729" s="13"/>
@@ -20775,7 +20774,7 @@
       <c r="J729" s="11"/>
       <c r="K729" s="20"/>
     </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A730" s="40"/>
       <c r="B730" s="20"/>
       <c r="C730" s="13"/>
@@ -20791,7 +20790,7 @@
       <c r="J730" s="11"/>
       <c r="K730" s="20"/>
     </row>
-    <row r="731" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A731" s="40"/>
       <c r="B731" s="20"/>
       <c r="C731" s="13"/>
@@ -20807,7 +20806,7 @@
       <c r="J731" s="11"/>
       <c r="K731" s="20"/>
     </row>
-    <row r="732" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A732" s="40"/>
       <c r="B732" s="20"/>
       <c r="C732" s="13"/>
@@ -20823,7 +20822,7 @@
       <c r="J732" s="11"/>
       <c r="K732" s="20"/>
     </row>
-    <row r="733" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A733" s="40"/>
       <c r="B733" s="20"/>
       <c r="C733" s="13"/>
@@ -20839,7 +20838,7 @@
       <c r="J733" s="11"/>
       <c r="K733" s="20"/>
     </row>
-    <row r="734" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A734" s="40"/>
       <c r="B734" s="20"/>
       <c r="C734" s="13"/>
@@ -20855,7 +20854,7 @@
       <c r="J734" s="11"/>
       <c r="K734" s="20"/>
     </row>
-    <row r="735" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A735" s="40"/>
       <c r="B735" s="20"/>
       <c r="C735" s="13"/>
@@ -20871,7 +20870,7 @@
       <c r="J735" s="11"/>
       <c r="K735" s="20"/>
     </row>
-    <row r="736" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A736" s="40"/>
       <c r="B736" s="20"/>
       <c r="C736" s="13"/>
@@ -20887,7 +20886,7 @@
       <c r="J736" s="11"/>
       <c r="K736" s="20"/>
     </row>
-    <row r="737" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A737" s="40"/>
       <c r="B737" s="20"/>
       <c r="C737" s="13"/>
@@ -20903,7 +20902,7 @@
       <c r="J737" s="11"/>
       <c r="K737" s="20"/>
     </row>
-    <row r="738" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A738" s="50"/>
       <c r="B738" s="15"/>
       <c r="C738" s="41"/>
@@ -20934,10 +20933,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -20960,7 +20959,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -20968,21 +20967,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -20995,7 +20994,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -21024,7 +21023,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>34.792000000000002</v>
       </c>
@@ -21054,17 +21053,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -21085,7 +21084,7 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -21112,7 +21111,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -21138,7 +21137,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -21164,7 +21163,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -21190,7 +21189,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -21216,7 +21215,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -21242,7 +21241,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -21268,7 +21267,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -21294,7 +21293,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -21314,7 +21313,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -21334,7 +21333,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -21354,7 +21353,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -21375,7 +21374,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -21396,7 +21395,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -21417,7 +21416,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -21438,7 +21437,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -21459,7 +21458,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -21480,7 +21479,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -21501,7 +21500,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -21522,7 +21521,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -21543,7 +21542,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -21564,7 +21563,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -21585,7 +21584,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -21606,7 +21605,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -21627,7 +21626,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -21648,7 +21647,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -21669,7 +21668,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -21690,7 +21689,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -21711,7 +21710,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -21732,7 +21731,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -21753,7 +21752,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -21774,7 +21773,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -21783,7 +21782,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -21792,7 +21791,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -21801,7 +21800,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -21810,7 +21809,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -21819,7 +21818,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -21828,7 +21827,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -21837,7 +21836,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -21846,7 +21845,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -21855,7 +21854,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -21864,7 +21863,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -21873,7 +21872,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -21882,7 +21881,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -21891,7 +21890,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -21900,7 +21899,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -21909,7 +21908,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -21918,7 +21917,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -21927,7 +21926,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -21936,7 +21935,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -21945,7 +21944,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -21954,7 +21953,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -21963,7 +21962,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -21972,7 +21971,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -21981,7 +21980,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -21990,7 +21989,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -21999,7 +21998,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -22008,7 +22007,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -22017,7 +22016,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -22026,7 +22025,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -22035,7 +22034,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/MENDOZA, NORA A..xlsx
+++ b/REGULAR/MENDOZA, NORA A..xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD64C8FA-51BB-48F5-A34F-D9900152077D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="457">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1402,12 +1403,15 @@
   </si>
   <si>
     <t>ADMIN AIDE III</t>
+  </si>
+  <si>
+    <t>6/22,23/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2270,7 +2274,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2313,7 +2317,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2377,7 +2381,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2437,7 +2441,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2503,7 +2507,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2566,7 +2570,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2664,7 +2668,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2723,7 +2727,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2788,7 +2792,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2831,7 +2835,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2906,7 +2910,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3092,7 +3096,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3158,7 +3162,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3216,7 +3220,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3282,7 +3286,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3338,7 +3342,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3413,7 +3417,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3456,7 +3460,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3522,7 +3526,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3578,7 +3582,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3676,7 +3680,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3739,7 +3743,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3788,7 +3792,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3805,26 +3809,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K738" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K738"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K739" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K739" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3836,13 +3840,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3851,14 +3855,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4162,7 +4166,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -4172,7 +4176,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4180,34 +4184,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K738"/>
+  <dimension ref="A2:K739"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A688" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A694" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="B701" sqref="B701"/>
+      <selection pane="bottomLeft" activeCell="B702" sqref="B702"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="31" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -4228,7 +4232,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -4248,7 +4252,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4270,7 +4274,7 @@
       <c r="J4" s="57"/>
       <c r="K4" s="58"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4278,7 +4282,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4291,7 +4295,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -4308,7 +4312,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4343,7 +4347,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4352,7 +4356,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>2.656000000000148</v>
+        <v>3.906000000000148</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4362,12 +4366,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>63.792000000000002</v>
+        <v>63.042000000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
@@ -4389,7 +4393,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>35065</v>
       </c>
@@ -4409,7 +4413,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>35096</v>
       </c>
@@ -4429,7 +4433,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>35125</v>
       </c>
@@ -4449,7 +4453,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>35156</v>
       </c>
@@ -4469,7 +4473,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>35186</v>
       </c>
@@ -4493,7 +4497,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>35217</v>
       </c>
@@ -4517,7 +4521,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>35247</v>
       </c>
@@ -4541,7 +4545,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>35278</v>
       </c>
@@ -4565,7 +4569,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>35309</v>
       </c>
@@ -4585,7 +4589,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>35339</v>
       </c>
@@ -4605,7 +4609,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>35370</v>
       </c>
@@ -4625,7 +4629,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>35400</v>
       </c>
@@ -4645,7 +4649,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="47" t="s">
         <v>44</v>
       </c>
@@ -4667,7 +4671,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>35431</v>
       </c>
@@ -4687,7 +4691,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>35462</v>
       </c>
@@ -4707,7 +4711,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>35490</v>
       </c>
@@ -4727,7 +4731,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>35521</v>
       </c>
@@ -4747,7 +4751,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>35551</v>
       </c>
@@ -4767,7 +4771,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>35582</v>
       </c>
@@ -4793,7 +4797,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>35612</v>
       </c>
@@ -4817,7 +4821,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>35643</v>
       </c>
@@ -4841,7 +4845,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>35674</v>
       </c>
@@ -4861,7 +4865,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>35704</v>
       </c>
@@ -4883,7 +4887,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>35735</v>
       </c>
@@ -4907,7 +4911,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>35765</v>
       </c>
@@ -4933,7 +4937,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="47" t="s">
         <v>45</v>
       </c>
@@ -4955,7 +4959,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>35796</v>
       </c>
@@ -4981,7 +4985,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>35827</v>
       </c>
@@ -5007,7 +5011,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>35855</v>
       </c>
@@ -5031,7 +5035,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>35886</v>
       </c>
@@ -5053,7 +5057,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>35916</v>
       </c>
@@ -5077,7 +5081,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>35947</v>
       </c>
@@ -5101,7 +5105,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>35977</v>
       </c>
@@ -5127,7 +5131,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>59</v>
@@ -5149,7 +5153,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>36008</v>
       </c>
@@ -5173,7 +5177,7 @@
         <v>45152</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>53</v>
@@ -5195,7 +5199,7 @@
         <v>45157</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>61</v>
@@ -5215,7 +5219,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>36039</v>
       </c>
@@ -5239,7 +5243,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>36069</v>
       </c>
@@ -5265,7 +5269,7 @@
         <v>45208</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>52</v>
@@ -5287,7 +5291,7 @@
         <v>45218</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>63</v>
@@ -5307,7 +5311,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>36100</v>
       </c>
@@ -5333,7 +5337,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>65</v>
@@ -5355,7 +5359,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>66</v>
@@ -5377,7 +5381,7 @@
         <v>45261</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>36130</v>
       </c>
@@ -5403,7 +5407,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
         <v>67</v>
@@ -5425,7 +5429,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="47" t="s">
         <v>46</v>
       </c>
@@ -5447,7 +5451,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>36161</v>
       </c>
@@ -5471,7 +5475,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>36192</v>
       </c>
@@ -5497,7 +5501,7 @@
         <v>44960</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>73</v>
@@ -5517,7 +5521,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>36220</v>
       </c>
@@ -5539,7 +5543,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>36251</v>
       </c>
@@ -5565,7 +5569,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>53</v>
@@ -5587,7 +5591,7 @@
         <v>45039</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20" t="s">
         <v>74</v>
@@ -5609,7 +5613,7 @@
         <v>45042</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>36281</v>
       </c>
@@ -5635,7 +5639,7 @@
         <v>45052</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>53</v>
@@ -5657,7 +5661,7 @@
         <v>45060</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>75</v>
@@ -5677,7 +5681,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>36312</v>
       </c>
@@ -5703,7 +5707,7 @@
         <v>45081</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>76</v>
@@ -5725,7 +5729,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>36342</v>
       </c>
@@ -5751,7 +5755,7 @@
         <v>45115</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>80</v>
@@ -5773,7 +5777,7 @@
         <v>45121</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>36373</v>
       </c>
@@ -5799,7 +5803,7 @@
         <v>45141</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>53</v>
@@ -5821,7 +5825,7 @@
         <v>45147</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>53</v>
@@ -5843,7 +5847,7 @@
         <v>45163</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>81</v>
@@ -5863,7 +5867,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>36404</v>
       </c>
@@ -5889,7 +5893,7 @@
         <v>45171</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>53</v>
@@ -5911,7 +5915,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>82</v>
@@ -5931,7 +5935,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>36434</v>
       </c>
@@ -5957,7 +5961,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>86</v>
@@ -5979,7 +5983,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>53</v>
@@ -6001,7 +6005,7 @@
         <v>45220</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>36465</v>
       </c>
@@ -6027,7 +6031,7 @@
         <v>45232</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>87</v>
@@ -6047,7 +6051,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>36495</v>
       </c>
@@ -6073,7 +6077,7 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>86</v>
@@ -6095,7 +6099,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>53</v>
@@ -6117,7 +6121,7 @@
         <v>45283</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>85</v>
@@ -6139,7 +6143,7 @@
         <v>45287</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>53</v>
@@ -6161,7 +6165,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>93</v>
@@ -6183,7 +6187,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="47" t="s">
         <v>49</v>
       </c>
@@ -6205,7 +6209,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>36526</v>
       </c>
@@ -6231,7 +6235,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
         <v>52</v>
@@ -6253,7 +6257,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>95</v>
@@ -6275,7 +6279,7 @@
         <v>44954</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <v>36557</v>
       </c>
@@ -6301,7 +6305,7 @@
         <v>44968</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>96</v>
@@ -6323,7 +6327,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20" t="s">
         <v>97</v>
@@ -6343,7 +6347,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <v>36586</v>
       </c>
@@ -6369,7 +6373,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>52</v>
@@ -6391,7 +6395,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>98</v>
@@ -6411,7 +6415,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <v>36617</v>
       </c>
@@ -6437,7 +6441,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <v>36647</v>
       </c>
@@ -6463,7 +6467,7 @@
         <v>45055</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
         <v>53</v>
@@ -6485,7 +6489,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>106</v>
@@ -6505,7 +6509,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="48"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <v>36678</v>
       </c>
@@ -6529,7 +6533,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <v>36708</v>
       </c>
@@ -6553,7 +6557,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <v>36739</v>
       </c>
@@ -6577,7 +6581,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <v>36770</v>
       </c>
@@ -6603,7 +6607,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20" t="s">
         <v>85</v>
@@ -6625,7 +6629,7 @@
         <v>45189</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>95</v>
@@ -6645,7 +6649,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <v>36800</v>
       </c>
@@ -6671,7 +6675,7 @@
         <v>45203</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
         <v>110</v>
@@ -6691,7 +6695,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <v>36831</v>
       </c>
@@ -6717,7 +6721,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>53</v>
@@ -6737,7 +6741,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20" t="s">
         <v>111</v>
@@ -6757,7 +6761,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <v>36861</v>
       </c>
@@ -6783,7 +6787,7 @@
         <v>45279</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20" t="s">
         <v>86</v>
@@ -6805,7 +6809,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20" t="s">
         <v>57</v>
@@ -6827,7 +6831,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
         <v>112</v>
@@ -6849,7 +6853,7 @@
         <v>45274</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="47" t="s">
         <v>48</v>
       </c>
@@ -6871,7 +6875,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <v>36892</v>
       </c>
@@ -6897,7 +6901,7 @@
         <v>44935</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
         <v>117</v>
@@ -6917,7 +6921,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <v>36923</v>
       </c>
@@ -6943,7 +6947,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
         <v>118</v>
@@ -6963,7 +6967,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <v>36951</v>
       </c>
@@ -6989,7 +6993,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20" t="s">
         <v>57</v>
@@ -7011,7 +7015,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20" t="s">
         <v>126</v>
@@ -7033,7 +7037,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <v>36982</v>
       </c>
@@ -7061,7 +7065,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>120</v>
@@ -7083,7 +7087,7 @@
         <v>45032</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20" t="s">
         <v>53</v>
@@ -7105,7 +7109,7 @@
         <v>45046</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20" t="s">
         <v>121</v>
@@ -7125,7 +7129,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <v>37012</v>
       </c>
@@ -7153,7 +7157,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20" t="s">
         <v>120</v>
@@ -7175,7 +7179,7 @@
         <v>45070</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
         <v>123</v>
@@ -7195,7 +7199,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <v>37043</v>
       </c>
@@ -7221,7 +7225,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20" t="s">
         <v>119</v>
@@ -7245,7 +7249,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" s="20" t="s">
         <v>124</v>
@@ -7267,7 +7271,7 @@
         <v>45111</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
         <v>37073</v>
       </c>
@@ -7293,7 +7297,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
         <v>125</v>
@@ -7315,7 +7319,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40"/>
       <c r="B139" s="20" t="s">
         <v>122</v>
@@ -7335,7 +7339,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40"/>
       <c r="B140" s="20" t="s">
         <v>127</v>
@@ -7355,7 +7359,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
         <v>37104</v>
       </c>
@@ -7381,7 +7385,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40"/>
       <c r="B142" s="20" t="s">
         <v>53</v>
@@ -7401,7 +7405,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
         <v>128</v>
@@ -7423,7 +7427,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40"/>
       <c r="B144" s="20" t="s">
         <v>129</v>
@@ -7443,7 +7447,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
         <v>37135</v>
       </c>
@@ -7469,7 +7473,7 @@
         <v>45173</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>120</v>
@@ -7493,7 +7497,7 @@
         <v>45189</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40"/>
       <c r="B147" s="20" t="s">
         <v>87</v>
@@ -7513,7 +7517,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
         <v>37165</v>
       </c>
@@ -7541,7 +7545,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>86</v>
@@ -7563,7 +7567,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40"/>
       <c r="B150" s="20" t="s">
         <v>130</v>
@@ -7583,7 +7587,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <v>37196</v>
       </c>
@@ -7609,7 +7613,7 @@
         <v>45236</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>120</v>
@@ -7633,7 +7637,7 @@
         <v>45244</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>52</v>
@@ -7655,7 +7659,7 @@
         <v>45257</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40"/>
       <c r="B154" s="20" t="s">
         <v>131</v>
@@ -7675,7 +7679,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40">
         <v>37226</v>
       </c>
@@ -7701,7 +7705,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
         <v>132</v>
@@ -7725,7 +7729,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40"/>
       <c r="B157" s="20" t="s">
         <v>119</v>
@@ -7747,7 +7751,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40"/>
       <c r="B158" s="20" t="s">
         <v>148</v>
@@ -7767,7 +7771,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="47" t="s">
         <v>47</v>
       </c>
@@ -7789,7 +7793,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40">
         <v>37257</v>
       </c>
@@ -7815,7 +7819,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40"/>
       <c r="B161" s="20" t="s">
         <v>120</v>
@@ -7839,7 +7843,7 @@
         <v>44950</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>149</v>
@@ -7861,7 +7865,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
         <v>37288</v>
       </c>
@@ -7887,7 +7891,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>119</v>
@@ -7909,7 +7913,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40"/>
       <c r="B165" s="20" t="s">
         <v>130</v>
@@ -7929,7 +7933,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40">
         <v>37316</v>
       </c>
@@ -7953,7 +7957,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40">
         <v>37347</v>
       </c>
@@ -7979,7 +7983,7 @@
         <v>45030</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>151</v>
@@ -7999,7 +8003,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40">
         <v>37377</v>
       </c>
@@ -8025,7 +8029,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40"/>
       <c r="B170" s="20" t="s">
         <v>120</v>
@@ -8049,7 +8053,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40"/>
       <c r="B171" s="20" t="s">
         <v>119</v>
@@ -8071,7 +8075,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>152</v>
@@ -8091,7 +8095,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40">
         <v>37408</v>
       </c>
@@ -8117,7 +8121,7 @@
         <v>45095</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>153</v>
@@ -8137,7 +8141,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40">
         <v>37438</v>
       </c>
@@ -8163,7 +8167,7 @@
         <v>45119</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40"/>
       <c r="B176" s="20" t="s">
         <v>53</v>
@@ -8185,7 +8189,7 @@
         <v>45138</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>159</v>
@@ -8205,7 +8209,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="48"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40">
         <v>37469</v>
       </c>
@@ -8231,7 +8235,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40"/>
       <c r="B179" s="20" t="s">
         <v>107</v>
@@ -8251,7 +8255,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
         <v>37500</v>
       </c>
@@ -8277,7 +8281,7 @@
         <v>45179</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
         <v>53</v>
@@ -8299,7 +8303,7 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>120</v>
@@ -8317,7 +8321,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40"/>
       <c r="B183" s="20" t="s">
         <v>165</v>
@@ -8337,7 +8341,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40">
         <v>37530</v>
       </c>
@@ -8365,7 +8369,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>165</v>
@@ -8387,7 +8391,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
         <v>37561</v>
       </c>
@@ -8407,7 +8411,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40">
         <v>37591</v>
       </c>
@@ -8433,7 +8437,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>166</v>
@@ -8455,7 +8459,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="47" t="s">
         <v>164</v>
       </c>
@@ -8477,7 +8481,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40">
         <v>37622</v>
       </c>
@@ -8503,7 +8507,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40">
         <v>37653</v>
       </c>
@@ -8529,7 +8533,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>52</v>
@@ -8551,7 +8555,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40"/>
       <c r="B193" s="20" t="s">
         <v>53</v>
@@ -8573,7 +8577,7 @@
         <v>44975</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40"/>
       <c r="B194" s="20" t="s">
         <v>153</v>
@@ -8595,7 +8599,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
         <v>37681</v>
       </c>
@@ -8619,7 +8623,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40">
         <v>37712</v>
       </c>
@@ -8639,7 +8643,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40">
         <v>37742</v>
       </c>
@@ -8665,7 +8669,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>53</v>
@@ -8687,7 +8691,7 @@
         <v>45073</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>173</v>
@@ -8707,7 +8711,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40">
         <v>37773</v>
       </c>
@@ -8733,7 +8737,7 @@
         <v>45093</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40">
         <v>37803</v>
       </c>
@@ -8757,7 +8761,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>174</v>
@@ -8779,7 +8783,7 @@
         <v>45129</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40">
         <v>37834</v>
       </c>
@@ -8803,7 +8807,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>53</v>
@@ -8825,7 +8829,7 @@
         <v>45144</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
         <v>175</v>
@@ -8847,7 +8851,7 @@
         <v>45154</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40">
         <v>37865</v>
       </c>
@@ -8871,7 +8875,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40"/>
       <c r="B207" s="20" t="s">
         <v>86</v>
@@ -8893,7 +8897,7 @@
         <v>45181</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>119</v>
@@ -8917,7 +8921,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
         <v>176</v>
@@ -8939,7 +8943,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40">
         <v>37895</v>
       </c>
@@ -8963,7 +8967,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40">
         <v>37926</v>
       </c>
@@ -8991,7 +8995,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>178</v>
@@ -9011,7 +9015,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40">
         <v>37956</v>
       </c>
@@ -9037,7 +9041,7 @@
         <v>45264</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40"/>
       <c r="B214" s="20" t="s">
         <v>119</v>
@@ -9061,7 +9065,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40"/>
       <c r="B215" s="20" t="s">
         <v>120</v>
@@ -9083,7 +9087,7 @@
         <v>45276</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>120</v>
@@ -9105,7 +9109,7 @@
         <v>45283</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>120</v>
@@ -9127,7 +9131,7 @@
         <v>44934</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
         <v>184</v>
@@ -9147,7 +9151,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="47" t="s">
         <v>163</v>
       </c>
@@ -9169,7 +9173,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
         <v>37987</v>
       </c>
@@ -9195,7 +9199,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40">
         <v>38018</v>
       </c>
@@ -9221,7 +9225,7 @@
         <v>44940</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>120</v>
@@ -9245,7 +9249,7 @@
         <v>44961</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>120</v>
@@ -9269,7 +9273,7 @@
         <v>44968</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
         <v>119</v>
@@ -9291,7 +9295,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>186</v>
@@ -9311,7 +9315,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40">
         <v>38047</v>
       </c>
@@ -9335,7 +9339,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40">
         <v>38078</v>
       </c>
@@ -9361,7 +9365,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40"/>
       <c r="B228" s="20" t="s">
         <v>188</v>
@@ -9381,7 +9385,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40">
         <v>38108</v>
       </c>
@@ -9409,7 +9413,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40">
         <v>38139</v>
       </c>
@@ -9433,7 +9437,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40">
         <v>38169</v>
       </c>
@@ -9459,7 +9463,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>192</v>
@@ -9481,7 +9485,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40">
         <v>38200</v>
       </c>
@@ -9507,7 +9511,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>199</v>
@@ -9527,7 +9531,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40">
         <v>38231</v>
       </c>
@@ -9553,7 +9557,7 @@
         <v>45164</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40"/>
       <c r="B236" s="20" t="s">
         <v>53</v>
@@ -9575,7 +9579,7 @@
         <v>45177</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>200</v>
@@ -9597,7 +9601,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40">
         <v>38261</v>
       </c>
@@ -9623,7 +9627,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>53</v>
@@ -9643,7 +9647,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40"/>
       <c r="B240" s="20" t="s">
         <v>122</v>
@@ -9665,7 +9669,7 @@
         <v>45210</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>120</v>
@@ -9685,7 +9689,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>120</v>
@@ -9707,7 +9711,7 @@
         <v>45218</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40"/>
       <c r="B243" s="20" t="s">
         <v>201</v>
@@ -9729,7 +9733,7 @@
         <v>45226</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40">
         <v>38292</v>
       </c>
@@ -9757,7 +9761,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40"/>
       <c r="B245" s="20" t="s">
         <v>119</v>
@@ -9779,7 +9783,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>53</v>
@@ -9801,7 +9805,7 @@
         <v>45241</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>53</v>
@@ -9823,7 +9827,7 @@
         <v>45248</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>202</v>
@@ -9843,7 +9847,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40">
         <v>38322</v>
       </c>
@@ -9869,7 +9873,7 @@
         <v>45261</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
         <v>53</v>
@@ -9891,7 +9895,7 @@
         <v>45278</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>206</v>
@@ -9911,7 +9915,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="48"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="47" t="s">
         <v>162</v>
       </c>
@@ -9933,7 +9937,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40">
         <v>38353</v>
       </c>
@@ -9957,7 +9961,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40"/>
       <c r="B254" s="20" t="s">
         <v>208</v>
@@ -9979,7 +9983,7 @@
         <v>44980</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40">
         <v>38384</v>
       </c>
@@ -10003,7 +10007,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40"/>
       <c r="B256" s="20" t="s">
         <v>209</v>
@@ -10025,7 +10029,7 @@
         <v>44987</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40">
         <v>38412</v>
       </c>
@@ -10051,7 +10055,7 @@
         <v>45007</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>120</v>
@@ -10075,7 +10079,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>120</v>
@@ -10095,7 +10099,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40"/>
       <c r="B260" s="20" t="s">
         <v>210</v>
@@ -10115,7 +10119,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40">
         <v>38443</v>
       </c>
@@ -10141,7 +10145,7 @@
         <v>45029</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>53</v>
@@ -10163,7 +10167,7 @@
         <v>45036</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>211</v>
@@ -10185,7 +10189,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40">
         <v>38473</v>
       </c>
@@ -10211,7 +10215,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
         <v>212</v>
@@ -10231,7 +10235,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40">
         <v>38504</v>
       </c>
@@ -10257,7 +10261,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>213</v>
@@ -10277,7 +10281,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40">
         <v>38534</v>
       </c>
@@ -10303,7 +10307,7 @@
         <v>45121</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>120</v>
@@ -10327,7 +10331,7 @@
         <v>45127</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>188</v>
@@ -10349,7 +10353,7 @@
         <v>45129</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40">
         <v>38565</v>
       </c>
@@ -10377,7 +10381,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40"/>
       <c r="B272" s="20" t="s">
         <v>53</v>
@@ -10399,7 +10403,7 @@
         <v>45148</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>216</v>
@@ -10419,7 +10423,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40">
         <v>38596</v>
       </c>
@@ -10443,7 +10447,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40">
         <v>38626</v>
       </c>
@@ -10471,7 +10475,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>120</v>
@@ -10493,7 +10497,7 @@
         <v>45213</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
         <v>120</v>
@@ -10515,7 +10519,7 @@
         <v>45217</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40"/>
       <c r="B278" s="20" t="s">
         <v>218</v>
@@ -10537,7 +10541,7 @@
         <v>45219</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40">
         <v>38657</v>
       </c>
@@ -10563,7 +10567,7 @@
         <v>45245</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>219</v>
@@ -10585,7 +10589,7 @@
         <v>45254</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40">
         <v>38687</v>
       </c>
@@ -10611,7 +10615,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40"/>
       <c r="B282" s="20" t="s">
         <v>220</v>
@@ -10631,7 +10635,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="47" t="s">
         <v>161</v>
       </c>
@@ -10653,7 +10657,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40">
         <v>38718</v>
       </c>
@@ -10685,7 +10689,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>223</v>
@@ -10705,7 +10709,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40">
         <v>38749</v>
       </c>
@@ -10729,7 +10733,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>227</v>
@@ -10749,7 +10753,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40">
         <v>38777</v>
       </c>
@@ -10775,7 +10779,7 @@
         <v>45001</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>120</v>
@@ -10799,7 +10803,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>228</v>
@@ -10819,7 +10823,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40">
         <v>38808</v>
       </c>
@@ -10845,7 +10849,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40"/>
       <c r="B292" s="20" t="s">
         <v>53</v>
@@ -10867,7 +10871,7 @@
         <v>45083</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>229</v>
@@ -10887,7 +10891,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40">
         <v>38838</v>
       </c>
@@ -10911,7 +10915,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40">
         <v>38869</v>
       </c>
@@ -10937,7 +10941,7 @@
         <v>45086</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40"/>
       <c r="B296" s="20" t="s">
         <v>120</v>
@@ -10961,7 +10965,7 @@
         <v>45100</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>200</v>
@@ -10981,7 +10985,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40">
         <v>38899</v>
       </c>
@@ -11007,7 +11011,7 @@
         <v>45127</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40"/>
       <c r="B299" s="20" t="s">
         <v>231</v>
@@ -11027,7 +11031,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40">
         <v>38930</v>
       </c>
@@ -11053,7 +11057,7 @@
         <v>45153</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>120</v>
@@ -11077,7 +11081,7 @@
         <v>45169</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40"/>
       <c r="B302" s="20" t="s">
         <v>232</v>
@@ -11097,7 +11101,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40">
         <v>38961</v>
       </c>
@@ -11123,7 +11127,7 @@
         <v>45198</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>233</v>
@@ -11143,7 +11147,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40">
         <v>38991</v>
       </c>
@@ -11169,7 +11173,7 @@
         <v>45208</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>235</v>
@@ -11191,7 +11195,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40">
         <v>39022</v>
       </c>
@@ -11215,7 +11219,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40">
         <v>39052</v>
       </c>
@@ -11239,7 +11243,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="47" t="s">
         <v>160</v>
       </c>
@@ -11261,7 +11265,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40">
         <v>39083</v>
       </c>
@@ -11287,7 +11291,7 @@
         <v>44948</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40">
         <v>39114</v>
       </c>
@@ -11311,7 +11315,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40">
         <v>39142</v>
       </c>
@@ -11337,7 +11341,7 @@
         <v>44991</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>224</v>
@@ -11357,7 +11361,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>240</v>
@@ -11377,7 +11381,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40">
         <v>39173</v>
       </c>
@@ -11401,7 +11405,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40">
         <v>39203</v>
       </c>
@@ -11427,7 +11431,7 @@
         <v>45064</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
         <v>207</v>
@@ -11447,7 +11451,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40"/>
       <c r="B318" s="20" t="s">
         <v>53</v>
@@ -11469,7 +11473,7 @@
         <v>45071</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>242</v>
@@ -11489,7 +11493,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40">
         <v>39234</v>
       </c>
@@ -11513,7 +11517,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40">
         <v>39264</v>
       </c>
@@ -11537,7 +11541,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40">
         <v>39295</v>
       </c>
@@ -11563,7 +11567,7 @@
         <v>45146</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
         <v>245</v>
@@ -11583,7 +11587,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40">
         <v>39326</v>
       </c>
@@ -11609,7 +11613,7 @@
         <v>45179</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40"/>
       <c r="B325" s="20" t="s">
         <v>252</v>
@@ -11629,7 +11633,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="48"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40">
         <v>39356</v>
       </c>
@@ -11655,7 +11659,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>57</v>
@@ -11677,7 +11681,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>253</v>
@@ -11697,7 +11701,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40">
         <v>39387</v>
       </c>
@@ -11721,7 +11725,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40">
         <v>39417</v>
       </c>
@@ -11745,7 +11749,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="47" t="s">
         <v>248</v>
       </c>
@@ -11767,7 +11771,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40">
         <v>39448</v>
       </c>
@@ -11791,7 +11795,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40">
         <v>39479</v>
       </c>
@@ -11813,7 +11817,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40"/>
       <c r="B334" s="20" t="s">
         <v>257</v>
@@ -11833,7 +11837,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40">
         <v>39508</v>
       </c>
@@ -11861,7 +11865,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>53</v>
@@ -11881,7 +11885,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40"/>
       <c r="B337" s="20" t="s">
         <v>259</v>
@@ -11901,7 +11905,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40">
         <v>39539</v>
       </c>
@@ -11925,7 +11929,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40">
         <v>39569</v>
       </c>
@@ -11949,7 +11953,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40"/>
       <c r="B340" s="20" t="s">
         <v>261</v>
@@ -11969,7 +11973,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40">
         <v>39600</v>
       </c>
@@ -11993,7 +11997,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40">
         <v>39630</v>
       </c>
@@ -12017,7 +12021,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
         <v>263</v>
@@ -12037,7 +12041,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40">
         <v>39661</v>
       </c>
@@ -12061,7 +12065,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40">
         <v>39692</v>
       </c>
@@ -12087,7 +12091,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40">
         <v>39722</v>
       </c>
@@ -12113,7 +12117,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40">
         <v>39753</v>
       </c>
@@ -12139,7 +12143,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40">
         <v>39783</v>
       </c>
@@ -12165,7 +12169,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="47" t="s">
         <v>249</v>
       </c>
@@ -12187,7 +12191,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40">
         <v>39814</v>
       </c>
@@ -12211,7 +12215,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40">
         <v>39845</v>
       </c>
@@ -12235,7 +12239,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40">
         <v>39873</v>
       </c>
@@ -12259,7 +12263,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40">
         <v>39904</v>
       </c>
@@ -12283,7 +12287,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40">
         <v>39934</v>
       </c>
@@ -12309,7 +12313,7 @@
         <v>45052</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40"/>
       <c r="B355" s="20" t="s">
         <v>273</v>
@@ -12329,7 +12333,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40">
         <v>39965</v>
       </c>
@@ -12355,7 +12359,7 @@
         <v>45095</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40"/>
       <c r="B357" s="20" t="s">
         <v>274</v>
@@ -12375,7 +12379,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40">
         <v>39995</v>
       </c>
@@ -12399,7 +12403,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40">
         <v>40026</v>
       </c>
@@ -12423,7 +12427,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40">
         <v>40057</v>
       </c>
@@ -12449,7 +12453,7 @@
         <v>45198</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>131</v>
@@ -12471,7 +12475,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40">
         <v>40087</v>
       </c>
@@ -12497,7 +12501,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40">
         <v>40118</v>
       </c>
@@ -12521,7 +12525,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40">
         <v>40148</v>
       </c>
@@ -12545,7 +12549,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="47" t="s">
         <v>250</v>
       </c>
@@ -12567,7 +12571,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40">
         <v>40179</v>
       </c>
@@ -12591,7 +12595,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40">
         <v>40210</v>
       </c>
@@ -12615,7 +12619,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40">
         <v>40238</v>
       </c>
@@ -12639,7 +12643,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>53</v>
@@ -12661,7 +12665,7 @@
         <v>45004</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40"/>
       <c r="B370" s="20" t="s">
         <v>283</v>
@@ -12681,7 +12685,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40">
         <v>40269</v>
       </c>
@@ -12707,7 +12711,7 @@
         <v>45030</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40"/>
       <c r="B372" s="20" t="s">
         <v>284</v>
@@ -12727,7 +12731,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40">
         <v>40299</v>
       </c>
@@ -12751,7 +12755,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40"/>
       <c r="B374" s="20" t="s">
         <v>285</v>
@@ -12771,7 +12775,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40">
         <v>40330</v>
       </c>
@@ -12795,7 +12799,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40">
         <v>40360</v>
       </c>
@@ -12821,7 +12825,7 @@
         <v>45116</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40"/>
       <c r="B377" s="20" t="s">
         <v>53</v>
@@ -12843,7 +12847,7 @@
         <v>45121</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
         <v>53</v>
@@ -12863,7 +12867,7 @@
         <v>45129</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40"/>
       <c r="B379" s="20" t="s">
         <v>287</v>
@@ -12883,7 +12887,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40">
         <v>40391</v>
       </c>
@@ -12909,7 +12913,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40"/>
       <c r="B381" s="20" t="s">
         <v>57</v>
@@ -12931,7 +12935,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40"/>
       <c r="B382" s="20" t="s">
         <v>288</v>
@@ -12951,7 +12955,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40">
         <v>40422</v>
       </c>
@@ -12977,7 +12981,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40"/>
       <c r="B384" s="20" t="s">
         <v>57</v>
@@ -12999,7 +13003,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40"/>
       <c r="B385" s="20" t="s">
         <v>294</v>
@@ -13019,7 +13023,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40">
         <v>40452</v>
       </c>
@@ -13045,7 +13049,7 @@
         <v>45206</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
         <v>295</v>
@@ -13065,7 +13069,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40">
         <v>40483</v>
       </c>
@@ -13091,7 +13095,7 @@
         <v>45232</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40"/>
       <c r="B389" s="20" t="s">
         <v>53</v>
@@ -13113,7 +13117,7 @@
         <v>45219</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40"/>
       <c r="B390" s="20" t="s">
         <v>296</v>
@@ -13133,7 +13137,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40">
         <v>40513</v>
       </c>
@@ -13159,7 +13163,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40"/>
       <c r="B392" s="20" t="s">
         <v>96</v>
@@ -13179,7 +13183,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="47" t="s">
         <v>251</v>
       </c>
@@ -13201,7 +13205,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40">
         <v>40544</v>
       </c>
@@ -13225,7 +13229,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40"/>
       <c r="B395" s="20" t="s">
         <v>303</v>
@@ -13245,7 +13249,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40">
         <v>40575</v>
       </c>
@@ -13269,7 +13273,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40">
         <v>40603</v>
       </c>
@@ -13295,7 +13299,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40"/>
       <c r="B398" s="20" t="s">
         <v>57</v>
@@ -13317,7 +13321,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40"/>
       <c r="B399" s="20" t="s">
         <v>305</v>
@@ -13337,7 +13341,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40">
         <v>40634</v>
       </c>
@@ -13363,7 +13367,7 @@
         <v>45027</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40"/>
       <c r="B401" s="20" t="s">
         <v>306</v>
@@ -13383,7 +13387,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40">
         <v>40664</v>
       </c>
@@ -13409,7 +13413,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40"/>
       <c r="B403" s="20" t="s">
         <v>307</v>
@@ -13429,7 +13433,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40">
         <v>40695</v>
       </c>
@@ -13453,7 +13457,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40">
         <v>40725</v>
       </c>
@@ -13477,7 +13481,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40">
         <v>40756</v>
       </c>
@@ -13503,7 +13507,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40"/>
       <c r="B407" s="20" t="s">
         <v>311</v>
@@ -13523,7 +13527,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40">
         <v>40787</v>
       </c>
@@ -13549,7 +13553,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40"/>
       <c r="B409" s="20" t="s">
         <v>57</v>
@@ -13571,7 +13575,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40"/>
       <c r="B410" s="20" t="s">
         <v>313</v>
@@ -13591,7 +13595,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40">
         <v>40817</v>
       </c>
@@ -13617,7 +13621,7 @@
         <v>45226</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="40">
         <v>40848</v>
       </c>
@@ -13643,7 +13647,7 @@
         <v>45241</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40"/>
       <c r="B413" s="20" t="s">
         <v>224</v>
@@ -13663,7 +13667,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40"/>
       <c r="B414" s="20" t="s">
         <v>315</v>
@@ -13683,7 +13687,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40">
         <v>40878</v>
       </c>
@@ -13707,7 +13711,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="47" t="s">
         <v>299</v>
       </c>
@@ -13729,7 +13733,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="40">
         <v>40909</v>
       </c>
@@ -13755,7 +13759,7 @@
         <v>44928</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40"/>
       <c r="B418" s="20" t="s">
         <v>320</v>
@@ -13775,7 +13779,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40">
         <v>40940</v>
       </c>
@@ -13805,7 +13809,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40"/>
       <c r="B420" s="20" t="s">
         <v>321</v>
@@ -13825,7 +13829,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40">
         <v>40969</v>
       </c>
@@ -13849,7 +13853,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40">
         <v>41000</v>
       </c>
@@ -13875,7 +13879,7 @@
         <v>45027</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40"/>
       <c r="B423" s="20" t="s">
         <v>57</v>
@@ -13897,7 +13901,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40"/>
       <c r="B424" s="20" t="s">
         <v>325</v>
@@ -13917,7 +13921,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40">
         <v>41030</v>
       </c>
@@ -13941,7 +13945,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40">
         <v>41061</v>
       </c>
@@ -13965,7 +13969,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40">
         <v>41091</v>
       </c>
@@ -13991,7 +13995,7 @@
         <v>45116</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40"/>
       <c r="B428" s="20" t="s">
         <v>53</v>
@@ -14013,7 +14017,7 @@
         <v>45137</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40"/>
       <c r="B429" s="20" t="s">
         <v>328</v>
@@ -14033,7 +14037,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40">
         <v>41122</v>
       </c>
@@ -14059,7 +14063,7 @@
         <v>45169</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40"/>
       <c r="B431" s="20" t="s">
         <v>329</v>
@@ -14079,7 +14083,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40">
         <v>41153</v>
       </c>
@@ -14105,7 +14109,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40"/>
       <c r="B433" s="20" t="s">
         <v>330</v>
@@ -14125,7 +14129,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40">
         <v>41183</v>
       </c>
@@ -14149,7 +14153,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40"/>
       <c r="B435" s="20" t="s">
         <v>96</v>
@@ -14171,7 +14175,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40"/>
       <c r="B436" s="20" t="s">
         <v>331</v>
@@ -14191,7 +14195,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40">
         <v>41214</v>
       </c>
@@ -14215,7 +14219,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40"/>
       <c r="B438" s="20" t="s">
         <v>332</v>
@@ -14235,7 +14239,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40">
         <v>41244</v>
       </c>
@@ -14261,7 +14265,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40"/>
       <c r="B440" s="20" t="s">
         <v>96</v>
@@ -14281,7 +14285,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="47" t="s">
         <v>300</v>
       </c>
@@ -14303,7 +14307,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40">
         <v>41275</v>
       </c>
@@ -14327,7 +14331,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40">
         <v>41306</v>
       </c>
@@ -14351,7 +14355,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40">
         <v>41334</v>
       </c>
@@ -14377,7 +14381,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40"/>
       <c r="B445" s="20" t="s">
         <v>122</v>
@@ -14401,7 +14405,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40"/>
       <c r="B446" s="20" t="s">
         <v>340</v>
@@ -14421,7 +14425,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40">
         <v>41365</v>
       </c>
@@ -14447,7 +14451,7 @@
         <v>45039</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40"/>
       <c r="B448" s="20" t="s">
         <v>341</v>
@@ -14469,7 +14473,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40">
         <v>41395</v>
       </c>
@@ -14497,7 +14501,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40"/>
       <c r="B450" s="20" t="s">
         <v>122</v>
@@ -14521,7 +14525,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40"/>
       <c r="B451" s="20" t="s">
         <v>342</v>
@@ -14543,7 +14547,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40">
         <v>41426</v>
       </c>
@@ -14569,7 +14573,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40">
         <v>41456</v>
       </c>
@@ -14595,7 +14599,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40"/>
       <c r="B454" s="20" t="s">
         <v>344</v>
@@ -14617,7 +14621,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40">
         <v>41487</v>
       </c>
@@ -14643,7 +14647,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="40"/>
       <c r="B456" s="20" t="s">
         <v>345</v>
@@ -14663,7 +14667,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40">
         <v>41518</v>
       </c>
@@ -14689,7 +14693,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40">
         <v>41548</v>
       </c>
@@ -14715,7 +14719,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40">
         <v>41579</v>
       </c>
@@ -14741,7 +14745,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40">
         <v>41609</v>
       </c>
@@ -14767,7 +14771,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40"/>
       <c r="B461" s="20" t="s">
         <v>207</v>
@@ -14787,7 +14791,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40"/>
       <c r="B462" s="20" t="s">
         <v>349</v>
@@ -14809,7 +14813,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="47" t="s">
         <v>301</v>
       </c>
@@ -14831,7 +14835,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40">
         <v>41640</v>
       </c>
@@ -14859,7 +14863,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40"/>
       <c r="B465" s="20" t="s">
         <v>357</v>
@@ -14881,7 +14885,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40">
         <v>41671</v>
       </c>
@@ -14905,7 +14909,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40">
         <v>41699</v>
       </c>
@@ -14931,7 +14935,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40">
         <v>41730</v>
       </c>
@@ -14955,7 +14959,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40">
         <v>41760</v>
       </c>
@@ -14979,7 +14983,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40"/>
       <c r="B470" s="20" t="s">
         <v>57</v>
@@ -15003,7 +15007,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40"/>
       <c r="B471" s="20" t="s">
         <v>361</v>
@@ -15023,7 +15027,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40">
         <v>41791</v>
       </c>
@@ -15049,7 +15053,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40"/>
       <c r="B473" s="20" t="s">
         <v>362</v>
@@ -15069,7 +15073,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40">
         <v>41821</v>
       </c>
@@ -15095,7 +15099,7 @@
         <v>45108</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40"/>
       <c r="B475" s="20" t="s">
         <v>363</v>
@@ -15117,7 +15121,7 @@
         <v>45124</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40">
         <v>41852</v>
       </c>
@@ -15143,7 +15147,7 @@
         <v>45160</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40"/>
       <c r="B477" s="20" t="s">
         <v>364</v>
@@ -15163,7 +15167,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="40">
         <v>41883</v>
       </c>
@@ -15189,7 +15193,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40"/>
       <c r="B479" s="20" t="s">
         <v>312</v>
@@ -15213,7 +15217,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40"/>
       <c r="B480" s="20" t="s">
         <v>365</v>
@@ -15233,7 +15237,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40">
         <v>41913</v>
       </c>
@@ -15261,7 +15265,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40"/>
       <c r="B482" s="20" t="s">
         <v>119</v>
@@ -15285,7 +15289,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40"/>
       <c r="B483" s="20" t="s">
         <v>366</v>
@@ -15307,7 +15311,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40">
         <v>41944</v>
       </c>
@@ -15333,7 +15337,7 @@
         <v>45248</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40"/>
       <c r="B485" s="20" t="s">
         <v>57</v>
@@ -15355,7 +15359,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40"/>
       <c r="B486" s="20" t="s">
         <v>207</v>
@@ -15375,7 +15379,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="40"/>
       <c r="B487" s="20" t="s">
         <v>207</v>
@@ -15395,7 +15399,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40"/>
       <c r="B488" s="20" t="s">
         <v>152</v>
@@ -15415,7 +15419,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40">
         <v>41974</v>
       </c>
@@ -15439,7 +15443,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="47" t="s">
         <v>302</v>
       </c>
@@ -15461,7 +15465,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40">
         <v>42005</v>
       </c>
@@ -15485,7 +15489,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40"/>
       <c r="B492" s="20" t="s">
         <v>53</v>
@@ -15507,7 +15511,7 @@
         <v>44959</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40"/>
       <c r="B493" s="20" t="s">
         <v>383</v>
@@ -15527,7 +15531,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40">
         <v>42036</v>
       </c>
@@ -15551,7 +15555,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40">
         <v>42064</v>
       </c>
@@ -15577,7 +15581,7 @@
         <v>45004</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40"/>
       <c r="B496" s="20" t="s">
         <v>53</v>
@@ -15599,7 +15603,7 @@
         <v>45011</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40"/>
       <c r="B497" s="20" t="s">
         <v>385</v>
@@ -15619,7 +15623,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40">
         <v>42095</v>
       </c>
@@ -15645,7 +15649,7 @@
         <v>45045</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40"/>
       <c r="B499" s="20" t="s">
         <v>387</v>
@@ -15665,7 +15669,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40">
         <v>42125</v>
       </c>
@@ -15691,7 +15695,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40"/>
       <c r="B501" s="20" t="s">
         <v>386</v>
@@ -15711,7 +15715,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40"/>
       <c r="B502" s="20" t="s">
         <v>390</v>
@@ -15731,7 +15735,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40">
         <v>42156</v>
       </c>
@@ -15757,7 +15761,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40">
         <v>42186</v>
       </c>
@@ -15777,7 +15781,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40">
         <v>42217</v>
       </c>
@@ -15801,7 +15805,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="40">
         <v>42248</v>
       </c>
@@ -15827,7 +15831,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40"/>
       <c r="B507" s="20" t="s">
         <v>53</v>
@@ -15849,7 +15853,7 @@
         <v>45199</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40"/>
       <c r="B508" s="20" t="s">
         <v>393</v>
@@ -15869,7 +15873,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40">
         <v>42278</v>
       </c>
@@ -15895,7 +15899,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="40"/>
       <c r="B510" s="20" t="s">
         <v>394</v>
@@ -15915,7 +15919,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40">
         <v>42309</v>
       </c>
@@ -15941,7 +15945,7 @@
         <v>45232</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="40"/>
       <c r="B512" s="20" t="s">
         <v>53</v>
@@ -15963,7 +15967,7 @@
         <v>45246</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40"/>
       <c r="B513" s="20" t="s">
         <v>53</v>
@@ -15985,7 +15989,7 @@
         <v>45283</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="40"/>
       <c r="B514" s="20" t="s">
         <v>207</v>
@@ -16005,7 +16009,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40"/>
       <c r="B515" s="20" t="s">
         <v>396</v>
@@ -16025,7 +16029,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40">
         <v>42339</v>
       </c>
@@ -16049,7 +16053,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="47" t="s">
         <v>376</v>
       </c>
@@ -16071,7 +16075,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="40">
         <v>42370</v>
       </c>
@@ -16097,7 +16101,7 @@
         <v>44930</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="40"/>
       <c r="B519" s="20" t="s">
         <v>399</v>
@@ -16117,7 +16121,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="40">
         <v>42401</v>
       </c>
@@ -16141,7 +16145,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="40"/>
       <c r="B521" s="20" t="s">
         <v>400</v>
@@ -16163,7 +16167,7 @@
         <v>44968</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="40">
         <v>42430</v>
       </c>
@@ -16191,7 +16195,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="40"/>
       <c r="B523" s="20" t="s">
         <v>401</v>
@@ -16213,7 +16217,7 @@
         <v>45008</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="40">
         <v>42461</v>
       </c>
@@ -16237,7 +16241,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="40"/>
       <c r="B525" s="20" t="s">
         <v>53</v>
@@ -16257,7 +16261,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="40"/>
       <c r="B526" s="20" t="s">
         <v>402</v>
@@ -16279,7 +16283,7 @@
         <v>45038</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="40">
         <v>42491</v>
       </c>
@@ -16303,7 +16307,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="40">
         <v>42522</v>
       </c>
@@ -16327,7 +16331,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="40"/>
       <c r="B529" s="20" t="s">
         <v>404</v>
@@ -16349,7 +16353,7 @@
         <v>45097</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="40">
         <v>42552</v>
       </c>
@@ -16373,7 +16377,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="40"/>
       <c r="B531" s="20" t="s">
         <v>285</v>
@@ -16395,7 +16399,7 @@
         <v>45128</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="40">
         <v>42583</v>
       </c>
@@ -16421,7 +16425,7 @@
         <v>45148</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="40"/>
       <c r="B533" s="20" t="s">
         <v>53</v>
@@ -16443,7 +16447,7 @@
         <v>45160</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="40"/>
       <c r="B534" s="20" t="s">
         <v>405</v>
@@ -16463,7 +16467,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="40">
         <v>42614</v>
       </c>
@@ -16489,7 +16493,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="40"/>
       <c r="B536" s="20" t="s">
         <v>53</v>
@@ -16511,7 +16515,7 @@
         <v>45199</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="40"/>
       <c r="B537" s="20" t="s">
         <v>407</v>
@@ -16533,7 +16537,7 @@
         <v>45209</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="40">
         <v>42644</v>
       </c>
@@ -16559,7 +16563,7 @@
         <v>45240</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40"/>
       <c r="B539" s="20" t="s">
         <v>53</v>
@@ -16581,7 +16585,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="40"/>
       <c r="B540" s="20" t="s">
         <v>224</v>
@@ -16599,7 +16603,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="40"/>
       <c r="B541" s="20" t="s">
         <v>294</v>
@@ -16619,7 +16623,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="40">
         <v>42675</v>
       </c>
@@ -16645,7 +16649,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="40"/>
       <c r="B543" s="20" t="s">
         <v>53</v>
@@ -16667,7 +16671,7 @@
         <v>45255</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="40"/>
       <c r="B544" s="20" t="s">
         <v>409</v>
@@ -16687,7 +16691,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="40">
         <v>42705</v>
       </c>
@@ -16713,7 +16717,7 @@
         <v>45269</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="40"/>
       <c r="B546" s="20" t="s">
         <v>120</v>
@@ -16735,7 +16739,7 @@
         <v>45287</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="40"/>
       <c r="B547" s="20" t="s">
         <v>410</v>
@@ -16755,7 +16759,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="47" t="s">
         <v>377</v>
       </c>
@@ -16777,7 +16781,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="40">
         <v>42736</v>
       </c>
@@ -16803,7 +16807,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="40"/>
       <c r="B550" s="20" t="s">
         <v>120</v>
@@ -16827,7 +16831,7 @@
         <v>44951</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="40"/>
       <c r="B551" s="20" t="s">
         <v>412</v>
@@ -16849,7 +16853,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="40">
         <v>42767</v>
       </c>
@@ -16875,7 +16879,7 @@
         <v>44970</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="40"/>
       <c r="B553" s="20" t="s">
         <v>413</v>
@@ -16895,7 +16899,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="40">
         <v>42795</v>
       </c>
@@ -16925,7 +16929,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="40"/>
       <c r="B555" s="20" t="s">
         <v>120</v>
@@ -16949,7 +16953,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="40"/>
       <c r="B556" s="20" t="s">
         <v>120</v>
@@ -16973,7 +16977,7 @@
         <v>44999</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="40"/>
       <c r="B557" s="20" t="s">
         <v>81</v>
@@ -16993,7 +16997,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="40">
         <v>42826</v>
       </c>
@@ -17019,7 +17023,7 @@
         <v>45036</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="40"/>
       <c r="B559" s="20" t="s">
         <v>52</v>
@@ -17041,7 +17045,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="40">
         <v>42856</v>
       </c>
@@ -17067,7 +17071,7 @@
         <v>45068</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="40"/>
       <c r="B561" s="20" t="s">
         <v>415</v>
@@ -17087,7 +17091,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="40">
         <v>42887</v>
       </c>
@@ -17115,7 +17119,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="40">
         <v>42917</v>
       </c>
@@ -17139,7 +17143,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="40"/>
       <c r="B564" s="20" t="s">
         <v>120</v>
@@ -17165,7 +17169,7 @@
         <v>45117</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="40"/>
       <c r="B565" s="20" t="s">
         <v>53</v>
@@ -17189,7 +17193,7 @@
         <v>45124</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="40"/>
       <c r="B566" s="20" t="s">
         <v>416</v>
@@ -17211,7 +17215,7 @@
         <v>45135</v>
       </c>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="40">
         <v>42948</v>
       </c>
@@ -17235,7 +17239,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="40">
         <v>42979</v>
       </c>
@@ -17259,7 +17263,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="40"/>
       <c r="B569" s="20" t="s">
         <v>53</v>
@@ -17281,7 +17285,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="40"/>
       <c r="B570" s="20" t="s">
         <v>53</v>
@@ -17303,7 +17307,7 @@
         <v>45175</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="40"/>
       <c r="B571" s="20" t="s">
         <v>418</v>
@@ -17325,7 +17329,7 @@
         <v>45184</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="40">
         <v>43009</v>
       </c>
@@ -17349,7 +17353,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="40"/>
       <c r="B573" s="20" t="s">
         <v>53</v>
@@ -17373,7 +17377,7 @@
         <v>45203</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="40"/>
       <c r="B574" s="20" t="s">
         <v>120</v>
@@ -17395,7 +17399,7 @@
         <v>45191</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="40"/>
       <c r="B575" s="20" t="s">
         <v>419</v>
@@ -17417,7 +17421,7 @@
         <v>45222</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="40">
         <v>43040</v>
       </c>
@@ -17443,7 +17447,7 @@
         <v>45232</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="40"/>
       <c r="B577" s="20" t="s">
         <v>53</v>
@@ -17465,7 +17469,7 @@
         <v>45243</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="40">
         <v>43070</v>
       </c>
@@ -17491,7 +17495,7 @@
         <v>45261</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="40"/>
       <c r="B579" s="20" t="s">
         <v>120</v>
@@ -17515,7 +17519,7 @@
         <v>45271</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A580" s="40"/>
       <c r="B580" s="20" t="s">
         <v>207</v>
@@ -17535,7 +17539,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A581" s="40"/>
       <c r="B581" s="20" t="s">
         <v>224</v>
@@ -17555,7 +17559,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A582" s="47" t="s">
         <v>378</v>
       </c>
@@ -17577,7 +17581,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A583" s="40">
         <v>43101</v>
       </c>
@@ -17603,7 +17607,7 @@
         <v>44929</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A584" s="40"/>
       <c r="B584" s="20" t="s">
         <v>120</v>
@@ -17627,7 +17631,7 @@
         <v>44934</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A585" s="40">
         <v>43132</v>
       </c>
@@ -17651,7 +17655,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A586" s="40"/>
       <c r="B586" s="20" t="s">
         <v>52</v>
@@ -17673,7 +17677,7 @@
         <v>44976</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A587" s="40">
         <v>43160</v>
       </c>
@@ -17699,7 +17703,7 @@
         <v>44986</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A588" s="40"/>
       <c r="B588" s="20" t="s">
         <v>53</v>
@@ -17721,7 +17725,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A589" s="40">
         <v>43191</v>
       </c>
@@ -17749,7 +17753,7 @@
         <v>44987</v>
       </c>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A590" s="40"/>
       <c r="B590" s="20" t="s">
         <v>120</v>
@@ -17771,7 +17775,7 @@
         <v>44993</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A591" s="40"/>
       <c r="B591" s="20" t="s">
         <v>57</v>
@@ -17793,7 +17797,7 @@
         <v>45012</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A592" s="40"/>
       <c r="B592" s="20" t="s">
         <v>423</v>
@@ -17815,7 +17819,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A593" s="40">
         <v>43221</v>
       </c>
@@ -17841,7 +17845,7 @@
         <v>45055</v>
       </c>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A594" s="40"/>
       <c r="B594" s="20" t="s">
         <v>53</v>
@@ -17867,7 +17871,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A595" s="40"/>
       <c r="B595" s="20" t="s">
         <v>120</v>
@@ -17889,7 +17893,7 @@
         <v>45068</v>
       </c>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A596" s="40"/>
       <c r="B596" s="20" t="s">
         <v>425</v>
@@ -17909,7 +17913,7 @@
       <c r="J596" s="11"/>
       <c r="K596" s="20"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A597" s="40">
         <v>43252</v>
       </c>
@@ -17935,7 +17939,7 @@
         <v>45090</v>
       </c>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A598" s="40"/>
       <c r="B598" s="20" t="s">
         <v>426</v>
@@ -17955,7 +17959,7 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A599" s="40">
         <v>43282</v>
       </c>
@@ -17981,7 +17985,7 @@
         <v>45123</v>
       </c>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A600" s="40"/>
       <c r="B600" s="20" t="s">
         <v>120</v>
@@ -18007,7 +18011,7 @@
         <v>45130</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A601" s="40"/>
       <c r="B601" s="20" t="s">
         <v>427</v>
@@ -18027,7 +18031,7 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A602" s="40">
         <v>43313</v>
       </c>
@@ -18053,7 +18057,7 @@
         <v>45159</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A603" s="40"/>
       <c r="B603" s="20" t="s">
         <v>120</v>
@@ -18075,7 +18079,7 @@
         <v>45162</v>
       </c>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A604" s="40"/>
       <c r="B604" s="20" t="s">
         <v>428</v>
@@ -18095,7 +18099,7 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A605" s="40">
         <v>43344</v>
       </c>
@@ -18121,7 +18125,7 @@
         <v>45173</v>
       </c>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A606" s="40"/>
       <c r="B606" s="20" t="s">
         <v>86</v>
@@ -18143,7 +18147,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A607" s="40"/>
       <c r="B607" s="20" t="s">
         <v>120</v>
@@ -18165,7 +18169,7 @@
         <v>45187</v>
       </c>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A608" s="40"/>
       <c r="B608" s="20" t="s">
         <v>429</v>
@@ -18187,7 +18191,7 @@
         <v>45181</v>
       </c>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A609" s="40">
         <v>43374</v>
       </c>
@@ -18213,7 +18217,7 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A610" s="40">
         <v>43405</v>
       </c>
@@ -18239,7 +18243,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A611" s="40"/>
       <c r="B611" s="20" t="s">
         <v>432</v>
@@ -18261,7 +18265,7 @@
         <v>45246</v>
       </c>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A612" s="40">
         <v>43435</v>
       </c>
@@ -18287,7 +18291,7 @@
         <v>45267</v>
       </c>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A613" s="40"/>
       <c r="B613" s="20" t="s">
         <v>53</v>
@@ -18309,7 +18313,7 @@
         <v>45274</v>
       </c>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A614" s="40"/>
       <c r="B614" s="20" t="s">
         <v>207</v>
@@ -18329,7 +18333,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A615" s="40"/>
       <c r="B615" s="20" t="s">
         <v>53</v>
@@ -18351,7 +18355,7 @@
         <v>45279</v>
       </c>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A616" s="40"/>
       <c r="B616" s="20" t="s">
         <v>53</v>
@@ -18373,7 +18377,7 @@
         <v>45287</v>
       </c>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A617" s="40"/>
       <c r="B617" s="20" t="s">
         <v>93</v>
@@ -18393,7 +18397,7 @@
       <c r="J617" s="11"/>
       <c r="K617" s="20"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A618" s="47" t="s">
         <v>379</v>
       </c>
@@ -18415,7 +18419,7 @@
       <c r="J618" s="11"/>
       <c r="K618" s="20"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A619" s="40">
         <v>43466</v>
       </c>
@@ -18441,7 +18445,7 @@
         <v>44943</v>
       </c>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A620" s="40"/>
       <c r="B620" s="20" t="s">
         <v>120</v>
@@ -18463,7 +18467,7 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A621" s="40">
         <v>43497</v>
       </c>
@@ -18483,7 +18487,7 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A622" s="40">
         <v>43525</v>
       </c>
@@ -18509,7 +18513,7 @@
         <v>44990</v>
       </c>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A623" s="40"/>
       <c r="B623" s="20" t="s">
         <v>53</v>
@@ -18531,7 +18535,7 @@
         <v>45018</v>
       </c>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A624" s="40">
         <v>43556</v>
       </c>
@@ -18557,7 +18561,7 @@
         <v>45041</v>
       </c>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A625" s="40"/>
       <c r="B625" s="20" t="s">
         <v>52</v>
@@ -18579,7 +18583,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A626" s="40">
         <v>43586</v>
       </c>
@@ -18605,7 +18609,7 @@
         <v>45049</v>
       </c>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A627" s="40">
         <v>43617</v>
       </c>
@@ -18629,7 +18633,7 @@
       <c r="J627" s="11"/>
       <c r="K627" s="20"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A628" s="40"/>
       <c r="B628" s="20" t="s">
         <v>52</v>
@@ -18651,7 +18655,7 @@
         <v>45095</v>
       </c>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A629" s="40">
         <v>43647</v>
       </c>
@@ -18677,7 +18681,7 @@
         <v>45122</v>
       </c>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A630" s="40">
         <v>43678</v>
       </c>
@@ -18701,7 +18705,7 @@
       <c r="J630" s="11"/>
       <c r="K630" s="20"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A631" s="40">
         <v>43709</v>
       </c>
@@ -18727,7 +18731,7 @@
         <v>45119</v>
       </c>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A632" s="40"/>
       <c r="B632" s="20" t="s">
         <v>119</v>
@@ -18747,7 +18751,7 @@
       <c r="J632" s="11"/>
       <c r="K632" s="20"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A633" s="40"/>
       <c r="B633" s="20" t="s">
         <v>120</v>
@@ -18769,7 +18773,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A634" s="40"/>
       <c r="B634" s="20" t="s">
         <v>119</v>
@@ -18791,7 +18795,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A635" s="40"/>
       <c r="B635" s="20" t="s">
         <v>119</v>
@@ -18813,7 +18817,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A636" s="40"/>
       <c r="B636" s="20" t="s">
         <v>52</v>
@@ -18835,7 +18839,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A637" s="40">
         <v>43739</v>
       </c>
@@ -18863,7 +18867,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A638" s="40">
         <v>43770</v>
       </c>
@@ -18885,7 +18889,7 @@
         <v>45210</v>
       </c>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A639" s="40">
         <v>43800</v>
       </c>
@@ -18911,7 +18915,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A640" s="40"/>
       <c r="B640" s="20"/>
       <c r="C640" s="13"/>
@@ -18929,7 +18933,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A641" s="47" t="s">
         <v>380</v>
       </c>
@@ -18951,7 +18955,7 @@
       <c r="J641" s="11"/>
       <c r="K641" s="20"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A642" s="40">
         <v>43831</v>
       </c>
@@ -18977,7 +18981,7 @@
         <v>44941</v>
       </c>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A643" s="40"/>
       <c r="B643" s="20" t="s">
         <v>439</v>
@@ -18997,7 +19001,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A644" s="40"/>
       <c r="B644" s="20" t="s">
         <v>52</v>
@@ -19019,7 +19023,7 @@
         <v>44944</v>
       </c>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A645" s="40">
         <v>43862</v>
       </c>
@@ -19043,7 +19047,7 @@
         <v>44975</v>
       </c>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A646" s="40"/>
       <c r="B646" s="20" t="s">
         <v>207</v>
@@ -19063,7 +19067,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A647" s="40">
         <v>43891</v>
       </c>
@@ -19083,7 +19087,7 @@
       <c r="J647" s="11"/>
       <c r="K647" s="20"/>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A648" s="40">
         <v>43922</v>
       </c>
@@ -19103,7 +19107,7 @@
       <c r="J648" s="11"/>
       <c r="K648" s="20"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A649" s="40">
         <v>43952</v>
       </c>
@@ -19123,7 +19127,7 @@
       <c r="J649" s="11"/>
       <c r="K649" s="20"/>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A650" s="40">
         <v>43983</v>
       </c>
@@ -19143,7 +19147,7 @@
       <c r="J650" s="11"/>
       <c r="K650" s="20"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A651" s="40">
         <v>44013</v>
       </c>
@@ -19163,7 +19167,7 @@
       <c r="J651" s="11"/>
       <c r="K651" s="20"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A652" s="40">
         <v>44044</v>
       </c>
@@ -19189,7 +19193,7 @@
         <v>45157</v>
       </c>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A653" s="40"/>
       <c r="B653" s="20" t="s">
         <v>224</v>
@@ -19209,7 +19213,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A654" s="40"/>
       <c r="B654" s="20" t="s">
         <v>53</v>
@@ -19231,7 +19235,7 @@
         <v>45162</v>
       </c>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A655" s="40">
         <v>44075</v>
       </c>
@@ -19257,7 +19261,7 @@
         <v>45179</v>
       </c>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A656" s="40">
         <v>44105</v>
       </c>
@@ -19277,7 +19281,7 @@
       <c r="J656" s="11"/>
       <c r="K656" s="20"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A657" s="40">
         <v>44136</v>
       </c>
@@ -19303,7 +19307,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A658" s="40">
         <v>44166</v>
       </c>
@@ -19323,7 +19327,7 @@
       <c r="J658" s="11"/>
       <c r="K658" s="20"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A659" s="47" t="s">
         <v>381</v>
       </c>
@@ -19345,7 +19349,7 @@
       <c r="J659" s="11"/>
       <c r="K659" s="20"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A660" s="40">
         <v>44197</v>
       </c>
@@ -19371,7 +19375,7 @@
         <v>44944</v>
       </c>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A661" s="40">
         <v>44228</v>
       </c>
@@ -19397,7 +19401,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A662" s="40"/>
       <c r="B662" s="20" t="s">
         <v>53</v>
@@ -19419,7 +19423,7 @@
         <v>44983</v>
       </c>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A663" s="40"/>
       <c r="B663" s="20" t="s">
         <v>53</v>
@@ -19441,7 +19445,7 @@
         <v>44990</v>
       </c>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A664" s="40">
         <v>44256</v>
       </c>
@@ -19461,7 +19465,7 @@
       <c r="J664" s="11"/>
       <c r="K664" s="20"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A665" s="40">
         <v>44287</v>
       </c>
@@ -19481,7 +19485,7 @@
       <c r="J665" s="11"/>
       <c r="K665" s="20"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A666" s="40">
         <v>44317</v>
       </c>
@@ -19501,7 +19505,7 @@
       <c r="J666" s="11"/>
       <c r="K666" s="20"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A667" s="40">
         <v>44348</v>
       </c>
@@ -19521,7 +19525,7 @@
       <c r="J667" s="11"/>
       <c r="K667" s="20"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A668" s="40">
         <v>44378</v>
       </c>
@@ -19547,7 +19551,7 @@
         <v>45135</v>
       </c>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A669" s="40">
         <v>44409</v>
       </c>
@@ -19571,7 +19575,7 @@
       <c r="J669" s="11"/>
       <c r="K669" s="20"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A670" s="40">
         <v>44440</v>
       </c>
@@ -19593,7 +19597,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A671" s="40">
         <v>44470</v>
       </c>
@@ -19619,7 +19623,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A672" s="40"/>
       <c r="B672" s="20" t="s">
         <v>86</v>
@@ -19641,7 +19645,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A673" s="40"/>
       <c r="B673" s="20" t="s">
         <v>207</v>
@@ -19661,7 +19665,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A674" s="40">
         <v>44501</v>
       </c>
@@ -19685,7 +19689,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A675" s="40">
         <v>44531</v>
       </c>
@@ -19705,7 +19709,7 @@
       <c r="J675" s="11"/>
       <c r="K675" s="20"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A676" s="47" t="s">
         <v>382</v>
       </c>
@@ -19727,7 +19731,7 @@
       <c r="J676" s="11"/>
       <c r="K676" s="20"/>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A677" s="40">
         <v>44562</v>
       </c>
@@ -19753,7 +19757,7 @@
         <v>44952</v>
       </c>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A678" s="40"/>
       <c r="B678" s="20" t="s">
         <v>53</v>
@@ -19775,7 +19779,7 @@
         <v>44968</v>
       </c>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A679" s="40">
         <v>44593</v>
       </c>
@@ -19799,7 +19803,7 @@
       <c r="J679" s="11"/>
       <c r="K679" s="20"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A680" s="40">
         <v>44621</v>
       </c>
@@ -19825,7 +19829,7 @@
         <v>44988</v>
       </c>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A681" s="40">
         <v>44652</v>
       </c>
@@ -19847,7 +19851,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A682" s="40">
         <v>44682</v>
       </c>
@@ -19873,7 +19877,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A683" s="40"/>
       <c r="B683" s="20" t="s">
         <v>53</v>
@@ -19895,7 +19899,7 @@
         <v>45080</v>
       </c>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A684" s="40">
         <v>44713</v>
       </c>
@@ -19915,7 +19919,7 @@
       <c r="J684" s="11"/>
       <c r="K684" s="20"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A685" s="40">
         <v>44743</v>
       </c>
@@ -19935,7 +19939,7 @@
       <c r="J685" s="11"/>
       <c r="K685" s="20"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A686" s="40">
         <v>44774</v>
       </c>
@@ -19961,7 +19965,7 @@
         <v>45147</v>
       </c>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A687" s="40">
         <v>44805</v>
       </c>
@@ -19987,7 +19991,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A688" s="40"/>
       <c r="B688" s="20" t="s">
         <v>57</v>
@@ -20009,7 +20013,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A689" s="40">
         <v>44835</v>
       </c>
@@ -20029,7 +20033,7 @@
       <c r="J689" s="11"/>
       <c r="K689" s="20"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A690" s="40">
         <v>44866</v>
       </c>
@@ -20055,7 +20059,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A691" s="40"/>
       <c r="B691" s="20" t="s">
         <v>57</v>
@@ -20077,7 +20081,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A692" s="40">
         <v>44896</v>
       </c>
@@ -20101,7 +20105,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A693" s="47" t="s">
         <v>450</v>
       </c>
@@ -20119,7 +20123,7 @@
       <c r="J693" s="11"/>
       <c r="K693" s="20"/>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A694" s="40">
         <v>44927</v>
       </c>
@@ -20139,7 +20143,7 @@
       <c r="J694" s="11"/>
       <c r="K694" s="20"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A695" s="40">
         <f>EDATE(A694,1)</f>
         <v>44958</v>
@@ -20160,9 +20164,9 @@
       <c r="J695" s="11"/>
       <c r="K695" s="20"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A696" s="40">
-        <f t="shared" ref="A696:A711" si="0">EDATE(A695,1)</f>
+        <f t="shared" ref="A696:A712" si="0">EDATE(A695,1)</f>
         <v>44986</v>
       </c>
       <c r="B696" s="20" t="s">
@@ -20187,7 +20191,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A697" s="40"/>
       <c r="B697" s="20" t="s">
         <v>53</v>
@@ -20209,7 +20213,7 @@
         <v>44991</v>
       </c>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A698" s="40">
         <f>EDATE(A696,1)</f>
         <v>45017</v>
@@ -20230,7 +20234,7 @@
       <c r="J698" s="11"/>
       <c r="K698" s="49"/>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A699" s="40">
         <f t="shared" si="0"/>
         <v>45047</v>
@@ -20238,13 +20242,15 @@
       <c r="B699" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C699" s="13"/>
+      <c r="C699" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D699" s="39"/>
       <c r="E699" s="9"/>
       <c r="F699" s="20"/>
-      <c r="G699" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G699" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H699" s="39">
         <v>1</v>
@@ -20255,7 +20261,7 @@
         <v>45044</v>
       </c>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A700" s="40"/>
       <c r="B700" s="20" t="s">
         <v>53</v>
@@ -20277,12 +20283,11 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A701" s="40">
-        <f>EDATE(A699,1)</f>
-        <v>45078</v>
-      </c>
-      <c r="B701" s="20"/>
+    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A701" s="40"/>
+      <c r="B701" s="20" t="s">
+        <v>57</v>
+      </c>
       <c r="C701" s="13"/>
       <c r="D701" s="39"/>
       <c r="E701" s="9"/>
@@ -20291,15 +20296,19 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H701" s="39"/>
+      <c r="H701" s="39">
+        <v>2</v>
+      </c>
       <c r="I701" s="9"/>
       <c r="J701" s="11"/>
-      <c r="K701" s="20"/>
-    </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K701" s="49" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A702" s="40">
-        <f t="shared" si="0"/>
-        <v>45108</v>
+        <f>EDATE(A699,1)</f>
+        <v>45078</v>
       </c>
       <c r="B702" s="20"/>
       <c r="C702" s="13"/>
@@ -20315,10 +20324,10 @@
       <c r="J702" s="11"/>
       <c r="K702" s="20"/>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A703" s="40">
         <f t="shared" si="0"/>
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B703" s="20"/>
       <c r="C703" s="13"/>
@@ -20334,10 +20343,10 @@
       <c r="J703" s="11"/>
       <c r="K703" s="20"/>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A704" s="40">
         <f t="shared" si="0"/>
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B704" s="20"/>
       <c r="C704" s="13"/>
@@ -20353,10 +20362,10 @@
       <c r="J704" s="11"/>
       <c r="K704" s="20"/>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A705" s="40">
         <f t="shared" si="0"/>
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B705" s="20"/>
       <c r="C705" s="13"/>
@@ -20372,10 +20381,10 @@
       <c r="J705" s="11"/>
       <c r="K705" s="20"/>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A706" s="40">
         <f t="shared" si="0"/>
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B706" s="20"/>
       <c r="C706" s="13"/>
@@ -20391,10 +20400,10 @@
       <c r="J706" s="11"/>
       <c r="K706" s="20"/>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A707" s="40">
         <f t="shared" si="0"/>
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B707" s="20"/>
       <c r="C707" s="13"/>
@@ -20410,10 +20419,10 @@
       <c r="J707" s="11"/>
       <c r="K707" s="20"/>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A708" s="40">
         <f t="shared" si="0"/>
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B708" s="20"/>
       <c r="C708" s="13"/>
@@ -20429,10 +20438,10 @@
       <c r="J708" s="11"/>
       <c r="K708" s="20"/>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A709" s="40">
         <f t="shared" si="0"/>
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B709" s="20"/>
       <c r="C709" s="13"/>
@@ -20448,10 +20457,10 @@
       <c r="J709" s="11"/>
       <c r="K709" s="20"/>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A710" s="40">
         <f t="shared" si="0"/>
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B710" s="20"/>
       <c r="C710" s="13"/>
@@ -20467,10 +20476,10 @@
       <c r="J710" s="11"/>
       <c r="K710" s="20"/>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A711" s="40">
         <f t="shared" si="0"/>
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B711" s="20"/>
       <c r="C711" s="13"/>
@@ -20486,8 +20495,11 @@
       <c r="J711" s="11"/>
       <c r="K711" s="20"/>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A712" s="40"/>
+    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A712" s="40">
+        <f t="shared" si="0"/>
+        <v>45383</v>
+      </c>
       <c r="B712" s="20"/>
       <c r="C712" s="13"/>
       <c r="D712" s="39"/>
@@ -20502,7 +20514,7 @@
       <c r="J712" s="11"/>
       <c r="K712" s="20"/>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A713" s="40"/>
       <c r="B713" s="20"/>
       <c r="C713" s="13"/>
@@ -20518,7 +20530,7 @@
       <c r="J713" s="11"/>
       <c r="K713" s="20"/>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A714" s="40"/>
       <c r="B714" s="20"/>
       <c r="C714" s="13"/>
@@ -20534,7 +20546,7 @@
       <c r="J714" s="11"/>
       <c r="K714" s="20"/>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A715" s="40"/>
       <c r="B715" s="20"/>
       <c r="C715" s="13"/>
@@ -20550,7 +20562,7 @@
       <c r="J715" s="11"/>
       <c r="K715" s="20"/>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A716" s="40"/>
       <c r="B716" s="20"/>
       <c r="C716" s="13"/>
@@ -20566,7 +20578,7 @@
       <c r="J716" s="11"/>
       <c r="K716" s="20"/>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A717" s="40"/>
       <c r="B717" s="20"/>
       <c r="C717" s="13"/>
@@ -20582,7 +20594,7 @@
       <c r="J717" s="11"/>
       <c r="K717" s="20"/>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A718" s="40"/>
       <c r="B718" s="20"/>
       <c r="C718" s="13"/>
@@ -20598,7 +20610,7 @@
       <c r="J718" s="11"/>
       <c r="K718" s="20"/>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A719" s="40"/>
       <c r="B719" s="20"/>
       <c r="C719" s="13"/>
@@ -20614,7 +20626,7 @@
       <c r="J719" s="11"/>
       <c r="K719" s="20"/>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A720" s="40"/>
       <c r="B720" s="20"/>
       <c r="C720" s="13"/>
@@ -20630,7 +20642,7 @@
       <c r="J720" s="11"/>
       <c r="K720" s="20"/>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A721" s="40"/>
       <c r="B721" s="20"/>
       <c r="C721" s="13"/>
@@ -20646,7 +20658,7 @@
       <c r="J721" s="11"/>
       <c r="K721" s="20"/>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A722" s="40"/>
       <c r="B722" s="20"/>
       <c r="C722" s="13"/>
@@ -20662,7 +20674,7 @@
       <c r="J722" s="11"/>
       <c r="K722" s="20"/>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A723" s="40"/>
       <c r="B723" s="20"/>
       <c r="C723" s="13"/>
@@ -20678,7 +20690,7 @@
       <c r="J723" s="11"/>
       <c r="K723" s="20"/>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A724" s="40"/>
       <c r="B724" s="20"/>
       <c r="C724" s="13"/>
@@ -20694,7 +20706,7 @@
       <c r="J724" s="11"/>
       <c r="K724" s="20"/>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A725" s="40"/>
       <c r="B725" s="20"/>
       <c r="C725" s="13"/>
@@ -20710,7 +20722,7 @@
       <c r="J725" s="11"/>
       <c r="K725" s="20"/>
     </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A726" s="40"/>
       <c r="B726" s="20"/>
       <c r="C726" s="13"/>
@@ -20726,7 +20738,7 @@
       <c r="J726" s="11"/>
       <c r="K726" s="20"/>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A727" s="40"/>
       <c r="B727" s="20"/>
       <c r="C727" s="13"/>
@@ -20742,7 +20754,7 @@
       <c r="J727" s="11"/>
       <c r="K727" s="20"/>
     </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A728" s="40"/>
       <c r="B728" s="20"/>
       <c r="C728" s="13"/>
@@ -20758,7 +20770,7 @@
       <c r="J728" s="11"/>
       <c r="K728" s="20"/>
     </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A729" s="40"/>
       <c r="B729" s="20"/>
       <c r="C729" s="13"/>
@@ -20774,7 +20786,7 @@
       <c r="J729" s="11"/>
       <c r="K729" s="20"/>
     </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A730" s="40"/>
       <c r="B730" s="20"/>
       <c r="C730" s="13"/>
@@ -20790,7 +20802,7 @@
       <c r="J730" s="11"/>
       <c r="K730" s="20"/>
     </row>
-    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A731" s="40"/>
       <c r="B731" s="20"/>
       <c r="C731" s="13"/>
@@ -20806,7 +20818,7 @@
       <c r="J731" s="11"/>
       <c r="K731" s="20"/>
     </row>
-    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A732" s="40"/>
       <c r="B732" s="20"/>
       <c r="C732" s="13"/>
@@ -20822,7 +20834,7 @@
       <c r="J732" s="11"/>
       <c r="K732" s="20"/>
     </row>
-    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A733" s="40"/>
       <c r="B733" s="20"/>
       <c r="C733" s="13"/>
@@ -20838,7 +20850,7 @@
       <c r="J733" s="11"/>
       <c r="K733" s="20"/>
     </row>
-    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A734" s="40"/>
       <c r="B734" s="20"/>
       <c r="C734" s="13"/>
@@ -20854,7 +20866,7 @@
       <c r="J734" s="11"/>
       <c r="K734" s="20"/>
     </row>
-    <row r="735" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A735" s="40"/>
       <c r="B735" s="20"/>
       <c r="C735" s="13"/>
@@ -20870,7 +20882,7 @@
       <c r="J735" s="11"/>
       <c r="K735" s="20"/>
     </row>
-    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A736" s="40"/>
       <c r="B736" s="20"/>
       <c r="C736" s="13"/>
@@ -20886,7 +20898,7 @@
       <c r="J736" s="11"/>
       <c r="K736" s="20"/>
     </row>
-    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A737" s="40"/>
       <c r="B737" s="20"/>
       <c r="C737" s="13"/>
@@ -20902,21 +20914,37 @@
       <c r="J737" s="11"/>
       <c r="K737" s="20"/>
     </row>
-    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A738" s="50"/>
-      <c r="B738" s="15"/>
-      <c r="C738" s="41"/>
-      <c r="D738" s="42"/>
+    <row r="738" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A738" s="40"/>
+      <c r="B738" s="20"/>
+      <c r="C738" s="13"/>
+      <c r="D738" s="39"/>
       <c r="E738" s="9"/>
-      <c r="F738" s="15"/>
-      <c r="G738" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H738" s="42"/>
+      <c r="F738" s="20"/>
+      <c r="G738" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H738" s="39"/>
       <c r="I738" s="9"/>
-      <c r="J738" s="12"/>
-      <c r="K738" s="15"/>
+      <c r="J738" s="11"/>
+      <c r="K738" s="20"/>
+    </row>
+    <row r="739" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A739" s="50"/>
+      <c r="B739" s="15"/>
+      <c r="C739" s="41"/>
+      <c r="D739" s="42"/>
+      <c r="E739" s="9"/>
+      <c r="F739" s="15"/>
+      <c r="G739" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H739" s="42"/>
+      <c r="I739" s="9"/>
+      <c r="J739" s="12"/>
+      <c r="K739" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -20933,10 +20961,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -20959,7 +20987,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -20967,21 +20995,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -20994,7 +21022,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -21023,7 +21051,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>34.792000000000002</v>
       </c>
@@ -21053,17 +21081,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -21084,7 +21112,7 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -21111,7 +21139,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -21137,7 +21165,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -21163,7 +21191,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -21189,7 +21217,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -21215,7 +21243,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -21241,7 +21269,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -21267,7 +21295,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -21293,7 +21321,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -21313,7 +21341,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -21333,7 +21361,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -21353,7 +21381,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -21374,7 +21402,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -21395,7 +21423,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -21416,7 +21444,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -21437,7 +21465,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -21458,7 +21486,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -21479,7 +21507,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -21500,7 +21528,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -21521,7 +21549,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -21542,7 +21570,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -21563,7 +21591,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -21584,7 +21612,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -21605,7 +21633,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -21626,7 +21654,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -21647,7 +21675,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -21668,7 +21696,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -21689,7 +21717,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -21710,7 +21738,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -21731,7 +21759,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -21752,7 +21780,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -21773,7 +21801,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -21782,7 +21810,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -21791,7 +21819,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -21800,7 +21828,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -21809,7 +21837,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -21818,7 +21846,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -21827,7 +21855,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -21836,7 +21864,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -21845,7 +21873,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -21854,7 +21882,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -21863,7 +21891,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -21872,7 +21900,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -21881,7 +21909,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -21890,7 +21918,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -21899,7 +21927,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -21908,7 +21936,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -21917,7 +21945,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -21926,7 +21954,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -21935,7 +21963,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -21944,7 +21972,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -21953,7 +21981,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -21962,7 +21990,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -21971,7 +21999,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -21980,7 +22008,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -21989,7 +22017,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -21998,7 +22026,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -22007,7 +22035,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -22016,7 +22044,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -22025,7 +22053,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -22034,7 +22062,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
